--- a/src/_data/2023-12/dec-2023-translations.xlsx
+++ b/src/_data/2023-12/dec-2023-translations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\nina\LACMTA\mybus-v3\src\_data\2023-12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDD309C-6883-4F1A-B954-7B15CC3AEC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B92378-B9E2-4FE9-9F03-338AD5672963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12435" yWindow="420" windowWidth="21120" windowHeight="20745" tabRatio="215" firstSheet="1" activeTab="2" xr2:uid="{61E896D0-D03E-8B43-AD1B-B1FBB720644D}"/>
+    <workbookView xWindow="2880" yWindow="510" windowWidth="34665" windowHeight="20745" tabRatio="215" firstSheet="1" activeTab="1" xr2:uid="{61E896D0-D03E-8B43-AD1B-B1FBB720644D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,9 @@
     <sheet name="lines" sheetId="3" r:id="rId3"/>
     <sheet name="content" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">updates!$A$1:$S$88</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
   <extLst>
@@ -40,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2426" uniqueCount="1105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="1129">
   <si>
     <t>English</t>
   </si>
@@ -20477,12 +20480,1144 @@
   <si>
     <t>K Line</t>
   </si>
+  <si>
+    <t>Weekday peak hour trains will operate every 8 minutes instead of 10 minutes. Weekday midday and Saturday/Sunday 9am to 7pm trains will operate every 10 minutes instead of 12 minutes. Two additional trains will be added at the end of the nightly schedule each direction on both the A and E lines, extending service by an extra 40 minutes each night, weekdays and weekends, with much-requested later last departures from Long Beach, APU Citrus (Azusa), and Santa Monica after 11:30pm.</t>
+  </si>
+  <si>
+    <t>Los trenes en horas pico entre semana operarán cada 8 minutos en lugar de cada 10 minutos.
+Los trenes entre semana al medio día, y los sábados y domingos de 9 a. m. a 7 p. m., operarán cada 10 minutos en lugar de cada 12 minutos.
+Se agregarán dos trenes adicionales al final del horario nocturno en ambas direcciones de la A Line y la E Line, con lo cual se ampliará el servicio 40 minutos más cada noche, entre semana y los fines de semana, con un servicio más tarde tan solicitado con 
+salidas desde Long Beach, APU Citrus
+(Azusa) y Santa Monica, después de las 11:30 p. m.</t>
+  </si>
+  <si>
+    <r>
+      <t>平日尖峰時段的列車發車間隔將從每</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>分鐘一班改為每</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>分鐘一班。平日午間和週六/週日上午</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>點至晚上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>點的列車發車間隔將從每</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>分鐘一班改為每</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">分鐘一班。 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A Line</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>與</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E Line</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>夜間時刻表將加開兩班雙向末班列車，每晚、平日與週末行駛時間往後延長</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>分鐘，以因應需求高的夜班車，這些車班會在晚上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11:30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>過後行經</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Long Beach</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>APU Citrus
+(Azusa)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"> 以及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Santa Monica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，將之前的末班車時間往後延。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">평일 피크 시간대에 열차는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">분 대신 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">분 간격으로 운행됩니다. 
+평일 정오 및 토요일/일요일 오전 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">시~오후 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">시에 열차는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">분 대신 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">분 간격으로 운행됩니다. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A, E Line </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">모두 야간 운행 시간대 마지막에 방향별로 2편의 열차가 증편되어 평일과 주말 모두 매일 밤 운행 시간이 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">분씩 추가로 연장되며, 요청이 많았던 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Long Beach, APU Citrus(Azusa)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">, 및 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Santa Monica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 의 마지막 배차가 오후 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">시 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분 이후로 조정됩니다.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>平日のピーク時は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>分間隔から</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>分間隔に変更されます。平日の昼間および土日の午前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>時から午後</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>時までは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>分間隔から</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>分間隔に変更されます。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A Line</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>と</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>E Line</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>の夜間ダイヤの最後にそれぞれ2本ずつ追加され、平日・週末を問わず毎晩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>40</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>分延長され、要望の多かった</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Long Beach、APU Citrus（Azusa）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>、</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Santa Monica</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>発の最終時刻を午後</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>時</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>30</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>分以降に遅らせます。</t>
+    </r>
+  </si>
+  <si>
+    <t>В часы пик по будним дням поезда будут курсировать с промежутком 8 минут вместо 10.
+В обеденное время по будним дням, а также с 9:00 до 19:00 по субботам/воскресеньям поезда будут курсировать с промежутком 10 минут вместо 12. В ночное расписание на маршруты A и E Line будут добавлены два дополнительных поезда в каждом направлении, что позволит продлить время обслуживания еще на 40 минут в будни и выходные дни, при этом по многочисленным просьбам пассажиров последние поезда
+будут отправляться от станций Long Beach, APU Citrus
+(Azusa) и Santa Monica после 23:30.</t>
+  </si>
+  <si>
+    <t>Vào giờ cao điểm trong ngày thường, tàu sẽ chạy với tần suất 8 phút/chuyến thay vì 10 phút.
+Vào buổi trưa ngày thường và từ 9 giờ sáng đến 7 giờ chiều Thứ Bảy/Chủ Nhật, tàu sẽ chạy với tần suất 10 phút/chuyến thay vì 12 phút.
+Sẽ có thêm hai chuyến tàu được bổ sung vào cuối lịch trình hàng đêm mỗi chiều trên cả line A và E, kéo dài thời gian dịch vụ thêm 40 phút mỗi đêm, trong cả ngày thường và ngày cuối tuần, với các chuyến muộn nhất theo yêu cầu của nhiều hành khách sẽ khởi hành muộn hơn
+từ Long Beach, APU Citrus
+(Azusa) và Santa Monica sau 11:30 đêm.</t>
+  </si>
+  <si>
+    <t>Vào buổi trưa ngày thường và từ 9 giờ sáng đến 7 giờ tối Thứ Bảy/Chủ Nhật, tàu sẽ chạy với tần suất 10 phút/chuyến thay vì 15 phút. ​</t>
+  </si>
+  <si>
+    <t>В обеденное время по будням, а также с 9:00 до 19:00 по субботам/воскресеньям поезда будут курсировать с промежутком 10 минут вместо 15.</t>
+  </si>
+  <si>
+    <r>
+      <t>平日昼間および土曜・日曜の午前</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>時から午後</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>時までは</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>分間隔から</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="MS Mincho"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>分間隔に変更されます。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">평일 정오 및 토요일/일요일 오전 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">시~오후 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">시에 열차는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">분이 아닌 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Batang"/>
+        <family val="1"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분 간격으로 운행됩니다.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>平日午間和週六/週日上午</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>點至晚上</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>點的列車發車間隔將從每</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>分鐘一班改為每</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>分鐘一班。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Շաբաթվա պիկ ժամերին գնացքները կաշխատեն </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8 րոպեն մեկ՝ 10 րոպեի փոխարեն: 
+Շաբաթվա կեսօր և շաբաթ/կիրակի օրերին առավոտյան 9-ից մինչև երեկոյան 7-ը գնացքները կաշխատեն 10 րոպեն մեկ՝ 12 րոպեի փոխարեն:
+Երկու հավելյալ գնացք կավելացվի գիշերային գրաֆիկի ավարտին յուրաքանչյուր ուղղությամբ A և E line-երի վրա՝ երկարացնելով ծառայությունը հավելյալ 40 րոպեով ամեն գիշեր, աշխատանքային օրերին և հանգստյան օրերին, շատ պահանջված ուշ ժամերին վերջին 
+մեկնումներով Long Beach-ից, APU Citrus-ից
+(Azusa) և  Santa Monica-ից երեկոյան 23:30-ից հետո:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Շաբաթվա օրերին կեսօրը և շաբաթ/կիրակի առավոտյան </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9-ից մինչև երեկոյան 7-ը գնացքները կաշխատեն 15 րոպեի փոխարեն 10 րոպեն մեկ:</t>
+    </r>
+  </si>
+  <si>
+    <t>Entre semana al mediodía y los sábados y domingos, de 9 a. m. a 7 p. m., los trenes operarán cada 10 minutos en lugar de cada 15 minutos.</t>
+  </si>
+  <si>
+    <t>Weekday midday trains will operate every 10 minutes instead of 12 minutes.
+Note: K Line weekend service, trains will operate every 20 minutes all day Saturday and Sunday due to construction and testing work to connect the C and K Lines and new LAX/Metro Transit Center Station (scheduled opening end of 2024).</t>
+  </si>
+  <si>
+    <t>Vào buổi trưa ngày thường, tàu sẽ chạy với tần suất 10 phút/chuyến thay vì 12 phút.
+Lưu ý: Với dịch vụ cuối tuần của Line K, tàu sẽ chạy với tần suất 20 phút/chuyến suốt cả ngày Thứ Bảy và Chủ Nhật do công việc thi công và thử nghiệm để kết nối các Line C và K với LAX/Metro Transit Center Station mới (dự kiến mở cửa hoạt động vào cuối năm 2024).</t>
+  </si>
+  <si>
+    <t>Entre semana al mediodía, los trenes operarán cada 10 minutos en lugar de cada 12 minutos.
+Nota: Para el servicio de fin de semana de la K Line, los trenes operarán cada 20 minutos todo el día los sábados y domingos debido a los trabajos de construcción y pruebas para conectar la C Line y la K Line y la nueva estación LAX/Metro Transit Center (apertura programada para finales de 2024).</t>
+  </si>
+  <si>
+    <t>Շաբաթվա կեսօրվա գնացքները կաշխատեն 10 րոպեն մեկ՝ 12 րոպեի փոխարեն:
+Նշում․ շաբաթավերջին K Line ծառայությունը, գնացքները կաշխատեն ամեն 20 րոպեն մեկ ամբողջ օրը շաբաթ և կիրակի՝ C և K Line-երը և նոր LAX/Metro Transit Center Station-ը միացնելու շինարարական և փորձարարական աշխատանքների պատճառով (պլանավորված բացումը 2024 թ.-ի վերջ):</t>
+  </si>
+  <si>
+    <t>平日午間列車的發車間隔將從每12分鐘一班改為每10分鐘一班。附註：K Line的週末營運由於連接C Line和K Line與新LAX/Metro Transit Center Station（預定於2024年底開通）的施工及測試作業，列車在週六和週日全天的發車間隔是20分鐘。</t>
+  </si>
+  <si>
+    <t>평일 정오에 열차는 12분이 아닌 10분의 간격으로 운행됩니다.
+참고: K Line 주말 서비스 및 열차는 C 및 K Line과 신규 LAX/Metro Transit Center 역(2024년 말 개장 예정) 연결 작업 건설 및 시범 운행으로 인해 토요일 및 일요일은 하루종일 20분마다 운행됩니다.</t>
+  </si>
+  <si>
+    <t>平日昼間は12分間隔から10分間隔に変更されます。注：週末のK Line運行については、C LineとK LineおよびLAX/Metro Transit Center Station（2024年末開業予定）の建設・試験工事のため、土日は終日20分間隔で運行します。</t>
+  </si>
+  <si>
+    <t>Днем в будни поезда будут курсировать каждые 10 минут вместо 12.
+Примечание: на маршруте K Line по субботам и воскресеньям поезда будут курсировать каждые 20 минут по причине строительства и испытания соединения маршрутов C и K Line с новой станцией LAX/Metro Transit Center (открытие запланировано на конец 2024 года).</t>
+  </si>
+  <si>
+    <t>Weekday midday and Saturday/Sunday 9 am to 7 pm trains will operate every 10 minutes instead of 15 minutes.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -20639,6 +21774,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -20784,8 +21926,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -20801,44 +21945,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{21294A63-57E9-4EB8-A627-531329A3AEFB}"/>
@@ -22769,8 +23897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3379E4E-7E82-4114-9EA0-C7AA1E3C9292}">
   <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -22778,7 +23906,7 @@
     <col min="1" max="1" width="13.75" style="31" customWidth="1"/>
     <col min="2" max="2" width="14" style="31" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="31" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="31" customWidth="1"/>
+    <col min="4" max="4" width="67" style="31" customWidth="1"/>
     <col min="5" max="19" width="10.625" style="31" customWidth="1"/>
     <col min="20" max="16384" width="8.75" style="31"/>
   </cols>
@@ -22850,52 +23978,52 @@
         <v>980</v>
       </c>
       <c r="C2" s="42"/>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H2" s="39" t="s">
+      <c r="H2" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="L2" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="M2" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="O2" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="P2" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R2" s="39" t="s">
+      <c r="R2" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="S2" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -22915,46 +24043,46 @@
       <c r="E3" s="44" t="s">
         <v>431</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="40" t="s">
         <v>909</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="41" t="s">
         <v>910</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="41" t="s">
         <v>911</v>
       </c>
-      <c r="K3" s="39" t="s">
+      <c r="K3" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L3" s="39" t="s">
+      <c r="L3" s="41" t="s">
         <v>912</v>
       </c>
-      <c r="M3" s="39" t="s">
+      <c r="M3" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N3" s="39" t="s">
+      <c r="N3" s="41" t="s">
         <v>913</v>
       </c>
-      <c r="O3" s="39" t="s">
+      <c r="O3" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P3" s="39" t="s">
+      <c r="P3" s="41" t="s">
         <v>914</v>
       </c>
-      <c r="Q3" s="39" t="s">
+      <c r="Q3" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R3" s="39" t="s">
+      <c r="R3" s="41" t="s">
         <v>915</v>
       </c>
-      <c r="S3" s="39" t="s">
+      <c r="S3" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -22966,52 +24094,52 @@
         <v>982</v>
       </c>
       <c r="C4" s="43"/>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F4" s="39" t="s">
+      <c r="F4" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="G4" s="38" t="s">
+      <c r="G4" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="I4" s="39" t="s">
+      <c r="I4" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J4" s="39" t="s">
+      <c r="J4" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="K4" s="39" t="s">
+      <c r="K4" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L4" s="39" t="s">
+      <c r="L4" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N4" s="39" t="s">
+      <c r="N4" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="O4" s="39" t="s">
+      <c r="O4" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P4" s="39" t="s">
+      <c r="P4" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="Q4" s="39" t="s">
+      <c r="Q4" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R4" s="39" t="s">
+      <c r="R4" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="S4" s="39" t="s">
+      <c r="S4" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -23086,46 +24214,46 @@
       <c r="E6" s="44" t="s">
         <v>431</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="40" t="s">
         <v>909</v>
       </c>
-      <c r="G6" s="38" t="s">
+      <c r="G6" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="41" t="s">
         <v>910</v>
       </c>
-      <c r="I6" s="39" t="s">
+      <c r="I6" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="41" t="s">
         <v>911</v>
       </c>
-      <c r="K6" s="39" t="s">
+      <c r="K6" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L6" s="39" t="s">
+      <c r="L6" s="41" t="s">
         <v>912</v>
       </c>
-      <c r="M6" s="39" t="s">
+      <c r="M6" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="N6" s="41" t="s">
         <v>913</v>
       </c>
-      <c r="O6" s="39" t="s">
+      <c r="O6" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P6" s="39" t="s">
+      <c r="P6" s="41" t="s">
         <v>914</v>
       </c>
-      <c r="Q6" s="39" t="s">
+      <c r="Q6" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R6" s="39" t="s">
+      <c r="R6" s="41" t="s">
         <v>915</v>
       </c>
-      <c r="S6" s="39" t="s">
+      <c r="S6" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -23137,52 +24265,52 @@
         <v>985</v>
       </c>
       <c r="C7" s="43"/>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="41" t="s">
         <v>1009</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F7" s="38" t="s">
+      <c r="F7" s="40" t="s">
         <v>1010</v>
       </c>
-      <c r="G7" s="38" t="s">
+      <c r="G7" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H7" s="39" t="s">
+      <c r="H7" s="41" t="s">
         <v>1011</v>
       </c>
-      <c r="I7" s="39" t="s">
+      <c r="I7" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J7" s="39" t="s">
+      <c r="J7" s="41" t="s">
         <v>1012</v>
       </c>
-      <c r="K7" s="39" t="s">
+      <c r="K7" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L7" s="39" t="s">
+      <c r="L7" s="41" t="s">
         <v>1013</v>
       </c>
-      <c r="M7" s="39" t="s">
+      <c r="M7" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N7" s="39" t="s">
+      <c r="N7" s="41" t="s">
         <v>1014</v>
       </c>
-      <c r="O7" s="39" t="s">
+      <c r="O7" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P7" s="39" t="s">
+      <c r="P7" s="41" t="s">
         <v>1015</v>
       </c>
-      <c r="Q7" s="39" t="s">
+      <c r="Q7" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R7" s="39" t="s">
+      <c r="R7" s="41" t="s">
         <v>1016</v>
       </c>
-      <c r="S7" s="39" t="s">
+      <c r="S7" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -23194,52 +24322,52 @@
         <v>986</v>
       </c>
       <c r="C8" s="43"/>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="E8" s="39" t="s">
+      <c r="E8" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F8" s="39" t="s">
+      <c r="F8" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="I8" s="39" t="s">
+      <c r="I8" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="J8" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="K8" s="39" t="s">
+      <c r="K8" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L8" s="39" t="s">
+      <c r="L8" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="M8" s="39" t="s">
+      <c r="M8" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N8" s="39" t="s">
+      <c r="N8" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="O8" s="39" t="s">
+      <c r="O8" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P8" s="39" t="s">
+      <c r="P8" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="Q8" s="39" t="s">
+      <c r="Q8" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R8" s="39" t="s">
+      <c r="R8" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="S8" s="39" t="s">
+      <c r="S8" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -23314,46 +24442,46 @@
       <c r="E10" s="44" t="s">
         <v>431</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="40" t="s">
         <v>909</v>
       </c>
-      <c r="G10" s="38" t="s">
+      <c r="G10" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="41" t="s">
         <v>910</v>
       </c>
-      <c r="I10" s="39" t="s">
+      <c r="I10" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J10" s="39" t="s">
+      <c r="J10" s="41" t="s">
         <v>911</v>
       </c>
-      <c r="K10" s="39" t="s">
+      <c r="K10" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L10" s="39" t="s">
+      <c r="L10" s="41" t="s">
         <v>912</v>
       </c>
-      <c r="M10" s="39" t="s">
+      <c r="M10" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N10" s="39" t="s">
+      <c r="N10" s="41" t="s">
         <v>913</v>
       </c>
-      <c r="O10" s="39" t="s">
+      <c r="O10" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P10" s="39" t="s">
+      <c r="P10" s="41" t="s">
         <v>914</v>
       </c>
-      <c r="Q10" s="39" t="s">
+      <c r="Q10" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R10" s="39" t="s">
+      <c r="R10" s="41" t="s">
         <v>915</v>
       </c>
-      <c r="S10" s="39" t="s">
+      <c r="S10" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -23422,52 +24550,52 @@
         <v>990</v>
       </c>
       <c r="C12" s="43"/>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="47" t="s">
         <v>1087</v>
       </c>
-      <c r="E12" s="49" t="s">
+      <c r="E12" s="47" t="s">
         <v>431</v>
       </c>
-      <c r="F12" s="50" t="s">
+      <c r="F12" s="48" t="s">
         <v>1080</v>
       </c>
-      <c r="G12" s="50" t="s">
+      <c r="G12" s="48" t="s">
         <v>916</v>
       </c>
-      <c r="H12" s="48" t="s">
+      <c r="H12" s="45" t="s">
         <v>1088</v>
       </c>
-      <c r="I12" s="48" t="s">
+      <c r="I12" s="45" t="s">
         <v>917</v>
       </c>
-      <c r="J12" s="49" t="s">
+      <c r="J12" s="47" t="s">
         <v>1081</v>
       </c>
-      <c r="K12" s="49" t="s">
+      <c r="K12" s="47" t="s">
         <v>529</v>
       </c>
-      <c r="L12" s="48" t="s">
+      <c r="L12" s="45" t="s">
         <v>1082</v>
       </c>
-      <c r="M12" s="48" t="s">
+      <c r="M12" s="45" t="s">
         <v>918</v>
       </c>
-      <c r="N12" s="48" t="s">
+      <c r="N12" s="45" t="s">
         <v>1089</v>
       </c>
-      <c r="O12" s="48" t="s">
+      <c r="O12" s="45" t="s">
         <v>919</v>
       </c>
-      <c r="P12" s="48" t="s">
+      <c r="P12" s="45" t="s">
         <v>1083</v>
       </c>
-      <c r="Q12" s="48" t="s">
+      <c r="Q12" s="45" t="s">
         <v>920</v>
       </c>
-      <c r="R12" s="49" t="s">
+      <c r="R12" s="47" t="s">
         <v>1084</v>
       </c>
-      <c r="S12" s="49" t="s">
+      <c r="S12" s="47" t="s">
         <v>469</v>
       </c>
     </row>
@@ -23479,52 +24607,52 @@
         <v>991</v>
       </c>
       <c r="C13" s="43"/>
-      <c r="D13" s="39" t="s">
+      <c r="D13" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="E13" s="39" t="s">
+      <c r="E13" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F13" s="39" t="s">
+      <c r="F13" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H13" s="39" t="s">
+      <c r="H13" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="I13" s="39" t="s">
+      <c r="I13" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J13" s="39" t="s">
+      <c r="J13" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="K13" s="39" t="s">
+      <c r="K13" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L13" s="39" t="s">
+      <c r="L13" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="M13" s="39" t="s">
+      <c r="M13" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N13" s="39" t="s">
+      <c r="N13" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="O13" s="39" t="s">
+      <c r="O13" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P13" s="39" t="s">
+      <c r="P13" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="Q13" s="39" t="s">
+      <c r="Q13" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R13" s="39" t="s">
+      <c r="R13" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="S13" s="39" t="s">
+      <c r="S13" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -23593,52 +24721,52 @@
         <v>993</v>
       </c>
       <c r="C15" s="43"/>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="47" t="s">
         <v>1087</v>
       </c>
-      <c r="E15" s="49" t="s">
+      <c r="E15" s="47" t="s">
         <v>431</v>
       </c>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="48" t="s">
         <v>1080</v>
       </c>
-      <c r="G15" s="50" t="s">
+      <c r="G15" s="48" t="s">
         <v>916</v>
       </c>
-      <c r="H15" s="48" t="s">
+      <c r="H15" s="45" t="s">
         <v>1088</v>
       </c>
-      <c r="I15" s="48" t="s">
+      <c r="I15" s="45" t="s">
         <v>917</v>
       </c>
-      <c r="J15" s="49" t="s">
+      <c r="J15" s="47" t="s">
         <v>1081</v>
       </c>
-      <c r="K15" s="49" t="s">
+      <c r="K15" s="47" t="s">
         <v>529</v>
       </c>
-      <c r="L15" s="48" t="s">
+      <c r="L15" s="45" t="s">
         <v>1082</v>
       </c>
-      <c r="M15" s="48" t="s">
+      <c r="M15" s="45" t="s">
         <v>918</v>
       </c>
-      <c r="N15" s="48" t="s">
+      <c r="N15" s="45" t="s">
         <v>1089</v>
       </c>
-      <c r="O15" s="48" t="s">
+      <c r="O15" s="45" t="s">
         <v>919</v>
       </c>
-      <c r="P15" s="48" t="s">
+      <c r="P15" s="45" t="s">
         <v>1083</v>
       </c>
-      <c r="Q15" s="48" t="s">
+      <c r="Q15" s="45" t="s">
         <v>920</v>
       </c>
-      <c r="R15" s="49" t="s">
+      <c r="R15" s="47" t="s">
         <v>1084</v>
       </c>
-      <c r="S15" s="49" t="s">
+      <c r="S15" s="47" t="s">
         <v>469</v>
       </c>
     </row>
@@ -23937,52 +25065,52 @@
         <v>999</v>
       </c>
       <c r="C21" s="43"/>
-      <c r="D21" s="39" t="s">
+      <c r="D21" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F21" s="39" t="s">
+      <c r="F21" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="G21" s="38" t="s">
+      <c r="G21" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H21" s="39" t="s">
+      <c r="H21" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="I21" s="39" t="s">
+      <c r="I21" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J21" s="39" t="s">
+      <c r="J21" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="K21" s="39" t="s">
+      <c r="K21" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L21" s="39" t="s">
+      <c r="L21" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="M21" s="39" t="s">
+      <c r="M21" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N21" s="39" t="s">
+      <c r="N21" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="O21" s="39" t="s">
+      <c r="O21" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P21" s="39" t="s">
+      <c r="P21" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="Q21" s="39" t="s">
+      <c r="Q21" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R21" s="39" t="s">
+      <c r="R21" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="S21" s="39" t="s">
+      <c r="S21" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -23994,52 +25122,52 @@
         <v>1000</v>
       </c>
       <c r="C22" s="43"/>
-      <c r="D22" s="39" t="s">
+      <c r="D22" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="E22" s="39" t="s">
+      <c r="E22" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F22" s="39" t="s">
+      <c r="F22" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="G22" s="38" t="s">
+      <c r="G22" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H22" s="39" t="s">
+      <c r="H22" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="I22" s="39" t="s">
+      <c r="I22" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J22" s="39" t="s">
+      <c r="J22" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="K22" s="39" t="s">
+      <c r="K22" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L22" s="39" t="s">
+      <c r="L22" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="M22" s="39" t="s">
+      <c r="M22" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N22" s="39" t="s">
+      <c r="N22" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="O22" s="39" t="s">
+      <c r="O22" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P22" s="39" t="s">
+      <c r="P22" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="Q22" s="39" t="s">
+      <c r="Q22" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R22" s="39" t="s">
+      <c r="R22" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="S22" s="39" t="s">
+      <c r="S22" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -24106,52 +25234,52 @@
         <v>1001</v>
       </c>
       <c r="C24" s="43"/>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E24" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F24" s="39" t="s">
+      <c r="F24" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="G24" s="38" t="s">
+      <c r="G24" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H24" s="39" t="s">
+      <c r="H24" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="I24" s="39" t="s">
+      <c r="I24" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J24" s="39" t="s">
+      <c r="J24" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="K24" s="39" t="s">
+      <c r="K24" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L24" s="39" t="s">
+      <c r="L24" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="M24" s="39" t="s">
+      <c r="M24" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N24" s="39" t="s">
+      <c r="N24" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="O24" s="39" t="s">
+      <c r="O24" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P24" s="39" t="s">
+      <c r="P24" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="Q24" s="39" t="s">
+      <c r="Q24" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R24" s="39" t="s">
+      <c r="R24" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="S24" s="39" t="s">
+      <c r="S24" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -24163,52 +25291,52 @@
         <v>1002</v>
       </c>
       <c r="C25" s="43"/>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="E25" s="39" t="s">
+      <c r="E25" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F25" s="39" t="s">
+      <c r="F25" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="G25" s="38" t="s">
+      <c r="G25" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H25" s="39" t="s">
+      <c r="H25" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="I25" s="39" t="s">
+      <c r="I25" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J25" s="39" t="s">
+      <c r="J25" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="K25" s="39" t="s">
+      <c r="K25" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L25" s="39" t="s">
+      <c r="L25" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="M25" s="39" t="s">
+      <c r="M25" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N25" s="39" t="s">
+      <c r="N25" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="O25" s="39" t="s">
+      <c r="O25" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P25" s="39" t="s">
+      <c r="P25" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="Q25" s="39" t="s">
+      <c r="Q25" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R25" s="39" t="s">
+      <c r="R25" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="S25" s="39" t="s">
+      <c r="S25" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -24279,52 +25407,52 @@
         <v>1004</v>
       </c>
       <c r="C27" s="43"/>
-      <c r="D27" s="39" t="s">
+      <c r="D27" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="E27" s="39" t="s">
+      <c r="E27" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F27" s="39" t="s">
+      <c r="F27" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="G27" s="38" t="s">
+      <c r="G27" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H27" s="39" t="s">
+      <c r="H27" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="I27" s="39" t="s">
+      <c r="I27" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J27" s="39" t="s">
+      <c r="J27" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="K27" s="39" t="s">
+      <c r="K27" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L27" s="39" t="s">
+      <c r="L27" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="M27" s="39" t="s">
+      <c r="M27" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N27" s="39" t="s">
+      <c r="N27" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="O27" s="39" t="s">
+      <c r="O27" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P27" s="39" t="s">
+      <c r="P27" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="Q27" s="39" t="s">
+      <c r="Q27" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R27" s="39" t="s">
+      <c r="R27" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="S27" s="39" t="s">
+      <c r="S27" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -24336,63 +25464,63 @@
         <v>921</v>
       </c>
       <c r="C28" s="43"/>
-      <c r="D28" s="39" t="s">
+      <c r="D28" s="41" t="s">
         <v>1009</v>
       </c>
-      <c r="E28" s="39" t="s">
+      <c r="E28" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F28" s="38" t="s">
+      <c r="F28" s="40" t="s">
         <v>1010</v>
       </c>
-      <c r="G28" s="38" t="s">
+      <c r="G28" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H28" s="39" t="s">
+      <c r="H28" s="41" t="s">
         <v>1011</v>
       </c>
-      <c r="I28" s="39" t="s">
+      <c r="I28" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J28" s="39" t="s">
+      <c r="J28" s="41" t="s">
         <v>1012</v>
       </c>
-      <c r="K28" s="39" t="s">
+      <c r="K28" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L28" s="39" t="s">
+      <c r="L28" s="41" t="s">
         <v>1013</v>
       </c>
-      <c r="M28" s="39" t="s">
+      <c r="M28" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N28" s="39" t="s">
+      <c r="N28" s="41" t="s">
         <v>1014</v>
       </c>
-      <c r="O28" s="39" t="s">
+      <c r="O28" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P28" s="39" t="s">
+      <c r="P28" s="41" t="s">
         <v>1015</v>
       </c>
-      <c r="Q28" s="39" t="s">
+      <c r="Q28" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R28" s="39" t="s">
+      <c r="R28" s="41" t="s">
         <v>1016</v>
       </c>
-      <c r="S28" s="39" t="s">
+      <c r="S28" s="41" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="32" customFormat="1" ht="75">
-      <c r="A29" s="45">
+    <row r="29" spans="1:19" s="32" customFormat="1">
+      <c r="A29" s="42">
         <v>105</v>
       </c>
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="42" t="s">
         <v>922</v>
       </c>
-      <c r="C29" s="46"/>
+      <c r="C29" s="43"/>
       <c r="D29" s="41" t="s">
         <v>1017</v>
       </c>
@@ -24456,46 +25584,46 @@
       <c r="E30" s="44" t="s">
         <v>431</v>
       </c>
-      <c r="F30" s="38" t="s">
+      <c r="F30" s="40" t="s">
         <v>909</v>
       </c>
-      <c r="G30" s="38" t="s">
+      <c r="G30" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H30" s="39" t="s">
+      <c r="H30" s="41" t="s">
         <v>910</v>
       </c>
-      <c r="I30" s="39" t="s">
+      <c r="I30" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J30" s="39" t="s">
+      <c r="J30" s="41" t="s">
         <v>911</v>
       </c>
-      <c r="K30" s="39" t="s">
+      <c r="K30" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L30" s="39" t="s">
+      <c r="L30" s="41" t="s">
         <v>912</v>
       </c>
-      <c r="M30" s="39" t="s">
+      <c r="M30" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N30" s="39" t="s">
+      <c r="N30" s="41" t="s">
         <v>913</v>
       </c>
-      <c r="O30" s="39" t="s">
+      <c r="O30" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P30" s="39" t="s">
+      <c r="P30" s="41" t="s">
         <v>914</v>
       </c>
-      <c r="Q30" s="39" t="s">
+      <c r="Q30" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R30" s="39" t="s">
+      <c r="R30" s="41" t="s">
         <v>915</v>
       </c>
-      <c r="S30" s="39" t="s">
+      <c r="S30" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -24564,52 +25692,52 @@
         <v>925</v>
       </c>
       <c r="C32" s="43"/>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="41" t="s">
         <v>1009</v>
       </c>
-      <c r="E32" s="39" t="s">
+      <c r="E32" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F32" s="38" t="s">
+      <c r="F32" s="40" t="s">
         <v>1010</v>
       </c>
-      <c r="G32" s="38" t="s">
+      <c r="G32" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H32" s="39" t="s">
+      <c r="H32" s="41" t="s">
         <v>1011</v>
       </c>
-      <c r="I32" s="39" t="s">
+      <c r="I32" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J32" s="39" t="s">
+      <c r="J32" s="41" t="s">
         <v>1012</v>
       </c>
-      <c r="K32" s="39" t="s">
+      <c r="K32" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L32" s="39" t="s">
+      <c r="L32" s="41" t="s">
         <v>1013</v>
       </c>
-      <c r="M32" s="39" t="s">
+      <c r="M32" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N32" s="39" t="s">
+      <c r="N32" s="41" t="s">
         <v>1014</v>
       </c>
-      <c r="O32" s="39" t="s">
+      <c r="O32" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P32" s="39" t="s">
+      <c r="P32" s="41" t="s">
         <v>1015</v>
       </c>
-      <c r="Q32" s="39" t="s">
+      <c r="Q32" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R32" s="39" t="s">
+      <c r="R32" s="41" t="s">
         <v>1016</v>
       </c>
-      <c r="S32" s="39" t="s">
+      <c r="S32" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -24621,52 +25749,52 @@
         <v>926</v>
       </c>
       <c r="C33" s="43"/>
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="41" t="s">
         <v>1009</v>
       </c>
-      <c r="E33" s="39" t="s">
+      <c r="E33" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F33" s="38" t="s">
+      <c r="F33" s="40" t="s">
         <v>1010</v>
       </c>
-      <c r="G33" s="38" t="s">
+      <c r="G33" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H33" s="39" t="s">
+      <c r="H33" s="41" t="s">
         <v>1011</v>
       </c>
-      <c r="I33" s="39" t="s">
+      <c r="I33" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J33" s="39" t="s">
+      <c r="J33" s="41" t="s">
         <v>1012</v>
       </c>
-      <c r="K33" s="39" t="s">
+      <c r="K33" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L33" s="39" t="s">
+      <c r="L33" s="41" t="s">
         <v>1013</v>
       </c>
-      <c r="M33" s="39" t="s">
+      <c r="M33" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N33" s="39" t="s">
+      <c r="N33" s="41" t="s">
         <v>1014</v>
       </c>
-      <c r="O33" s="39" t="s">
+      <c r="O33" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P33" s="39" t="s">
+      <c r="P33" s="41" t="s">
         <v>1015</v>
       </c>
-      <c r="Q33" s="39" t="s">
+      <c r="Q33" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R33" s="39" t="s">
+      <c r="R33" s="41" t="s">
         <v>1016</v>
       </c>
-      <c r="S33" s="39" t="s">
+      <c r="S33" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -24678,67 +25806,67 @@
         <v>927</v>
       </c>
       <c r="C34" s="43"/>
-      <c r="D34" s="39" t="s">
+      <c r="D34" s="41" t="s">
         <v>1009</v>
       </c>
-      <c r="E34" s="39" t="s">
+      <c r="E34" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F34" s="38" t="s">
+      <c r="F34" s="40" t="s">
         <v>1010</v>
       </c>
-      <c r="G34" s="38" t="s">
+      <c r="G34" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H34" s="39" t="s">
+      <c r="H34" s="41" t="s">
         <v>1011</v>
       </c>
-      <c r="I34" s="39" t="s">
+      <c r="I34" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J34" s="39" t="s">
+      <c r="J34" s="41" t="s">
         <v>1012</v>
       </c>
-      <c r="K34" s="39" t="s">
+      <c r="K34" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L34" s="39" t="s">
+      <c r="L34" s="41" t="s">
         <v>1013</v>
       </c>
-      <c r="M34" s="39" t="s">
+      <c r="M34" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N34" s="39" t="s">
+      <c r="N34" s="41" t="s">
         <v>1014</v>
       </c>
-      <c r="O34" s="39" t="s">
+      <c r="O34" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P34" s="39" t="s">
+      <c r="P34" s="41" t="s">
         <v>1015</v>
       </c>
-      <c r="Q34" s="39" t="s">
+      <c r="Q34" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R34" s="39" t="s">
+      <c r="R34" s="41" t="s">
         <v>1016</v>
       </c>
-      <c r="S34" s="39" t="s">
+      <c r="S34" s="41" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="32" customFormat="1" ht="105">
-      <c r="A35" s="45">
+    <row r="35" spans="1:19" s="32" customFormat="1">
+      <c r="A35" s="42">
         <v>134</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="42" t="s">
         <v>928</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="47" t="s">
+      <c r="C35" s="43"/>
+      <c r="D35" s="44" t="s">
         <v>908</v>
       </c>
-      <c r="E35" s="47" t="s">
+      <c r="E35" s="44" t="s">
         <v>431</v>
       </c>
       <c r="F35" s="40" t="s">
@@ -24792,52 +25920,52 @@
         <v>929</v>
       </c>
       <c r="C36" s="43"/>
-      <c r="D36" s="39" t="s">
+      <c r="D36" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="E36" s="39" t="s">
+      <c r="E36" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F36" s="39" t="s">
+      <c r="F36" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H36" s="39" t="s">
+      <c r="H36" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="I36" s="39" t="s">
+      <c r="I36" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J36" s="39" t="s">
+      <c r="J36" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="K36" s="39" t="s">
+      <c r="K36" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L36" s="39" t="s">
+      <c r="L36" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="M36" s="39" t="s">
+      <c r="M36" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N36" s="39" t="s">
+      <c r="N36" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="O36" s="39" t="s">
+      <c r="O36" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P36" s="39" t="s">
+      <c r="P36" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="Q36" s="39" t="s">
+      <c r="Q36" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R36" s="39" t="s">
+      <c r="R36" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="S36" s="39" t="s">
+      <c r="S36" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -24900,14 +26028,14 @@
         <v>473</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="32" customFormat="1" ht="135">
-      <c r="A38" s="45">
+    <row r="38" spans="1:19" s="32" customFormat="1">
+      <c r="A38" s="42">
         <v>154</v>
       </c>
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="42" t="s">
         <v>931</v>
       </c>
-      <c r="C38" s="46"/>
+      <c r="C38" s="43"/>
       <c r="D38" s="41" t="s">
         <v>1009</v>
       </c>
@@ -24965,52 +26093,52 @@
         <v>932</v>
       </c>
       <c r="C39" s="43"/>
-      <c r="D39" s="52" t="s">
+      <c r="D39" s="47" t="s">
         <v>1090</v>
       </c>
-      <c r="E39" s="52" t="s">
+      <c r="E39" s="47" t="s">
         <v>431</v>
       </c>
-      <c r="F39" s="53" t="s">
+      <c r="F39" s="48" t="s">
         <v>1085</v>
       </c>
-      <c r="G39" s="53" t="s">
+      <c r="G39" s="48" t="s">
         <v>916</v>
       </c>
-      <c r="H39" s="51" t="s">
+      <c r="H39" s="45" t="s">
         <v>1091</v>
       </c>
-      <c r="I39" s="51" t="s">
+      <c r="I39" s="45" t="s">
         <v>917</v>
       </c>
-      <c r="J39" s="52" t="s">
+      <c r="J39" s="47" t="s">
         <v>1086</v>
       </c>
-      <c r="K39" s="52" t="s">
+      <c r="K39" s="47" t="s">
         <v>529</v>
       </c>
-      <c r="L39" s="51" t="s">
+      <c r="L39" s="45" t="s">
         <v>1092</v>
       </c>
-      <c r="M39" s="51" t="s">
+      <c r="M39" s="45" t="s">
         <v>918</v>
       </c>
-      <c r="N39" s="51" t="s">
+      <c r="N39" s="45" t="s">
         <v>1093</v>
       </c>
-      <c r="O39" s="51" t="s">
+      <c r="O39" s="45" t="s">
         <v>919</v>
       </c>
-      <c r="P39" s="51" t="s">
+      <c r="P39" s="45" t="s">
         <v>1094</v>
       </c>
-      <c r="Q39" s="51" t="s">
+      <c r="Q39" s="45" t="s">
         <v>920</v>
       </c>
-      <c r="R39" s="52" t="s">
+      <c r="R39" s="47" t="s">
         <v>1095</v>
       </c>
-      <c r="S39" s="52" t="s">
+      <c r="S39" s="47" t="s">
         <v>469</v>
       </c>
     </row>
@@ -25022,52 +26150,52 @@
         <v>933</v>
       </c>
       <c r="C40" s="43"/>
-      <c r="D40" s="39" t="s">
+      <c r="D40" s="41" t="s">
         <v>1009</v>
       </c>
-      <c r="E40" s="39" t="s">
+      <c r="E40" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F40" s="38" t="s">
+      <c r="F40" s="40" t="s">
         <v>1010</v>
       </c>
-      <c r="G40" s="38" t="s">
+      <c r="G40" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H40" s="39" t="s">
+      <c r="H40" s="41" t="s">
         <v>1011</v>
       </c>
-      <c r="I40" s="39" t="s">
+      <c r="I40" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J40" s="39" t="s">
+      <c r="J40" s="41" t="s">
         <v>1012</v>
       </c>
-      <c r="K40" s="39" t="s">
+      <c r="K40" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L40" s="39" t="s">
+      <c r="L40" s="41" t="s">
         <v>1013</v>
       </c>
-      <c r="M40" s="39" t="s">
+      <c r="M40" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N40" s="39" t="s">
+      <c r="N40" s="41" t="s">
         <v>1014</v>
       </c>
-      <c r="O40" s="39" t="s">
+      <c r="O40" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P40" s="39" t="s">
+      <c r="P40" s="41" t="s">
         <v>1015</v>
       </c>
-      <c r="Q40" s="39" t="s">
+      <c r="Q40" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R40" s="39" t="s">
+      <c r="R40" s="41" t="s">
         <v>1016</v>
       </c>
-      <c r="S40" s="39" t="s">
+      <c r="S40" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -25079,52 +26207,52 @@
         <v>934</v>
       </c>
       <c r="C41" s="43"/>
-      <c r="D41" s="39" t="s">
+      <c r="D41" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="E41" s="39" t="s">
+      <c r="E41" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F41" s="39" t="s">
+      <c r="F41" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="G41" s="38" t="s">
+      <c r="G41" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H41" s="39" t="s">
+      <c r="H41" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="I41" s="39" t="s">
+      <c r="I41" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J41" s="39" t="s">
+      <c r="J41" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="K41" s="39" t="s">
+      <c r="K41" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L41" s="39" t="s">
+      <c r="L41" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="M41" s="39" t="s">
+      <c r="M41" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N41" s="39" t="s">
+      <c r="N41" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="O41" s="39" t="s">
+      <c r="O41" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P41" s="39" t="s">
+      <c r="P41" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="Q41" s="39" t="s">
+      <c r="Q41" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R41" s="39" t="s">
+      <c r="R41" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="S41" s="39" t="s">
+      <c r="S41" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -25136,52 +26264,52 @@
         <v>935</v>
       </c>
       <c r="C42" s="43"/>
-      <c r="D42" s="39" t="s">
+      <c r="D42" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="E42" s="39" t="s">
+      <c r="E42" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F42" s="39" t="s">
+      <c r="F42" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="G42" s="38" t="s">
+      <c r="G42" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H42" s="39" t="s">
+      <c r="H42" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="I42" s="39" t="s">
+      <c r="I42" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J42" s="39" t="s">
+      <c r="J42" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="K42" s="39" t="s">
+      <c r="K42" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L42" s="39" t="s">
+      <c r="L42" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="M42" s="39" t="s">
+      <c r="M42" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N42" s="39" t="s">
+      <c r="N42" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="O42" s="39" t="s">
+      <c r="O42" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P42" s="39" t="s">
+      <c r="P42" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="Q42" s="39" t="s">
+      <c r="Q42" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R42" s="39" t="s">
+      <c r="R42" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="S42" s="39" t="s">
+      <c r="S42" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -25193,52 +26321,52 @@
         <v>936</v>
       </c>
       <c r="C43" s="43"/>
-      <c r="D43" s="39" t="s">
+      <c r="D43" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="E43" s="39" t="s">
+      <c r="E43" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F43" s="39" t="s">
+      <c r="F43" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="G43" s="38" t="s">
+      <c r="G43" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H43" s="39" t="s">
+      <c r="H43" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="I43" s="39" t="s">
+      <c r="I43" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J43" s="39" t="s">
+      <c r="J43" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="K43" s="39" t="s">
+      <c r="K43" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L43" s="39" t="s">
+      <c r="L43" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="M43" s="39" t="s">
+      <c r="M43" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N43" s="39" t="s">
+      <c r="N43" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="O43" s="39" t="s">
+      <c r="O43" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P43" s="39" t="s">
+      <c r="P43" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="Q43" s="39" t="s">
+      <c r="Q43" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R43" s="39" t="s">
+      <c r="R43" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="S43" s="39" t="s">
+      <c r="S43" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -25309,52 +26437,52 @@
         <v>938</v>
       </c>
       <c r="C45" s="43"/>
-      <c r="D45" s="39" t="s">
+      <c r="D45" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="E45" s="39" t="s">
+      <c r="E45" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F45" s="39" t="s">
+      <c r="F45" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="G45" s="38" t="s">
+      <c r="G45" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H45" s="39" t="s">
+      <c r="H45" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="I45" s="39" t="s">
+      <c r="I45" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J45" s="39" t="s">
+      <c r="J45" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="K45" s="39" t="s">
+      <c r="K45" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L45" s="39" t="s">
+      <c r="L45" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="M45" s="39" t="s">
+      <c r="M45" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N45" s="39" t="s">
+      <c r="N45" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="O45" s="39" t="s">
+      <c r="O45" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P45" s="39" t="s">
+      <c r="P45" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="Q45" s="39" t="s">
+      <c r="Q45" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R45" s="39" t="s">
+      <c r="R45" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="S45" s="39" t="s">
+      <c r="S45" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -25366,52 +26494,52 @@
         <v>939</v>
       </c>
       <c r="C46" s="43"/>
-      <c r="D46" s="39" t="s">
+      <c r="D46" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="E46" s="39" t="s">
+      <c r="E46" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F46" s="39" t="s">
+      <c r="F46" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="G46" s="38" t="s">
+      <c r="G46" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H46" s="39" t="s">
+      <c r="H46" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="I46" s="39" t="s">
+      <c r="I46" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J46" s="39" t="s">
+      <c r="J46" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="K46" s="39" t="s">
+      <c r="K46" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L46" s="39" t="s">
+      <c r="L46" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="M46" s="39" t="s">
+      <c r="M46" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N46" s="39" t="s">
+      <c r="N46" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="O46" s="39" t="s">
+      <c r="O46" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P46" s="39" t="s">
+      <c r="P46" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="Q46" s="39" t="s">
+      <c r="Q46" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R46" s="39" t="s">
+      <c r="R46" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="S46" s="39" t="s">
+      <c r="S46" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -25423,52 +26551,52 @@
         <v>940</v>
       </c>
       <c r="C47" s="43"/>
-      <c r="D47" s="39" t="s">
+      <c r="D47" s="41" t="s">
         <v>1009</v>
       </c>
-      <c r="E47" s="39" t="s">
+      <c r="E47" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F47" s="38" t="s">
+      <c r="F47" s="40" t="s">
         <v>1010</v>
       </c>
-      <c r="G47" s="38" t="s">
+      <c r="G47" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H47" s="39" t="s">
+      <c r="H47" s="41" t="s">
         <v>1011</v>
       </c>
-      <c r="I47" s="39" t="s">
+      <c r="I47" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J47" s="39" t="s">
+      <c r="J47" s="41" t="s">
         <v>1012</v>
       </c>
-      <c r="K47" s="39" t="s">
+      <c r="K47" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L47" s="39" t="s">
+      <c r="L47" s="41" t="s">
         <v>1013</v>
       </c>
-      <c r="M47" s="39" t="s">
+      <c r="M47" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N47" s="39" t="s">
+      <c r="N47" s="41" t="s">
         <v>1014</v>
       </c>
-      <c r="O47" s="39" t="s">
+      <c r="O47" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P47" s="39" t="s">
+      <c r="P47" s="41" t="s">
         <v>1015</v>
       </c>
-      <c r="Q47" s="39" t="s">
+      <c r="Q47" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R47" s="39" t="s">
+      <c r="R47" s="41" t="s">
         <v>1016</v>
       </c>
-      <c r="S47" s="39" t="s">
+      <c r="S47" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -25545,46 +26673,46 @@
       <c r="E49" s="44" t="s">
         <v>431</v>
       </c>
-      <c r="F49" s="38" t="s">
+      <c r="F49" s="40" t="s">
         <v>909</v>
       </c>
-      <c r="G49" s="38" t="s">
+      <c r="G49" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H49" s="39" t="s">
+      <c r="H49" s="41" t="s">
         <v>910</v>
       </c>
-      <c r="I49" s="39" t="s">
+      <c r="I49" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J49" s="39" t="s">
+      <c r="J49" s="41" t="s">
         <v>911</v>
       </c>
-      <c r="K49" s="39" t="s">
+      <c r="K49" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L49" s="39" t="s">
+      <c r="L49" s="41" t="s">
         <v>912</v>
       </c>
-      <c r="M49" s="39" t="s">
+      <c r="M49" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N49" s="39" t="s">
+      <c r="N49" s="41" t="s">
         <v>913</v>
       </c>
-      <c r="O49" s="39" t="s">
+      <c r="O49" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P49" s="39" t="s">
+      <c r="P49" s="41" t="s">
         <v>914</v>
       </c>
-      <c r="Q49" s="39" t="s">
+      <c r="Q49" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R49" s="39" t="s">
+      <c r="R49" s="41" t="s">
         <v>915</v>
       </c>
-      <c r="S49" s="39" t="s">
+      <c r="S49" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -25596,52 +26724,52 @@
         <v>943</v>
       </c>
       <c r="C50" s="43"/>
-      <c r="D50" s="39" t="s">
+      <c r="D50" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="E50" s="39" t="s">
+      <c r="E50" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F50" s="39" t="s">
+      <c r="F50" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="G50" s="38" t="s">
+      <c r="G50" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H50" s="39" t="s">
+      <c r="H50" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="I50" s="39" t="s">
+      <c r="I50" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J50" s="39" t="s">
+      <c r="J50" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="K50" s="39" t="s">
+      <c r="K50" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L50" s="39" t="s">
+      <c r="L50" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="M50" s="39" t="s">
+      <c r="M50" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N50" s="39" t="s">
+      <c r="N50" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="O50" s="39" t="s">
+      <c r="O50" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P50" s="39" t="s">
+      <c r="P50" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="Q50" s="39" t="s">
+      <c r="Q50" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R50" s="39" t="s">
+      <c r="R50" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="S50" s="39" t="s">
+      <c r="S50" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -25653,52 +26781,52 @@
         <v>944</v>
       </c>
       <c r="C51" s="43"/>
-      <c r="D51" s="39" t="s">
+      <c r="D51" s="41" t="s">
         <v>1009</v>
       </c>
-      <c r="E51" s="39" t="s">
+      <c r="E51" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F51" s="38" t="s">
+      <c r="F51" s="40" t="s">
         <v>1010</v>
       </c>
-      <c r="G51" s="38" t="s">
+      <c r="G51" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H51" s="39" t="s">
+      <c r="H51" s="41" t="s">
         <v>1011</v>
       </c>
-      <c r="I51" s="39" t="s">
+      <c r="I51" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J51" s="39" t="s">
+      <c r="J51" s="41" t="s">
         <v>1012</v>
       </c>
-      <c r="K51" s="39" t="s">
+      <c r="K51" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L51" s="39" t="s">
+      <c r="L51" s="41" t="s">
         <v>1013</v>
       </c>
-      <c r="M51" s="39" t="s">
+      <c r="M51" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N51" s="39" t="s">
+      <c r="N51" s="41" t="s">
         <v>1014</v>
       </c>
-      <c r="O51" s="39" t="s">
+      <c r="O51" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P51" s="39" t="s">
+      <c r="P51" s="41" t="s">
         <v>1015</v>
       </c>
-      <c r="Q51" s="39" t="s">
+      <c r="Q51" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R51" s="39" t="s">
+      <c r="R51" s="41" t="s">
         <v>1016</v>
       </c>
-      <c r="S51" s="39" t="s">
+      <c r="S51" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -25710,52 +26838,52 @@
         <v>945</v>
       </c>
       <c r="C52" s="43"/>
-      <c r="D52" s="39" t="s">
+      <c r="D52" s="41" t="s">
         <v>1009</v>
       </c>
-      <c r="E52" s="39" t="s">
+      <c r="E52" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F52" s="38" t="s">
+      <c r="F52" s="40" t="s">
         <v>1010</v>
       </c>
-      <c r="G52" s="38" t="s">
+      <c r="G52" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H52" s="39" t="s">
+      <c r="H52" s="41" t="s">
         <v>1011</v>
       </c>
-      <c r="I52" s="39" t="s">
+      <c r="I52" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J52" s="39" t="s">
+      <c r="J52" s="41" t="s">
         <v>1012</v>
       </c>
-      <c r="K52" s="39" t="s">
+      <c r="K52" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L52" s="39" t="s">
+      <c r="L52" s="41" t="s">
         <v>1013</v>
       </c>
-      <c r="M52" s="39" t="s">
+      <c r="M52" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N52" s="39" t="s">
+      <c r="N52" s="41" t="s">
         <v>1014</v>
       </c>
-      <c r="O52" s="39" t="s">
+      <c r="O52" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P52" s="39" t="s">
+      <c r="P52" s="41" t="s">
         <v>1015</v>
       </c>
-      <c r="Q52" s="39" t="s">
+      <c r="Q52" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R52" s="39" t="s">
+      <c r="R52" s="41" t="s">
         <v>1016</v>
       </c>
-      <c r="S52" s="39" t="s">
+      <c r="S52" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -25767,52 +26895,52 @@
         <v>946</v>
       </c>
       <c r="C53" s="43"/>
-      <c r="D53" s="52" t="s">
+      <c r="D53" s="47" t="s">
         <v>1090</v>
       </c>
-      <c r="E53" s="52" t="s">
+      <c r="E53" s="47" t="s">
         <v>431</v>
       </c>
-      <c r="F53" s="53" t="s">
+      <c r="F53" s="48" t="s">
         <v>1085</v>
       </c>
-      <c r="G53" s="53" t="s">
+      <c r="G53" s="48" t="s">
         <v>916</v>
       </c>
-      <c r="H53" s="51" t="s">
+      <c r="H53" s="45" t="s">
         <v>1091</v>
       </c>
-      <c r="I53" s="51" t="s">
+      <c r="I53" s="45" t="s">
         <v>917</v>
       </c>
-      <c r="J53" s="52" t="s">
+      <c r="J53" s="47" t="s">
         <v>1086</v>
       </c>
-      <c r="K53" s="52" t="s">
+      <c r="K53" s="47" t="s">
         <v>529</v>
       </c>
-      <c r="L53" s="51" t="s">
+      <c r="L53" s="45" t="s">
         <v>1092</v>
       </c>
-      <c r="M53" s="51" t="s">
+      <c r="M53" s="45" t="s">
         <v>918</v>
       </c>
-      <c r="N53" s="51" t="s">
+      <c r="N53" s="45" t="s">
         <v>1093</v>
       </c>
-      <c r="O53" s="51" t="s">
+      <c r="O53" s="45" t="s">
         <v>919</v>
       </c>
-      <c r="P53" s="51" t="s">
+      <c r="P53" s="45" t="s">
         <v>1094</v>
       </c>
-      <c r="Q53" s="51" t="s">
+      <c r="Q53" s="45" t="s">
         <v>920</v>
       </c>
-      <c r="R53" s="52" t="s">
+      <c r="R53" s="47" t="s">
         <v>1095</v>
       </c>
-      <c r="S53" s="52" t="s">
+      <c r="S53" s="47" t="s">
         <v>469</v>
       </c>
     </row>
@@ -25830,46 +26958,46 @@
       <c r="E54" s="44" t="s">
         <v>431</v>
       </c>
-      <c r="F54" s="38" t="s">
+      <c r="F54" s="40" t="s">
         <v>909</v>
       </c>
-      <c r="G54" s="38" t="s">
+      <c r="G54" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H54" s="39" t="s">
+      <c r="H54" s="41" t="s">
         <v>910</v>
       </c>
-      <c r="I54" s="39" t="s">
+      <c r="I54" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J54" s="39" t="s">
+      <c r="J54" s="41" t="s">
         <v>911</v>
       </c>
-      <c r="K54" s="39" t="s">
+      <c r="K54" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L54" s="39" t="s">
+      <c r="L54" s="41" t="s">
         <v>912</v>
       </c>
-      <c r="M54" s="39" t="s">
+      <c r="M54" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N54" s="39" t="s">
+      <c r="N54" s="41" t="s">
         <v>913</v>
       </c>
-      <c r="O54" s="39" t="s">
+      <c r="O54" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P54" s="39" t="s">
+      <c r="P54" s="41" t="s">
         <v>914</v>
       </c>
-      <c r="Q54" s="39" t="s">
+      <c r="Q54" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R54" s="39" t="s">
+      <c r="R54" s="41" t="s">
         <v>915</v>
       </c>
-      <c r="S54" s="39" t="s">
+      <c r="S54" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -25881,52 +27009,52 @@
         <v>948</v>
       </c>
       <c r="C55" s="43"/>
-      <c r="D55" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E55" s="39" t="s">
+      <c r="D55" s="41" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E55" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F55" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G55" s="38" t="s">
+      <c r="F55" s="40" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G55" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H55" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="I55" s="39" t="s">
+      <c r="H55" s="41" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I55" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J55" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="K55" s="39" t="s">
+      <c r="J55" s="41" t="s">
+        <v>1020</v>
+      </c>
+      <c r="K55" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L55" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="M55" s="39" t="s">
+      <c r="L55" s="41" t="s">
+        <v>1021</v>
+      </c>
+      <c r="M55" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N55" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="O55" s="39" t="s">
+      <c r="N55" s="41" t="s">
+        <v>1022</v>
+      </c>
+      <c r="O55" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P55" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="Q55" s="39" t="s">
+      <c r="P55" s="41" t="s">
+        <v>1023</v>
+      </c>
+      <c r="Q55" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R55" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="S55" s="39" t="s">
+      <c r="R55" s="41" t="s">
+        <v>1024</v>
+      </c>
+      <c r="S55" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -25938,52 +27066,52 @@
         <v>949</v>
       </c>
       <c r="C56" s="43"/>
-      <c r="D56" s="39" t="s">
+      <c r="D56" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="E56" s="39" t="s">
+      <c r="E56" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F56" s="39" t="s">
+      <c r="F56" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="G56" s="38" t="s">
+      <c r="G56" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H56" s="39" t="s">
+      <c r="H56" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="I56" s="39" t="s">
+      <c r="I56" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J56" s="39" t="s">
+      <c r="J56" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="K56" s="39" t="s">
+      <c r="K56" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L56" s="39" t="s">
+      <c r="L56" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="M56" s="39" t="s">
+      <c r="M56" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N56" s="39" t="s">
+      <c r="N56" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="O56" s="39" t="s">
+      <c r="O56" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P56" s="39" t="s">
+      <c r="P56" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="Q56" s="39" t="s">
+      <c r="Q56" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R56" s="39" t="s">
+      <c r="R56" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="S56" s="39" t="s">
+      <c r="S56" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -26001,46 +27129,46 @@
       <c r="E57" s="44" t="s">
         <v>431</v>
       </c>
-      <c r="F57" s="38" t="s">
+      <c r="F57" s="40" t="s">
         <v>909</v>
       </c>
-      <c r="G57" s="38" t="s">
+      <c r="G57" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H57" s="39" t="s">
+      <c r="H57" s="41" t="s">
         <v>910</v>
       </c>
-      <c r="I57" s="39" t="s">
+      <c r="I57" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J57" s="39" t="s">
+      <c r="J57" s="41" t="s">
         <v>911</v>
       </c>
-      <c r="K57" s="39" t="s">
+      <c r="K57" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L57" s="39" t="s">
+      <c r="L57" s="41" t="s">
         <v>912</v>
       </c>
-      <c r="M57" s="39" t="s">
+      <c r="M57" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N57" s="39" t="s">
+      <c r="N57" s="41" t="s">
         <v>913</v>
       </c>
-      <c r="O57" s="39" t="s">
+      <c r="O57" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P57" s="39" t="s">
+      <c r="P57" s="41" t="s">
         <v>914</v>
       </c>
-      <c r="Q57" s="39" t="s">
+      <c r="Q57" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R57" s="39" t="s">
+      <c r="R57" s="41" t="s">
         <v>915</v>
       </c>
-      <c r="S57" s="39" t="s">
+      <c r="S57" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -26052,52 +27180,52 @@
         <v>951</v>
       </c>
       <c r="C58" s="43"/>
-      <c r="D58" s="39" t="s">
+      <c r="D58" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="E58" s="39" t="s">
+      <c r="E58" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F58" s="39" t="s">
+      <c r="F58" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="G58" s="38" t="s">
+      <c r="G58" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H58" s="39" t="s">
+      <c r="H58" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="I58" s="39" t="s">
+      <c r="I58" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J58" s="39" t="s">
+      <c r="J58" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="K58" s="39" t="s">
+      <c r="K58" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L58" s="39" t="s">
+      <c r="L58" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="M58" s="39" t="s">
+      <c r="M58" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N58" s="39" t="s">
+      <c r="N58" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="O58" s="39" t="s">
+      <c r="O58" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P58" s="39" t="s">
+      <c r="P58" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="Q58" s="39" t="s">
+      <c r="Q58" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R58" s="39" t="s">
+      <c r="R58" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="S58" s="39" t="s">
+      <c r="S58" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -26109,52 +27237,52 @@
         <v>952</v>
       </c>
       <c r="C59" s="43"/>
-      <c r="D59" s="39" t="s">
+      <c r="D59" s="41" t="s">
         <v>1009</v>
       </c>
-      <c r="E59" s="39" t="s">
+      <c r="E59" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F59" s="38" t="s">
+      <c r="F59" s="40" t="s">
         <v>1010</v>
       </c>
-      <c r="G59" s="38" t="s">
+      <c r="G59" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H59" s="39" t="s">
+      <c r="H59" s="41" t="s">
         <v>1011</v>
       </c>
-      <c r="I59" s="39" t="s">
+      <c r="I59" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J59" s="39" t="s">
+      <c r="J59" s="41" t="s">
         <v>1012</v>
       </c>
-      <c r="K59" s="39" t="s">
+      <c r="K59" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L59" s="39" t="s">
+      <c r="L59" s="41" t="s">
         <v>1013</v>
       </c>
-      <c r="M59" s="39" t="s">
+      <c r="M59" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N59" s="39" t="s">
+      <c r="N59" s="41" t="s">
         <v>1014</v>
       </c>
-      <c r="O59" s="39" t="s">
+      <c r="O59" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P59" s="39" t="s">
+      <c r="P59" s="41" t="s">
         <v>1015</v>
       </c>
-      <c r="Q59" s="39" t="s">
+      <c r="Q59" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R59" s="39" t="s">
+      <c r="R59" s="41" t="s">
         <v>1016</v>
       </c>
-      <c r="S59" s="39" t="s">
+      <c r="S59" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -26221,52 +27349,52 @@
         <v>953</v>
       </c>
       <c r="C61" s="42"/>
-      <c r="D61" s="39" t="s">
+      <c r="D61" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="E61" s="39" t="s">
+      <c r="E61" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F61" s="39" t="s">
+      <c r="F61" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="G61" s="38" t="s">
+      <c r="G61" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H61" s="39" t="s">
+      <c r="H61" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="I61" s="39" t="s">
+      <c r="I61" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J61" s="39" t="s">
+      <c r="J61" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="K61" s="39" t="s">
+      <c r="K61" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L61" s="39" t="s">
+      <c r="L61" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="M61" s="39" t="s">
+      <c r="M61" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N61" s="39" t="s">
+      <c r="N61" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="O61" s="39" t="s">
+      <c r="O61" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P61" s="39" t="s">
+      <c r="P61" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="Q61" s="39" t="s">
+      <c r="Q61" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R61" s="39" t="s">
+      <c r="R61" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="S61" s="39" t="s">
+      <c r="S61" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -26284,46 +27412,46 @@
       <c r="E62" s="44" t="s">
         <v>431</v>
       </c>
-      <c r="F62" s="38" t="s">
+      <c r="F62" s="40" t="s">
         <v>909</v>
       </c>
-      <c r="G62" s="38" t="s">
+      <c r="G62" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H62" s="39" t="s">
+      <c r="H62" s="41" t="s">
         <v>910</v>
       </c>
-      <c r="I62" s="39" t="s">
+      <c r="I62" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J62" s="39" t="s">
+      <c r="J62" s="41" t="s">
         <v>911</v>
       </c>
-      <c r="K62" s="39" t="s">
+      <c r="K62" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L62" s="39" t="s">
+      <c r="L62" s="41" t="s">
         <v>912</v>
       </c>
-      <c r="M62" s="39" t="s">
+      <c r="M62" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N62" s="39" t="s">
+      <c r="N62" s="41" t="s">
         <v>913</v>
       </c>
-      <c r="O62" s="39" t="s">
+      <c r="O62" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P62" s="39" t="s">
+      <c r="P62" s="41" t="s">
         <v>914</v>
       </c>
-      <c r="Q62" s="39" t="s">
+      <c r="Q62" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R62" s="39" t="s">
+      <c r="R62" s="41" t="s">
         <v>915</v>
       </c>
-      <c r="S62" s="39" t="s">
+      <c r="S62" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -26392,52 +27520,52 @@
         <v>956</v>
       </c>
       <c r="C64" s="42"/>
-      <c r="D64" s="39" t="s">
+      <c r="D64" s="41" t="s">
         <v>1009</v>
       </c>
-      <c r="E64" s="39" t="s">
+      <c r="E64" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F64" s="38" t="s">
+      <c r="F64" s="40" t="s">
         <v>1010</v>
       </c>
-      <c r="G64" s="38" t="s">
+      <c r="G64" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H64" s="39" t="s">
+      <c r="H64" s="41" t="s">
         <v>1011</v>
       </c>
-      <c r="I64" s="39" t="s">
+      <c r="I64" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J64" s="39" t="s">
+      <c r="J64" s="41" t="s">
         <v>1012</v>
       </c>
-      <c r="K64" s="39" t="s">
+      <c r="K64" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L64" s="39" t="s">
+      <c r="L64" s="41" t="s">
         <v>1013</v>
       </c>
-      <c r="M64" s="39" t="s">
+      <c r="M64" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N64" s="39" t="s">
+      <c r="N64" s="41" t="s">
         <v>1014</v>
       </c>
-      <c r="O64" s="39" t="s">
+      <c r="O64" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P64" s="39" t="s">
+      <c r="P64" s="41" t="s">
         <v>1015</v>
       </c>
-      <c r="Q64" s="39" t="s">
+      <c r="Q64" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R64" s="39" t="s">
+      <c r="R64" s="41" t="s">
         <v>1016</v>
       </c>
-      <c r="S64" s="39" t="s">
+      <c r="S64" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -26449,52 +27577,52 @@
         <v>957</v>
       </c>
       <c r="C65" s="42"/>
-      <c r="D65" s="39" t="s">
+      <c r="D65" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="E65" s="39" t="s">
+      <c r="E65" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F65" s="39" t="s">
+      <c r="F65" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="G65" s="38" t="s">
+      <c r="G65" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H65" s="39" t="s">
+      <c r="H65" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="I65" s="39" t="s">
+      <c r="I65" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J65" s="39" t="s">
+      <c r="J65" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="K65" s="39" t="s">
+      <c r="K65" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L65" s="39" t="s">
+      <c r="L65" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="M65" s="39" t="s">
+      <c r="M65" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N65" s="39" t="s">
+      <c r="N65" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="O65" s="39" t="s">
+      <c r="O65" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P65" s="39" t="s">
+      <c r="P65" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="Q65" s="39" t="s">
+      <c r="Q65" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R65" s="39" t="s">
+      <c r="R65" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="S65" s="39" t="s">
+      <c r="S65" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -26506,52 +27634,52 @@
         <v>958</v>
       </c>
       <c r="C66" s="42"/>
-      <c r="D66" s="39" t="s">
+      <c r="D66" s="41" t="s">
         <v>1009</v>
       </c>
-      <c r="E66" s="39" t="s">
+      <c r="E66" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F66" s="38" t="s">
+      <c r="F66" s="40" t="s">
         <v>1010</v>
       </c>
-      <c r="G66" s="38" t="s">
+      <c r="G66" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H66" s="39" t="s">
+      <c r="H66" s="41" t="s">
         <v>1011</v>
       </c>
-      <c r="I66" s="39" t="s">
+      <c r="I66" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J66" s="39" t="s">
+      <c r="J66" s="41" t="s">
         <v>1012</v>
       </c>
-      <c r="K66" s="39" t="s">
+      <c r="K66" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L66" s="39" t="s">
+      <c r="L66" s="41" t="s">
         <v>1013</v>
       </c>
-      <c r="M66" s="39" t="s">
+      <c r="M66" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N66" s="39" t="s">
+      <c r="N66" s="41" t="s">
         <v>1014</v>
       </c>
-      <c r="O66" s="39" t="s">
+      <c r="O66" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P66" s="39" t="s">
+      <c r="P66" s="41" t="s">
         <v>1015</v>
       </c>
-      <c r="Q66" s="39" t="s">
+      <c r="Q66" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R66" s="39" t="s">
+      <c r="R66" s="41" t="s">
         <v>1016</v>
       </c>
-      <c r="S66" s="39" t="s">
+      <c r="S66" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -26620,52 +27748,52 @@
         <v>960</v>
       </c>
       <c r="C68" s="42"/>
-      <c r="D68" s="39" t="s">
+      <c r="D68" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="E68" s="39" t="s">
+      <c r="E68" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F68" s="39" t="s">
+      <c r="F68" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="G68" s="38" t="s">
+      <c r="G68" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H68" s="39" t="s">
+      <c r="H68" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="I68" s="39" t="s">
+      <c r="I68" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J68" s="39" t="s">
+      <c r="J68" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="K68" s="39" t="s">
+      <c r="K68" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L68" s="39" t="s">
+      <c r="L68" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="M68" s="39" t="s">
+      <c r="M68" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N68" s="39" t="s">
+      <c r="N68" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="O68" s="39" t="s">
+      <c r="O68" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P68" s="39" t="s">
+      <c r="P68" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="Q68" s="39" t="s">
+      <c r="Q68" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R68" s="39" t="s">
+      <c r="R68" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="S68" s="39" t="s">
+      <c r="S68" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -26677,52 +27805,52 @@
         <v>961</v>
       </c>
       <c r="C69" s="42"/>
-      <c r="D69" s="39" t="s">
+      <c r="D69" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="E69" s="39" t="s">
+      <c r="E69" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F69" s="39" t="s">
+      <c r="F69" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="G69" s="38" t="s">
+      <c r="G69" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H69" s="39" t="s">
+      <c r="H69" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="I69" s="39" t="s">
+      <c r="I69" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J69" s="39" t="s">
+      <c r="J69" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="K69" s="39" t="s">
+      <c r="K69" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L69" s="39" t="s">
+      <c r="L69" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="M69" s="39" t="s">
+      <c r="M69" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N69" s="39" t="s">
+      <c r="N69" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="O69" s="39" t="s">
+      <c r="O69" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P69" s="39" t="s">
+      <c r="P69" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="Q69" s="39" t="s">
+      <c r="Q69" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R69" s="39" t="s">
+      <c r="R69" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="S69" s="39" t="s">
+      <c r="S69" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -26740,46 +27868,46 @@
       <c r="E70" s="44" t="s">
         <v>431</v>
       </c>
-      <c r="F70" s="38" t="s">
+      <c r="F70" s="40" t="s">
         <v>909</v>
       </c>
-      <c r="G70" s="38" t="s">
+      <c r="G70" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H70" s="39" t="s">
+      <c r="H70" s="41" t="s">
         <v>910</v>
       </c>
-      <c r="I70" s="39" t="s">
+      <c r="I70" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J70" s="39" t="s">
+      <c r="J70" s="41" t="s">
         <v>911</v>
       </c>
-      <c r="K70" s="39" t="s">
+      <c r="K70" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L70" s="39" t="s">
+      <c r="L70" s="41" t="s">
         <v>912</v>
       </c>
-      <c r="M70" s="39" t="s">
+      <c r="M70" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N70" s="39" t="s">
+      <c r="N70" s="41" t="s">
         <v>913</v>
       </c>
-      <c r="O70" s="39" t="s">
+      <c r="O70" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P70" s="39" t="s">
+      <c r="P70" s="41" t="s">
         <v>914</v>
       </c>
-      <c r="Q70" s="39" t="s">
+      <c r="Q70" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R70" s="39" t="s">
+      <c r="R70" s="41" t="s">
         <v>915</v>
       </c>
-      <c r="S70" s="39" t="s">
+      <c r="S70" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -26791,52 +27919,52 @@
         <v>963</v>
       </c>
       <c r="C71" s="42"/>
-      <c r="D71" s="39" t="s">
+      <c r="D71" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="E71" s="39" t="s">
+      <c r="E71" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F71" s="39" t="s">
+      <c r="F71" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="G71" s="38" t="s">
+      <c r="G71" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H71" s="39" t="s">
+      <c r="H71" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="I71" s="39" t="s">
+      <c r="I71" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J71" s="39" t="s">
+      <c r="J71" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="K71" s="39" t="s">
+      <c r="K71" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L71" s="39" t="s">
+      <c r="L71" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="M71" s="39" t="s">
+      <c r="M71" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N71" s="39" t="s">
+      <c r="N71" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="O71" s="39" t="s">
+      <c r="O71" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P71" s="39" t="s">
+      <c r="P71" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="Q71" s="39" t="s">
+      <c r="Q71" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R71" s="39" t="s">
+      <c r="R71" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="S71" s="39" t="s">
+      <c r="S71" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -26962,52 +28090,52 @@
         <v>966</v>
       </c>
       <c r="C74" s="42"/>
-      <c r="D74" s="39" t="s">
+      <c r="D74" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="E74" s="39" t="s">
+      <c r="E74" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F74" s="39" t="s">
+      <c r="F74" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="G74" s="38" t="s">
+      <c r="G74" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H74" s="39" t="s">
+      <c r="H74" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="I74" s="39" t="s">
+      <c r="I74" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J74" s="39" t="s">
+      <c r="J74" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="K74" s="39" t="s">
+      <c r="K74" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L74" s="39" t="s">
+      <c r="L74" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="M74" s="39" t="s">
+      <c r="M74" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N74" s="39" t="s">
+      <c r="N74" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="O74" s="39" t="s">
+      <c r="O74" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P74" s="39" t="s">
+      <c r="P74" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="Q74" s="39" t="s">
+      <c r="Q74" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R74" s="39" t="s">
+      <c r="R74" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="S74" s="39" t="s">
+      <c r="S74" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -27019,52 +28147,52 @@
         <v>967</v>
       </c>
       <c r="C75" s="42"/>
-      <c r="D75" s="39" t="s">
+      <c r="D75" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="E75" s="39" t="s">
+      <c r="E75" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F75" s="39" t="s">
+      <c r="F75" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="G75" s="38" t="s">
+      <c r="G75" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H75" s="39" t="s">
+      <c r="H75" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="I75" s="39" t="s">
+      <c r="I75" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J75" s="39" t="s">
+      <c r="J75" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="K75" s="39" t="s">
+      <c r="K75" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L75" s="39" t="s">
+      <c r="L75" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="M75" s="39" t="s">
+      <c r="M75" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N75" s="39" t="s">
+      <c r="N75" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="O75" s="39" t="s">
+      <c r="O75" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P75" s="39" t="s">
+      <c r="P75" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="Q75" s="39" t="s">
+      <c r="Q75" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R75" s="39" t="s">
+      <c r="R75" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="S75" s="39" t="s">
+      <c r="S75" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -27133,52 +28261,52 @@
         <v>969</v>
       </c>
       <c r="C77" s="42"/>
-      <c r="D77" s="39" t="s">
+      <c r="D77" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="E77" s="39" t="s">
+      <c r="E77" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F77" s="39" t="s">
+      <c r="F77" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="G77" s="38" t="s">
+      <c r="G77" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H77" s="39" t="s">
+      <c r="H77" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="I77" s="39" t="s">
+      <c r="I77" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J77" s="39" t="s">
+      <c r="J77" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="K77" s="39" t="s">
+      <c r="K77" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L77" s="39" t="s">
+      <c r="L77" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="M77" s="39" t="s">
+      <c r="M77" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N77" s="39" t="s">
+      <c r="N77" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="O77" s="39" t="s">
+      <c r="O77" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P77" s="39" t="s">
+      <c r="P77" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="Q77" s="39" t="s">
+      <c r="Q77" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R77" s="39" t="s">
+      <c r="R77" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="S77" s="39" t="s">
+      <c r="S77" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -27190,52 +28318,52 @@
         <v>970</v>
       </c>
       <c r="C78" s="42"/>
-      <c r="D78" s="39" t="s">
+      <c r="D78" s="41" t="s">
         <v>1009</v>
       </c>
-      <c r="E78" s="39" t="s">
+      <c r="E78" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F78" s="38" t="s">
+      <c r="F78" s="40" t="s">
         <v>1010</v>
       </c>
-      <c r="G78" s="38" t="s">
+      <c r="G78" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H78" s="39" t="s">
+      <c r="H78" s="41" t="s">
         <v>1011</v>
       </c>
-      <c r="I78" s="39" t="s">
+      <c r="I78" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J78" s="39" t="s">
+      <c r="J78" s="41" t="s">
         <v>1012</v>
       </c>
-      <c r="K78" s="39" t="s">
+      <c r="K78" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L78" s="39" t="s">
+      <c r="L78" s="41" t="s">
         <v>1013</v>
       </c>
-      <c r="M78" s="39" t="s">
+      <c r="M78" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N78" s="39" t="s">
+      <c r="N78" s="41" t="s">
         <v>1014</v>
       </c>
-      <c r="O78" s="39" t="s">
+      <c r="O78" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P78" s="39" t="s">
+      <c r="P78" s="41" t="s">
         <v>1015</v>
       </c>
-      <c r="Q78" s="39" t="s">
+      <c r="Q78" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R78" s="39" t="s">
+      <c r="R78" s="41" t="s">
         <v>1016</v>
       </c>
-      <c r="S78" s="39" t="s">
+      <c r="S78" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -27247,52 +28375,52 @@
         <v>971</v>
       </c>
       <c r="C79" s="42"/>
-      <c r="D79" s="39" t="s">
+      <c r="D79" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="E79" s="39" t="s">
+      <c r="E79" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F79" s="39" t="s">
+      <c r="F79" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="G79" s="38" t="s">
+      <c r="G79" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H79" s="39" t="s">
+      <c r="H79" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="I79" s="39" t="s">
+      <c r="I79" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J79" s="39" t="s">
+      <c r="J79" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="K79" s="39" t="s">
+      <c r="K79" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L79" s="39" t="s">
+      <c r="L79" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="M79" s="39" t="s">
+      <c r="M79" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N79" s="39" t="s">
+      <c r="N79" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="O79" s="39" t="s">
+      <c r="O79" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P79" s="39" t="s">
+      <c r="P79" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="Q79" s="39" t="s">
+      <c r="Q79" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R79" s="39" t="s">
+      <c r="R79" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="S79" s="39" t="s">
+      <c r="S79" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -27304,52 +28432,52 @@
         <v>972</v>
       </c>
       <c r="C80" s="42"/>
-      <c r="D80" s="39" t="s">
+      <c r="D80" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="E80" s="39" t="s">
+      <c r="E80" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F80" s="39" t="s">
+      <c r="F80" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="G80" s="38" t="s">
+      <c r="G80" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H80" s="39" t="s">
+      <c r="H80" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="I80" s="39" t="s">
+      <c r="I80" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J80" s="39" t="s">
+      <c r="J80" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="K80" s="39" t="s">
+      <c r="K80" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L80" s="39" t="s">
+      <c r="L80" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="M80" s="39" t="s">
+      <c r="M80" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N80" s="39" t="s">
+      <c r="N80" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="O80" s="39" t="s">
+      <c r="O80" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P80" s="39" t="s">
+      <c r="P80" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="Q80" s="39" t="s">
+      <c r="Q80" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R80" s="39" t="s">
+      <c r="R80" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="S80" s="39" t="s">
+      <c r="S80" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -27361,52 +28489,52 @@
         <v>973</v>
       </c>
       <c r="C81" s="42"/>
-      <c r="D81" s="39" t="s">
+      <c r="D81" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="E81" s="39" t="s">
+      <c r="E81" s="41" t="s">
         <v>431</v>
       </c>
-      <c r="F81" s="39" t="s">
+      <c r="F81" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="G81" s="38" t="s">
+      <c r="G81" s="40" t="s">
         <v>916</v>
       </c>
-      <c r="H81" s="39" t="s">
+      <c r="H81" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="I81" s="39" t="s">
+      <c r="I81" s="41" t="s">
         <v>917</v>
       </c>
-      <c r="J81" s="39" t="s">
+      <c r="J81" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="K81" s="39" t="s">
+      <c r="K81" s="41" t="s">
         <v>529</v>
       </c>
-      <c r="L81" s="39" t="s">
+      <c r="L81" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="M81" s="39" t="s">
+      <c r="M81" s="41" t="s">
         <v>918</v>
       </c>
-      <c r="N81" s="39" t="s">
+      <c r="N81" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="O81" s="39" t="s">
+      <c r="O81" s="41" t="s">
         <v>919</v>
       </c>
-      <c r="P81" s="39" t="s">
+      <c r="P81" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="Q81" s="39" t="s">
+      <c r="Q81" s="41" t="s">
         <v>920</v>
       </c>
-      <c r="R81" s="39" t="s">
+      <c r="R81" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="S81" s="39" t="s">
+      <c r="S81" s="41" t="s">
         <v>469</v>
       </c>
     </row>
@@ -27467,7 +28595,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" spans="1:19" s="33" customFormat="1" ht="15.75">
       <c r="A83" s="42">
         <v>801</v>
       </c>
@@ -27475,56 +28603,36 @@
         <v>1008</v>
       </c>
       <c r="C83" s="42"/>
-      <c r="D83" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E83" s="39" t="s">
-        <v>431</v>
-      </c>
-      <c r="F83" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G83" s="38" t="s">
-        <v>916</v>
-      </c>
-      <c r="H83" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="I83" s="39" t="s">
-        <v>917</v>
-      </c>
-      <c r="J83" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="K83" s="39" t="s">
-        <v>529</v>
-      </c>
-      <c r="L83" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="M83" s="39" t="s">
-        <v>918</v>
-      </c>
-      <c r="N83" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="O83" s="39" t="s">
-        <v>919</v>
-      </c>
-      <c r="P83" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="Q83" s="39" t="s">
-        <v>920</v>
-      </c>
-      <c r="R83" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="S83" s="39" t="s">
-        <v>469</v>
-      </c>
+      <c r="D83" s="41" t="s">
+        <v>1105</v>
+      </c>
+      <c r="F83" s="46" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H83" s="36" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J83" s="50" t="s">
+        <v>1107</v>
+      </c>
+      <c r="L83" s="51" t="s">
+        <v>1108</v>
+      </c>
+      <c r="M83" s="41"/>
+      <c r="N83" s="52" t="s">
+        <v>1109</v>
+      </c>
+      <c r="O83" s="41"/>
+      <c r="P83" s="53" t="s">
+        <v>1110</v>
+      </c>
+      <c r="Q83" s="41"/>
+      <c r="R83" s="53" t="s">
+        <v>1111</v>
+      </c>
+      <c r="S83" s="41"/>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" spans="1:19" s="33" customFormat="1" ht="15.75">
       <c r="A84" s="42">
         <v>803</v>
       </c>
@@ -27532,56 +28640,36 @@
         <v>975</v>
       </c>
       <c r="C84" s="42"/>
-      <c r="D84" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E84" s="39" t="s">
-        <v>431</v>
-      </c>
-      <c r="F84" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G84" s="38" t="s">
-        <v>916</v>
-      </c>
-      <c r="H84" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="I84" s="39" t="s">
-        <v>917</v>
-      </c>
-      <c r="J84" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="K84" s="39" t="s">
-        <v>529</v>
-      </c>
-      <c r="L84" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="M84" s="39" t="s">
-        <v>918</v>
-      </c>
-      <c r="N84" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="O84" s="39" t="s">
-        <v>919</v>
-      </c>
-      <c r="P84" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="Q84" s="39" t="s">
-        <v>920</v>
-      </c>
-      <c r="R84" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="S84" s="39" t="s">
-        <v>469</v>
-      </c>
+      <c r="D84" s="46" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F84" s="46" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H84" s="36" t="s">
+        <v>1118</v>
+      </c>
+      <c r="J84" s="50" t="s">
+        <v>1116</v>
+      </c>
+      <c r="L84" s="51" t="s">
+        <v>1115</v>
+      </c>
+      <c r="M84" s="41"/>
+      <c r="N84" s="52" t="s">
+        <v>1114</v>
+      </c>
+      <c r="O84" s="41"/>
+      <c r="P84" s="53" t="s">
+        <v>1113</v>
+      </c>
+      <c r="Q84" s="41"/>
+      <c r="R84" s="53" t="s">
+        <v>1112</v>
+      </c>
+      <c r="S84" s="41"/>
     </row>
-    <row r="85" spans="1:19">
+    <row r="85" spans="1:19" s="33" customFormat="1" ht="15.75">
       <c r="A85" s="42">
         <v>804</v>
       </c>
@@ -27589,56 +28677,37 @@
         <v>976</v>
       </c>
       <c r="C85" s="42"/>
-      <c r="D85" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E85" s="39" t="s">
-        <v>431</v>
-      </c>
-      <c r="F85" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G85" s="38" t="s">
-        <v>916</v>
-      </c>
-      <c r="H85" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="I85" s="39" t="s">
-        <v>917</v>
-      </c>
-      <c r="J85" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="K85" s="39" t="s">
-        <v>529</v>
-      </c>
-      <c r="L85" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="M85" s="39" t="s">
-        <v>918</v>
-      </c>
-      <c r="N85" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="O85" s="39" t="s">
-        <v>919</v>
-      </c>
-      <c r="P85" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="Q85" s="39" t="s">
-        <v>920</v>
-      </c>
-      <c r="R85" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="S85" s="39" t="s">
-        <v>469</v>
-      </c>
+      <c r="D85" s="41" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E85" s="41"/>
+      <c r="F85" s="46" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H85" s="36" t="s">
+        <v>1117</v>
+      </c>
+      <c r="J85" s="50" t="s">
+        <v>1107</v>
+      </c>
+      <c r="L85" s="51" t="s">
+        <v>1108</v>
+      </c>
+      <c r="M85" s="41"/>
+      <c r="N85" s="52" t="s">
+        <v>1109</v>
+      </c>
+      <c r="O85" s="41"/>
+      <c r="P85" s="53" t="s">
+        <v>1110</v>
+      </c>
+      <c r="Q85" s="41"/>
+      <c r="R85" s="53" t="s">
+        <v>1111</v>
+      </c>
+      <c r="S85" s="41"/>
     </row>
-    <row r="86" spans="1:19">
+    <row r="86" spans="1:19" s="33" customFormat="1" ht="18">
       <c r="A86" s="42">
         <v>807</v>
       </c>
@@ -27646,54 +28715,34 @@
         <v>977</v>
       </c>
       <c r="C86" s="42"/>
-      <c r="D86" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E86" s="39" t="s">
-        <v>431</v>
-      </c>
-      <c r="F86" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G86" s="38" t="s">
-        <v>916</v>
-      </c>
-      <c r="H86" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="I86" s="39" t="s">
-        <v>917</v>
-      </c>
-      <c r="J86" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="K86" s="39" t="s">
-        <v>529</v>
-      </c>
-      <c r="L86" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="M86" s="39" t="s">
-        <v>918</v>
-      </c>
-      <c r="N86" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="O86" s="39" t="s">
-        <v>919</v>
-      </c>
-      <c r="P86" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="Q86" s="39" t="s">
-        <v>920</v>
-      </c>
-      <c r="R86" s="39" t="s">
-        <v>1025</v>
-      </c>
-      <c r="S86" s="39" t="s">
-        <v>469</v>
-      </c>
+      <c r="D86" s="46" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F86" s="46" t="s">
+        <v>1122</v>
+      </c>
+      <c r="H86" s="49" t="s">
+        <v>1123</v>
+      </c>
+      <c r="J86" s="50" t="s">
+        <v>1124</v>
+      </c>
+      <c r="L86" s="51" t="s">
+        <v>1125</v>
+      </c>
+      <c r="M86" s="41"/>
+      <c r="N86" s="52" t="s">
+        <v>1126</v>
+      </c>
+      <c r="O86" s="41"/>
+      <c r="P86" s="53" t="s">
+        <v>1127</v>
+      </c>
+      <c r="Q86" s="41"/>
+      <c r="R86" s="53" t="s">
+        <v>1121</v>
+      </c>
+      <c r="S86" s="41"/>
     </row>
     <row r="87" spans="1:19">
       <c r="A87" s="42">
@@ -27810,24 +28859,25 @@
       </c>
     </row>
     <row r="89" spans="1:19">
-      <c r="D89" s="39"/>
-      <c r="E89" s="39"/>
-      <c r="F89" s="39"/>
-      <c r="G89" s="38"/>
-      <c r="H89" s="39"/>
-      <c r="I89" s="39"/>
-      <c r="J89" s="39"/>
-      <c r="K89" s="39"/>
-      <c r="L89" s="39"/>
-      <c r="M89" s="39"/>
-      <c r="N89" s="39"/>
-      <c r="O89" s="39"/>
-      <c r="P89" s="39"/>
-      <c r="Q89" s="39"/>
-      <c r="R89" s="39"/>
-      <c r="S89" s="39"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="41"/>
+      <c r="F89" s="41"/>
+      <c r="G89" s="40"/>
+      <c r="H89" s="41"/>
+      <c r="I89" s="41"/>
+      <c r="J89" s="41"/>
+      <c r="K89" s="41"/>
+      <c r="L89" s="41"/>
+      <c r="M89" s="41"/>
+      <c r="N89" s="41"/>
+      <c r="O89" s="41"/>
+      <c r="P89" s="41"/>
+      <c r="Q89" s="41"/>
+      <c r="R89" s="41"/>
+      <c r="S89" s="41"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:S88" xr:uid="{B3379E4E-7E82-4114-9EA0-C7AA1E3C9292}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -27836,1243 +28886,1243 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDB8601-B683-4507-99BB-68B345476395}">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="36" customWidth="1"/>
-    <col min="2" max="2" width="26.25" style="37" customWidth="1"/>
-    <col min="3" max="3" width="23" style="37" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="38" customWidth="1"/>
+    <col min="2" max="2" width="26.25" style="39" customWidth="1"/>
+    <col min="3" max="3" width="23" style="39" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="37" t="s">
         <v>738</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="37" t="s">
         <v>739</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="D1" s="34" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="35">
+      <c r="A2" s="37">
         <v>2</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>980</v>
       </c>
-      <c r="C2" s="35">
+      <c r="C2" s="37">
         <v>2</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="34" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="35">
+      <c r="A3" s="37">
         <v>4</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="37" t="s">
         <v>981</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="37">
         <v>4</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="35" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="35">
+      <c r="A4" s="37">
         <v>10</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="37" t="s">
         <v>982</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="37">
         <v>10</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="34" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="35">
+      <c r="A5" s="37">
         <v>14</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="37" t="s">
         <v>983</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="37">
         <v>14</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="34" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="35">
+      <c r="A6" s="37">
         <v>16</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="37" t="s">
         <v>984</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="37">
         <v>16</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="34" t="s">
         <v>1028</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="35">
+      <c r="A7" s="37">
         <v>18</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="37" t="s">
         <v>985</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="37">
         <v>18</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="34" t="s">
         <v>1029</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="35">
+      <c r="A8" s="37">
         <v>20</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="37" t="s">
         <v>986</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="37">
         <v>20</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="34" t="s">
         <v>1030</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="35">
+      <c r="A9" s="37">
         <v>28</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="37" t="s">
         <v>987</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="37">
         <v>28</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="34" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="35">
+      <c r="A10" s="37">
         <v>30</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="37" t="s">
         <v>988</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="37">
         <v>30</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="34" t="s">
         <v>1031</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="35">
+      <c r="A11" s="37">
         <v>33</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="37" t="s">
         <v>989</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="37">
         <v>33</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D11" s="34" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="35">
+      <c r="A12" s="37">
         <v>35</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="37" t="s">
         <v>990</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="37">
         <v>35</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="34" t="s">
         <v>1032</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="35">
+      <c r="A13" s="37">
         <v>37</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="37" t="s">
         <v>991</v>
       </c>
-      <c r="C13" s="35">
+      <c r="C13" s="37">
         <v>37</v>
       </c>
-      <c r="D13" s="33" t="s">
+      <c r="D13" s="34" t="s">
         <v>1033</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="35">
+      <c r="A14" s="37">
         <v>38</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="37" t="s">
         <v>992</v>
       </c>
-      <c r="C14" s="35">
+      <c r="C14" s="37">
         <v>38</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="34" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="35">
+      <c r="A15" s="37">
         <v>40</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="37" t="s">
         <v>993</v>
       </c>
-      <c r="C15" s="35">
+      <c r="C15" s="37">
         <v>40</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="34" t="s">
         <v>1034</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="35">
+      <c r="A16" s="37">
         <v>45</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="37" t="s">
         <v>994</v>
       </c>
-      <c r="C16" s="35">
+      <c r="C16" s="37">
         <v>45</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="34" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="35">
+      <c r="A17" s="37">
         <v>48</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="37" t="s">
         <v>995</v>
       </c>
-      <c r="C17" s="35">
+      <c r="C17" s="37">
         <v>48</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="34" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="35">
+      <c r="A18" s="37">
         <v>51</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="37" t="s">
         <v>996</v>
       </c>
-      <c r="C18" s="35">
+      <c r="C18" s="37">
         <v>51</v>
       </c>
-      <c r="D18" s="33" t="s">
+      <c r="D18" s="34" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="35">
+      <c r="A19" s="37">
         <v>53</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="37" t="s">
         <v>997</v>
       </c>
-      <c r="C19" s="35">
+      <c r="C19" s="37">
         <v>53</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="34" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="35">
+      <c r="A20" s="37">
         <v>55</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="37" t="s">
         <v>998</v>
       </c>
-      <c r="C20" s="35">
+      <c r="C20" s="37">
         <v>55</v>
       </c>
-      <c r="D20" s="33" t="s">
+      <c r="D20" s="34" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="35">
+      <c r="A21" s="37">
         <v>60</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="37" t="s">
         <v>999</v>
       </c>
-      <c r="C21" s="35">
+      <c r="C21" s="37">
         <v>60</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="34" t="s">
         <v>1035</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="35">
+      <c r="A22" s="37">
         <v>62</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="37" t="s">
         <v>1000</v>
       </c>
-      <c r="C22" s="35">
+      <c r="C22" s="37">
         <v>62</v>
       </c>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="34" t="s">
         <v>1036</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="35">
+      <c r="A23" s="37">
         <v>66</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35">
+      <c r="B23" s="37"/>
+      <c r="C23" s="37">
         <v>66</v>
       </c>
-      <c r="D23" s="33" t="s">
+      <c r="D23" s="34" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="35">
+      <c r="A24" s="37">
         <v>70</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="37" t="s">
         <v>1001</v>
       </c>
-      <c r="C24" s="35">
+      <c r="C24" s="37">
         <v>70</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D24" s="34" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="35">
+      <c r="A25" s="37">
         <v>81</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="37" t="s">
         <v>1002</v>
       </c>
-      <c r="C25" s="35">
+      <c r="C25" s="37">
         <v>81</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D25" s="34" t="s">
         <v>1038</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="35">
+      <c r="A26" s="37">
         <v>90</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="37" t="s">
         <v>1003</v>
       </c>
-      <c r="C26" s="35">
+      <c r="C26" s="37">
         <v>90</v>
       </c>
-      <c r="D26" s="33" t="s">
+      <c r="D26" s="34" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="35">
+      <c r="A27" s="37">
         <v>94</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="37" t="s">
         <v>1004</v>
       </c>
-      <c r="C27" s="35">
+      <c r="C27" s="37">
         <v>94</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D27" s="34" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="35">
+      <c r="A28" s="37">
         <v>102</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="37" t="s">
         <v>921</v>
       </c>
-      <c r="C28" s="35">
+      <c r="C28" s="37">
         <v>102</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D28" s="34" t="s">
         <v>1039</v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="35">
+      <c r="A29" s="37">
         <v>105</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="37" t="s">
         <v>922</v>
       </c>
-      <c r="C29" s="35">
+      <c r="C29" s="37">
         <v>105</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="34" t="s">
         <v>1040</v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="35">
+      <c r="A30" s="37">
         <v>106</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="37" t="s">
         <v>923</v>
       </c>
-      <c r="C30" s="35">
+      <c r="C30" s="37">
         <v>106</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="34" t="s">
         <v>1041</v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="35">
+      <c r="A31" s="37">
         <v>108</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="37" t="s">
         <v>924</v>
       </c>
-      <c r="C31" s="35">
+      <c r="C31" s="37">
         <v>108</v>
       </c>
-      <c r="D31" s="33" t="s">
+      <c r="D31" s="34" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="35">
+      <c r="A32" s="37">
         <v>110</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="37" t="s">
         <v>925</v>
       </c>
-      <c r="C32" s="35">
+      <c r="C32" s="37">
         <v>110</v>
       </c>
-      <c r="D32" s="33" t="s">
+      <c r="D32" s="34" t="s">
         <v>1042</v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="35">
+      <c r="A33" s="37">
         <v>111</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="37" t="s">
         <v>926</v>
       </c>
-      <c r="C33" s="35">
+      <c r="C33" s="37">
         <v>111</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="34" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="35">
+      <c r="A34" s="37">
         <v>117</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="37" t="s">
         <v>927</v>
       </c>
-      <c r="C34" s="35">
+      <c r="C34" s="37">
         <v>117</v>
       </c>
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="34" t="s">
         <v>1044</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="35">
+      <c r="A35" s="37">
         <v>134</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="37" t="s">
         <v>928</v>
       </c>
-      <c r="C35" s="35">
+      <c r="C35" s="37">
         <v>134</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="D35" s="34" t="s">
         <v>1045</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="35">
+      <c r="A36" s="37">
         <v>150</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="37" t="s">
         <v>929</v>
       </c>
-      <c r="C36" s="35">
+      <c r="C36" s="37">
         <v>150</v>
       </c>
-      <c r="D36" s="33" t="s">
+      <c r="D36" s="34" t="s">
         <v>1046</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="35">
+      <c r="A37" s="37">
         <v>152</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="37" t="s">
         <v>930</v>
       </c>
-      <c r="C37" s="35">
+      <c r="C37" s="37">
         <v>152</v>
       </c>
-      <c r="D37" s="33" t="s">
+      <c r="D37" s="34" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="35">
+      <c r="A38" s="37">
         <v>154</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="37" t="s">
         <v>931</v>
       </c>
-      <c r="C38" s="35">
+      <c r="C38" s="37">
         <v>154</v>
       </c>
-      <c r="D38" s="33" t="s">
+      <c r="D38" s="34" t="s">
         <v>1047</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="35">
+      <c r="A39" s="37">
         <v>155</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="37" t="s">
         <v>932</v>
       </c>
-      <c r="C39" s="35">
+      <c r="C39" s="37">
         <v>155</v>
       </c>
-      <c r="D39" s="33" t="s">
+      <c r="D39" s="34" t="s">
         <v>1048</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="35">
+      <c r="A40" s="37">
         <v>158</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="37" t="s">
         <v>933</v>
       </c>
-      <c r="C40" s="35">
+      <c r="C40" s="37">
         <v>158</v>
       </c>
-      <c r="D40" s="33" t="s">
+      <c r="D40" s="34" t="s">
         <v>1049</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="35">
+      <c r="A41" s="37">
         <v>161</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="37" t="s">
         <v>934</v>
       </c>
-      <c r="C41" s="35">
+      <c r="C41" s="37">
         <v>161</v>
       </c>
-      <c r="D41" s="33" t="s">
+      <c r="D41" s="34" t="s">
         <v>1050</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="35">
+      <c r="A42" s="37">
         <v>162</v>
       </c>
-      <c r="B42" s="35" t="s">
+      <c r="B42" s="37" t="s">
         <v>935</v>
       </c>
-      <c r="C42" s="35">
+      <c r="C42" s="37">
         <v>162</v>
       </c>
-      <c r="D42" s="33" t="s">
+      <c r="D42" s="34" t="s">
         <v>1051</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="35">
+      <c r="A43" s="37">
         <v>165</v>
       </c>
-      <c r="B43" s="35" t="s">
+      <c r="B43" s="37" t="s">
         <v>936</v>
       </c>
-      <c r="C43" s="35">
+      <c r="C43" s="37">
         <v>165</v>
       </c>
-      <c r="D43" s="33" t="s">
+      <c r="D43" s="34" t="s">
         <v>1052</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="35">
+      <c r="A44" s="37">
         <v>167</v>
       </c>
-      <c r="B44" s="35" t="s">
+      <c r="B44" s="37" t="s">
         <v>937</v>
       </c>
-      <c r="C44" s="35">
+      <c r="C44" s="37">
         <v>167</v>
       </c>
-      <c r="D44" s="33" t="s">
+      <c r="D44" s="34" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="35">
+      <c r="A45" s="37">
         <v>169</v>
       </c>
-      <c r="B45" s="35" t="s">
+      <c r="B45" s="37" t="s">
         <v>938</v>
       </c>
-      <c r="C45" s="35">
+      <c r="C45" s="37">
         <v>169</v>
       </c>
-      <c r="D45" s="33" t="s">
+      <c r="D45" s="34" t="s">
         <v>1053</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="35">
+      <c r="A46" s="37">
         <v>177</v>
       </c>
-      <c r="B46" s="35" t="s">
+      <c r="B46" s="37" t="s">
         <v>939</v>
       </c>
-      <c r="C46" s="35">
+      <c r="C46" s="37">
         <v>177</v>
       </c>
-      <c r="D46" s="33" t="s">
+      <c r="D46" s="34" t="s">
         <v>1054</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="35">
+      <c r="A47" s="37">
         <v>179</v>
       </c>
-      <c r="B47" s="35" t="s">
+      <c r="B47" s="37" t="s">
         <v>940</v>
       </c>
-      <c r="C47" s="35">
+      <c r="C47" s="37">
         <v>179</v>
       </c>
-      <c r="D47" s="33" t="s">
+      <c r="D47" s="34" t="s">
         <v>1055</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="35">
+      <c r="A48" s="37">
         <v>180</v>
       </c>
-      <c r="B48" s="35" t="s">
+      <c r="B48" s="37" t="s">
         <v>941</v>
       </c>
-      <c r="C48" s="35">
+      <c r="C48" s="37">
         <v>180</v>
       </c>
-      <c r="D48" s="33" t="s">
+      <c r="D48" s="34" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="35">
+      <c r="A49" s="37">
         <v>182</v>
       </c>
-      <c r="B49" s="35" t="s">
+      <c r="B49" s="37" t="s">
         <v>942</v>
       </c>
-      <c r="C49" s="35">
+      <c r="C49" s="37">
         <v>182</v>
       </c>
-      <c r="D49" s="33" t="s">
+      <c r="D49" s="34" t="s">
         <v>1056</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="35">
+      <c r="A50" s="37">
         <v>204</v>
       </c>
-      <c r="B50" s="35" t="s">
+      <c r="B50" s="37" t="s">
         <v>943</v>
       </c>
-      <c r="C50" s="35">
+      <c r="C50" s="37">
         <v>204</v>
       </c>
-      <c r="D50" s="33" t="s">
+      <c r="D50" s="34" t="s">
         <v>1057</v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="35">
+      <c r="A51" s="37">
         <v>205</v>
       </c>
-      <c r="B51" s="35" t="s">
+      <c r="B51" s="37" t="s">
         <v>944</v>
       </c>
-      <c r="C51" s="35">
+      <c r="C51" s="37">
         <v>205</v>
       </c>
-      <c r="D51" s="33" t="s">
+      <c r="D51" s="34" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="35">
+      <c r="A52" s="37">
         <v>206</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="B52" s="37" t="s">
         <v>945</v>
       </c>
-      <c r="C52" s="35">
+      <c r="C52" s="37">
         <v>206</v>
       </c>
-      <c r="D52" s="33" t="s">
+      <c r="D52" s="34" t="s">
         <v>1057</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="35">
+      <c r="A53" s="37">
         <v>207</v>
       </c>
-      <c r="B53" s="35" t="s">
+      <c r="B53" s="37" t="s">
         <v>946</v>
       </c>
-      <c r="C53" s="35">
+      <c r="C53" s="37">
         <v>207</v>
       </c>
-      <c r="D53" s="33" t="s">
+      <c r="D53" s="34" t="s">
         <v>1059</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="35" t="s">
+      <c r="A54" s="37" t="s">
         <v>1005</v>
       </c>
-      <c r="B54" s="35" t="s">
+      <c r="B54" s="37" t="s">
         <v>947</v>
       </c>
-      <c r="C54" s="35" t="s">
+      <c r="C54" s="37" t="s">
         <v>1005</v>
       </c>
-      <c r="D54" s="33" t="s">
+      <c r="D54" s="34" t="s">
         <v>1079</v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="35">
+      <c r="A55" s="37">
         <v>212</v>
       </c>
-      <c r="B55" s="35" t="s">
+      <c r="B55" s="37" t="s">
         <v>948</v>
       </c>
-      <c r="C55" s="35">
+      <c r="C55" s="37">
         <v>212</v>
       </c>
-      <c r="D55" s="33" t="s">
+      <c r="D55" s="34" t="s">
         <v>1060</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="35">
+      <c r="A56" s="37">
         <v>217</v>
       </c>
-      <c r="B56" s="35" t="s">
+      <c r="B56" s="37" t="s">
         <v>949</v>
       </c>
-      <c r="C56" s="35">
+      <c r="C56" s="37">
         <v>217</v>
       </c>
-      <c r="D56" s="33" t="s">
+      <c r="D56" s="34" t="s">
         <v>1061</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="35">
+      <c r="A57" s="37">
         <v>224</v>
       </c>
-      <c r="B57" s="35" t="s">
+      <c r="B57" s="37" t="s">
         <v>950</v>
       </c>
-      <c r="C57" s="35">
+      <c r="C57" s="37">
         <v>224</v>
       </c>
-      <c r="D57" s="33" t="s">
+      <c r="D57" s="34" t="s">
         <v>1062</v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="35">
+      <c r="A58" s="37">
         <v>230</v>
       </c>
-      <c r="B58" s="35" t="s">
+      <c r="B58" s="37" t="s">
         <v>951</v>
       </c>
-      <c r="C58" s="35">
+      <c r="C58" s="37">
         <v>230</v>
       </c>
-      <c r="D58" s="33" t="s">
+      <c r="D58" s="34" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="35">
+      <c r="A59" s="37">
         <v>232</v>
       </c>
-      <c r="B59" s="35" t="s">
+      <c r="B59" s="37" t="s">
         <v>952</v>
       </c>
-      <c r="C59" s="35">
+      <c r="C59" s="37">
         <v>232</v>
       </c>
-      <c r="D59" s="33" t="s">
+      <c r="D59" s="34" t="s">
         <v>1064</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="35">
+      <c r="A60" s="37">
         <v>233</v>
       </c>
-      <c r="B60" s="35"/>
-      <c r="C60" s="35">
+      <c r="B60" s="37"/>
+      <c r="C60" s="37">
         <v>233</v>
       </c>
-      <c r="D60" s="33" t="s">
+      <c r="D60" s="34" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="35" t="s">
+      <c r="A61" s="37" t="s">
         <v>1006</v>
       </c>
-      <c r="B61" s="35" t="s">
+      <c r="B61" s="37" t="s">
         <v>953</v>
       </c>
-      <c r="C61" s="35" t="s">
+      <c r="C61" s="37" t="s">
         <v>1006</v>
       </c>
-      <c r="D61" s="33" t="s">
+      <c r="D61" s="34" t="s">
         <v>1065</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="35">
+      <c r="A62" s="37">
         <v>237</v>
       </c>
-      <c r="B62" s="35" t="s">
+      <c r="B62" s="37" t="s">
         <v>954</v>
       </c>
-      <c r="C62" s="35">
+      <c r="C62" s="37">
         <v>237</v>
       </c>
-      <c r="D62" s="33" t="s">
+      <c r="D62" s="34" t="s">
         <v>1066</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="35">
+      <c r="A63" s="37">
         <v>240</v>
       </c>
-      <c r="B63" s="35" t="s">
+      <c r="B63" s="37" t="s">
         <v>955</v>
       </c>
-      <c r="C63" s="35">
+      <c r="C63" s="37">
         <v>240</v>
       </c>
-      <c r="D63" s="33" t="s">
+      <c r="D63" s="34" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="35" t="s">
+      <c r="A64" s="37" t="s">
         <v>1007</v>
       </c>
-      <c r="B64" s="35" t="s">
+      <c r="B64" s="37" t="s">
         <v>956</v>
       </c>
-      <c r="C64" s="35" t="s">
+      <c r="C64" s="37" t="s">
         <v>1007</v>
       </c>
-      <c r="D64" s="33" t="s">
+      <c r="D64" s="34" t="s">
         <v>1067</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="35">
+      <c r="A65" s="37">
         <v>244</v>
       </c>
-      <c r="B65" s="35" t="s">
+      <c r="B65" s="37" t="s">
         <v>957</v>
       </c>
-      <c r="C65" s="35">
+      <c r="C65" s="37">
         <v>244</v>
       </c>
-      <c r="D65" s="33" t="s">
+      <c r="D65" s="34" t="s">
         <v>1068</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="35">
+      <c r="A66" s="37">
         <v>246</v>
       </c>
-      <c r="B66" s="35" t="s">
+      <c r="B66" s="37" t="s">
         <v>958</v>
       </c>
-      <c r="C66" s="35">
+      <c r="C66" s="37">
         <v>246</v>
       </c>
-      <c r="D66" s="33" t="s">
+      <c r="D66" s="34" t="s">
         <v>1069</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="35">
+      <c r="A67" s="37">
         <v>251</v>
       </c>
-      <c r="B67" s="35" t="s">
+      <c r="B67" s="37" t="s">
         <v>959</v>
       </c>
-      <c r="C67" s="35">
+      <c r="C67" s="37">
         <v>251</v>
       </c>
-      <c r="D67" s="33" t="s">
+      <c r="D67" s="34" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="35">
+      <c r="A68" s="37">
         <v>260</v>
       </c>
-      <c r="B68" s="35" t="s">
+      <c r="B68" s="37" t="s">
         <v>960</v>
       </c>
-      <c r="C68" s="35">
+      <c r="C68" s="37">
         <v>260</v>
       </c>
-      <c r="D68" s="33" t="s">
+      <c r="D68" s="34" t="s">
         <v>1070</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="35">
+      <c r="A69" s="37">
         <v>265</v>
       </c>
-      <c r="B69" s="35" t="s">
+      <c r="B69" s="37" t="s">
         <v>961</v>
       </c>
-      <c r="C69" s="35">
+      <c r="C69" s="37">
         <v>265</v>
       </c>
-      <c r="D69" s="33" t="s">
+      <c r="D69" s="34" t="s">
         <v>1071</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="35">
+      <c r="A70" s="37">
         <v>267</v>
       </c>
-      <c r="B70" s="35" t="s">
+      <c r="B70" s="37" t="s">
         <v>962</v>
       </c>
-      <c r="C70" s="35">
+      <c r="C70" s="37">
         <v>267</v>
       </c>
-      <c r="D70" s="33" t="s">
+      <c r="D70" s="34" t="s">
         <v>1072</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="35">
+      <c r="A71" s="37">
         <v>344</v>
       </c>
-      <c r="B71" s="35" t="s">
+      <c r="B71" s="37" t="s">
         <v>963</v>
       </c>
-      <c r="C71" s="35">
+      <c r="C71" s="37">
         <v>344</v>
       </c>
-      <c r="D71" s="33" t="s">
+      <c r="D71" s="34" t="s">
         <v>1073</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="35">
+      <c r="A72" s="37">
         <v>460</v>
       </c>
-      <c r="B72" s="35" t="s">
+      <c r="B72" s="37" t="s">
         <v>964</v>
       </c>
-      <c r="C72" s="35">
+      <c r="C72" s="37">
         <v>460</v>
       </c>
-      <c r="D72" s="33" t="s">
+      <c r="D72" s="34" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="35" t="s">
+      <c r="A73" s="37" t="s">
         <v>418</v>
       </c>
-      <c r="B73" s="35" t="s">
+      <c r="B73" s="37" t="s">
         <v>965</v>
       </c>
-      <c r="C73" s="35" t="s">
+      <c r="C73" s="37" t="s">
         <v>418</v>
       </c>
-      <c r="D73" s="33" t="s">
+      <c r="D73" s="34" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="35">
+      <c r="A74" s="37">
         <v>501</v>
       </c>
-      <c r="B74" s="35" t="s">
+      <c r="B74" s="37" t="s">
         <v>966</v>
       </c>
-      <c r="C74" s="35">
+      <c r="C74" s="37">
         <v>501</v>
       </c>
-      <c r="D74" s="33" t="s">
+      <c r="D74" s="34" t="s">
         <v>1074</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="35">
+      <c r="A75" s="37">
         <v>550</v>
       </c>
-      <c r="B75" s="35" t="s">
+      <c r="B75" s="37" t="s">
         <v>967</v>
       </c>
-      <c r="C75" s="35">
+      <c r="C75" s="37">
         <v>550</v>
       </c>
-      <c r="D75" s="33" t="s">
+      <c r="D75" s="34" t="s">
         <v>1075</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="35">
+      <c r="A76" s="37">
         <v>602</v>
       </c>
-      <c r="B76" s="35" t="s">
+      <c r="B76" s="37" t="s">
         <v>968</v>
       </c>
-      <c r="C76" s="35">
+      <c r="C76" s="37">
         <v>602</v>
       </c>
-      <c r="D76" s="33" t="s">
+      <c r="D76" s="34" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="35">
+      <c r="A77" s="37">
         <v>603</v>
       </c>
-      <c r="B77" s="35" t="s">
+      <c r="B77" s="37" t="s">
         <v>969</v>
       </c>
-      <c r="C77" s="35">
+      <c r="C77" s="37">
         <v>603</v>
       </c>
-      <c r="D77" s="33" t="s">
+      <c r="D77" s="34" t="s">
         <v>1076</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="35">
+      <c r="A78" s="37">
         <v>617</v>
       </c>
-      <c r="B78" s="35" t="s">
+      <c r="B78" s="37" t="s">
         <v>970</v>
       </c>
-      <c r="C78" s="35">
+      <c r="C78" s="37">
         <v>617</v>
       </c>
-      <c r="D78" s="33" t="s">
+      <c r="D78" s="34" t="s">
         <v>1077</v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="35">
+      <c r="A79" s="37">
         <v>662</v>
       </c>
-      <c r="B79" s="35" t="s">
+      <c r="B79" s="37" t="s">
         <v>971</v>
       </c>
-      <c r="C79" s="35">
+      <c r="C79" s="37">
         <v>662</v>
       </c>
-      <c r="D79" s="33" t="s">
+      <c r="D79" s="34" t="s">
         <v>1078</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="35">
+      <c r="A80" s="37">
         <v>720</v>
       </c>
-      <c r="B80" s="35" t="s">
+      <c r="B80" s="37" t="s">
         <v>972</v>
       </c>
-      <c r="C80" s="35">
+      <c r="C80" s="37">
         <v>720</v>
       </c>
-      <c r="D80" s="33" t="s">
+      <c r="D80" s="34" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="35">
+      <c r="A81" s="37">
         <v>754</v>
       </c>
-      <c r="B81" s="35" t="s">
+      <c r="B81" s="37" t="s">
         <v>973</v>
       </c>
-      <c r="C81" s="35">
+      <c r="C81" s="37">
         <v>754</v>
       </c>
-      <c r="D81" s="33" t="s">
+      <c r="D81" s="34" t="s">
         <v>1057</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="35">
+      <c r="A82" s="37">
         <v>761</v>
       </c>
-      <c r="B82" s="35" t="s">
+      <c r="B82" s="37" t="s">
         <v>974</v>
       </c>
-      <c r="C82" s="35">
+      <c r="C82" s="37">
         <v>761</v>
       </c>
-      <c r="D82" s="33" t="s">
+      <c r="D82" s="34" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="35">
+      <c r="A83" s="37">
         <v>801</v>
       </c>
-      <c r="B83" s="35" t="s">
+      <c r="B83" s="37" t="s">
         <v>1008</v>
       </c>
-      <c r="C83" s="35" t="s">
+      <c r="C83" s="37" t="s">
         <v>1101</v>
       </c>
-      <c r="D83" s="33" t="s">
+      <c r="D83" s="34" t="s">
         <v>1096</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="35">
+      <c r="A84" s="37">
         <v>803</v>
       </c>
-      <c r="B84" s="35" t="s">
+      <c r="B84" s="37" t="s">
         <v>975</v>
       </c>
-      <c r="C84" s="35" t="s">
+      <c r="C84" s="37" t="s">
         <v>1102</v>
       </c>
-      <c r="D84" s="33" t="s">
+      <c r="D84" s="34" t="s">
         <v>1097</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="35">
+      <c r="A85" s="37">
         <v>804</v>
       </c>
-      <c r="B85" s="35" t="s">
+      <c r="B85" s="37" t="s">
         <v>976</v>
       </c>
-      <c r="C85" s="35" t="s">
+      <c r="C85" s="37" t="s">
         <v>1103</v>
       </c>
-      <c r="D85" s="33" t="s">
+      <c r="D85" s="34" t="s">
         <v>1098</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="35">
+      <c r="A86" s="37">
         <v>807</v>
       </c>
-      <c r="B86" s="35" t="s">
+      <c r="B86" s="37" t="s">
         <v>977</v>
       </c>
-      <c r="C86" s="35" t="s">
+      <c r="C86" s="37" t="s">
         <v>1104</v>
       </c>
-      <c r="D86" s="33" t="s">
+      <c r="D86" s="34" t="s">
         <v>1099</v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="35">
+      <c r="A87" s="37">
         <v>857</v>
       </c>
-      <c r="B87" s="35" t="s">
+      <c r="B87" s="37" t="s">
         <v>978</v>
       </c>
-      <c r="C87" s="35" t="s">
+      <c r="C87" s="37" t="s">
         <v>1026</v>
       </c>
-      <c r="D87" s="33" t="s">
+      <c r="D87" s="34" t="s">
         <v>1100</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="35">
+      <c r="A88" s="37">
         <v>910</v>
       </c>
-      <c r="B88" s="35" t="s">
+      <c r="B88" s="37" t="s">
         <v>979</v>
       </c>
-      <c r="C88" s="35" t="s">
+      <c r="C88" s="37" t="s">
         <v>740</v>
       </c>
-      <c r="D88" s="33" t="s">
+      <c r="D88" s="34" t="s">
         <v>764</v>
       </c>
     </row>
@@ -29085,8 +30135,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2E5A54-8A5E-4D9F-908C-33D2CB64AF15}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:B26"/>
+    <sheetView topLeftCell="A18" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/src/_data/2023-12/dec-2023-translations.xlsx
+++ b/src/_data/2023-12/dec-2023-translations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\nina\LACMTA\mybus-v3\src\_data\2023-12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B92378-B9E2-4FE9-9F03-338AD5672963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A906DA4D-7CA3-4E17-AAC5-682D347FEA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2880" yWindow="510" windowWidth="34665" windowHeight="20745" tabRatio="215" firstSheet="1" activeTab="1" xr2:uid="{61E896D0-D03E-8B43-AD1B-B1FBB720644D}"/>
+    <workbookView xWindow="675" yWindow="315" windowWidth="32220" windowHeight="20745" tabRatio="215" firstSheet="1" activeTab="1" xr2:uid="{61E896D0-D03E-8B43-AD1B-B1FBB720644D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="1129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2394" uniqueCount="1131">
   <si>
     <t>English</t>
   </si>
@@ -21612,12 +21612,18 @@
   <si>
     <t>Weekday midday and Saturday/Sunday 9 am to 7 pm trains will operate every 10 minutes instead of 15 minutes.</t>
   </si>
+  <si>
+    <t>Cambios menores en el horario.</t>
+  </si>
+  <si>
+    <t>Minor changes to schedule.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -21793,6 +21799,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -21834,7 +21846,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -21967,6 +21979,9 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink 2" xfId="2" xr:uid="{21294A63-57E9-4EB8-A627-531329A3AEFB}"/>
@@ -23895,10 +23910,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3379E4E-7E82-4114-9EA0-C7AA1E3C9292}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B64" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -23907,7 +23923,8 @@
     <col min="2" max="2" width="14" style="31" customWidth="1"/>
     <col min="3" max="3" width="10.5" style="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="67" style="31" customWidth="1"/>
-    <col min="5" max="19" width="10.625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="33.75" style="31" customWidth="1"/>
+    <col min="6" max="19" width="10.625" style="31" customWidth="1"/>
     <col min="20" max="16384" width="8.75" style="31"/>
   </cols>
   <sheetData>
@@ -23979,13 +23996,13 @@
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="41" t="s">
-        <v>1025</v>
+        <v>1130</v>
       </c>
       <c r="E2" s="41" t="s">
         <v>431</v>
       </c>
       <c r="F2" s="41" t="s">
-        <v>1025</v>
+        <v>1129</v>
       </c>
       <c r="G2" s="40" t="s">
         <v>916</v>
@@ -24027,7 +24044,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" hidden="1">
       <c r="A3" s="42">
         <v>4</v>
       </c>
@@ -24095,55 +24112,55 @@
       </c>
       <c r="C4" s="43"/>
       <c r="D4" s="41" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E4" s="41" t="s">
-        <v>431</v>
+        <v>1130</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>429</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G4" s="40" t="s">
-        <v>916</v>
+        <v>1129</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>558</v>
       </c>
       <c r="H4" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="I4" s="41" t="s">
-        <v>917</v>
+      <c r="I4" s="42" t="s">
+        <v>543</v>
       </c>
       <c r="J4" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="K4" s="41" t="s">
-        <v>529</v>
+      <c r="K4" s="42" t="s">
+        <v>527</v>
       </c>
       <c r="L4" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="M4" s="41" t="s">
-        <v>918</v>
+      <c r="M4" s="42" t="s">
+        <v>512</v>
       </c>
       <c r="N4" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="O4" s="41" t="s">
-        <v>919</v>
+      <c r="O4" s="42" t="s">
+        <v>497</v>
       </c>
       <c r="P4" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="Q4" s="41" t="s">
-        <v>920</v>
+      <c r="Q4" s="42" t="s">
+        <v>482</v>
       </c>
       <c r="R4" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="S4" s="41" t="s">
-        <v>469</v>
+      <c r="S4" s="42" t="s">
+        <v>467</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" hidden="1">
       <c r="A5" s="42">
         <v>14</v>
       </c>
@@ -24200,7 +24217,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" hidden="1">
       <c r="A6" s="42">
         <v>16</v>
       </c>
@@ -24257,7 +24274,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" hidden="1">
       <c r="A7" s="42">
         <v>18</v>
       </c>
@@ -24323,13 +24340,13 @@
       </c>
       <c r="C8" s="43"/>
       <c r="D8" s="41" t="s">
-        <v>1025</v>
+        <v>1130</v>
       </c>
       <c r="E8" s="41" t="s">
         <v>431</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>1025</v>
+        <v>1129</v>
       </c>
       <c r="G8" s="40" t="s">
         <v>916</v>
@@ -24371,7 +24388,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" hidden="1">
       <c r="A9" s="42">
         <v>28</v>
       </c>
@@ -24428,7 +24445,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" hidden="1">
       <c r="A10" s="42">
         <v>30</v>
       </c>
@@ -24485,7 +24502,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" hidden="1">
       <c r="A11" s="42">
         <v>33</v>
       </c>
@@ -24542,7 +24559,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" hidden="1">
       <c r="A12" s="42">
         <v>35</v>
       </c>
@@ -24608,13 +24625,13 @@
       </c>
       <c r="C13" s="43"/>
       <c r="D13" s="41" t="s">
-        <v>1025</v>
+        <v>1130</v>
       </c>
       <c r="E13" s="41" t="s">
         <v>431</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>1025</v>
+        <v>1129</v>
       </c>
       <c r="G13" s="40" t="s">
         <v>916</v>
@@ -24656,7 +24673,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" hidden="1">
       <c r="A14" s="42">
         <v>38</v>
       </c>
@@ -24713,7 +24730,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" hidden="1">
       <c r="A15" s="42">
         <v>40</v>
       </c>
@@ -24770,7 +24787,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" hidden="1">
       <c r="A16" s="42">
         <v>45</v>
       </c>
@@ -24827,7 +24844,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" hidden="1">
       <c r="A17" s="42">
         <v>48</v>
       </c>
@@ -24884,7 +24901,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" hidden="1">
       <c r="A18" s="42">
         <v>51</v>
       </c>
@@ -24941,7 +24958,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" hidden="1">
       <c r="A19" s="42">
         <v>53</v>
       </c>
@@ -25000,7 +25017,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" hidden="1">
       <c r="A20" s="42">
         <v>55</v>
       </c>
@@ -25066,52 +25083,52 @@
       </c>
       <c r="C21" s="43"/>
       <c r="D21" s="41" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E21" s="41" t="s">
-        <v>431</v>
+        <v>1130</v>
+      </c>
+      <c r="E21" s="54" t="s">
+        <v>429</v>
       </c>
       <c r="F21" s="41" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G21" s="40" t="s">
-        <v>916</v>
+        <v>1129</v>
+      </c>
+      <c r="G21" s="42" t="s">
+        <v>558</v>
       </c>
       <c r="H21" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="I21" s="41" t="s">
-        <v>917</v>
+      <c r="I21" s="42" t="s">
+        <v>543</v>
       </c>
       <c r="J21" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="K21" s="41" t="s">
-        <v>529</v>
+      <c r="K21" s="42" t="s">
+        <v>527</v>
       </c>
       <c r="L21" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="M21" s="41" t="s">
-        <v>918</v>
+      <c r="M21" s="42" t="s">
+        <v>512</v>
       </c>
       <c r="N21" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="O21" s="41" t="s">
-        <v>919</v>
+      <c r="O21" s="42" t="s">
+        <v>497</v>
       </c>
       <c r="P21" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="Q21" s="41" t="s">
-        <v>920</v>
+      <c r="Q21" s="42" t="s">
+        <v>482</v>
       </c>
       <c r="R21" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="S21" s="41" t="s">
-        <v>469</v>
+      <c r="S21" s="42" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -25123,13 +25140,13 @@
       </c>
       <c r="C22" s="43"/>
       <c r="D22" s="41" t="s">
-        <v>1025</v>
+        <v>1130</v>
       </c>
       <c r="E22" s="41" t="s">
         <v>431</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>1025</v>
+        <v>1129</v>
       </c>
       <c r="G22" s="40" t="s">
         <v>916</v>
@@ -25171,7 +25188,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" hidden="1">
       <c r="A23" s="42">
         <v>66</v>
       </c>
@@ -25235,52 +25252,52 @@
       </c>
       <c r="C24" s="43"/>
       <c r="D24" s="41" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E24" s="41" t="s">
-        <v>431</v>
+        <v>1130</v>
+      </c>
+      <c r="E24" s="54" t="s">
+        <v>429</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G24" s="40" t="s">
-        <v>916</v>
+        <v>1129</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>558</v>
       </c>
       <c r="H24" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="I24" s="41" t="s">
-        <v>917</v>
+      <c r="I24" s="42" t="s">
+        <v>543</v>
       </c>
       <c r="J24" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="K24" s="41" t="s">
-        <v>529</v>
+      <c r="K24" s="42" t="s">
+        <v>527</v>
       </c>
       <c r="L24" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="M24" s="41" t="s">
-        <v>918</v>
+      <c r="M24" s="42" t="s">
+        <v>512</v>
       </c>
       <c r="N24" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="O24" s="41" t="s">
-        <v>919</v>
+      <c r="O24" s="42" t="s">
+        <v>497</v>
       </c>
       <c r="P24" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="Q24" s="41" t="s">
-        <v>920</v>
+      <c r="Q24" s="42" t="s">
+        <v>482</v>
       </c>
       <c r="R24" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="S24" s="41" t="s">
-        <v>469</v>
+      <c r="S24" s="42" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="25" spans="1:19">
@@ -25292,13 +25309,13 @@
       </c>
       <c r="C25" s="43"/>
       <c r="D25" s="41" t="s">
-        <v>1025</v>
+        <v>1130</v>
       </c>
       <c r="E25" s="41" t="s">
         <v>431</v>
       </c>
       <c r="F25" s="41" t="s">
-        <v>1025</v>
+        <v>1129</v>
       </c>
       <c r="G25" s="40" t="s">
         <v>916</v>
@@ -25340,7 +25357,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" hidden="1">
       <c r="A26" s="42">
         <v>90</v>
       </c>
@@ -25408,13 +25425,13 @@
       </c>
       <c r="C27" s="43"/>
       <c r="D27" s="41" t="s">
-        <v>1025</v>
+        <v>1130</v>
       </c>
       <c r="E27" s="41" t="s">
         <v>431</v>
       </c>
       <c r="F27" s="41" t="s">
-        <v>1025</v>
+        <v>1129</v>
       </c>
       <c r="G27" s="40" t="s">
         <v>916</v>
@@ -25456,7 +25473,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" hidden="1">
       <c r="A28" s="42">
         <v>102</v>
       </c>
@@ -25513,7 +25530,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="32" customFormat="1">
+    <row r="29" spans="1:19" s="32" customFormat="1" hidden="1">
       <c r="A29" s="42">
         <v>105</v>
       </c>
@@ -25570,7 +25587,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" hidden="1">
       <c r="A30" s="42">
         <v>106</v>
       </c>
@@ -25627,7 +25644,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" hidden="1">
       <c r="A31" s="42">
         <v>108</v>
       </c>
@@ -25684,7 +25701,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" hidden="1">
       <c r="A32" s="42">
         <v>110</v>
       </c>
@@ -25741,7 +25758,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:19" hidden="1">
       <c r="A33" s="42">
         <v>111</v>
       </c>
@@ -25798,7 +25815,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:19" hidden="1">
       <c r="A34" s="42">
         <v>117</v>
       </c>
@@ -25855,7 +25872,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="32" customFormat="1">
+    <row r="35" spans="1:19" s="32" customFormat="1" hidden="1">
       <c r="A35" s="42">
         <v>134</v>
       </c>
@@ -25921,55 +25938,55 @@
       </c>
       <c r="C36" s="43"/>
       <c r="D36" s="41" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E36" s="41" t="s">
-        <v>431</v>
+        <v>1130</v>
+      </c>
+      <c r="E36" s="54" t="s">
+        <v>429</v>
       </c>
       <c r="F36" s="41" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G36" s="40" t="s">
-        <v>916</v>
+        <v>1129</v>
+      </c>
+      <c r="G36" s="42" t="s">
+        <v>558</v>
       </c>
       <c r="H36" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="I36" s="41" t="s">
-        <v>917</v>
+      <c r="I36" s="42" t="s">
+        <v>543</v>
       </c>
       <c r="J36" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="K36" s="41" t="s">
-        <v>529</v>
+      <c r="K36" s="42" t="s">
+        <v>527</v>
       </c>
       <c r="L36" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="M36" s="41" t="s">
-        <v>918</v>
+      <c r="M36" s="42" t="s">
+        <v>512</v>
       </c>
       <c r="N36" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="O36" s="41" t="s">
-        <v>919</v>
+      <c r="O36" s="42" t="s">
+        <v>497</v>
       </c>
       <c r="P36" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="Q36" s="41" t="s">
-        <v>920</v>
+      <c r="Q36" s="42" t="s">
+        <v>482</v>
       </c>
       <c r="R36" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="S36" s="41" t="s">
-        <v>469</v>
+      <c r="S36" s="42" t="s">
+        <v>467</v>
       </c>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" spans="1:19" hidden="1">
       <c r="A37" s="42">
         <v>152</v>
       </c>
@@ -26028,7 +26045,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="32" customFormat="1">
+    <row r="38" spans="1:19" s="32" customFormat="1" hidden="1">
       <c r="A38" s="42">
         <v>154</v>
       </c>
@@ -26085,7 +26102,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" spans="1:19" hidden="1">
       <c r="A39" s="42">
         <v>155</v>
       </c>
@@ -26142,7 +26159,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" spans="1:19" hidden="1">
       <c r="A40" s="42">
         <v>158</v>
       </c>
@@ -26208,13 +26225,13 @@
       </c>
       <c r="C41" s="43"/>
       <c r="D41" s="41" t="s">
-        <v>1025</v>
+        <v>1130</v>
       </c>
       <c r="E41" s="41" t="s">
         <v>431</v>
       </c>
       <c r="F41" s="41" t="s">
-        <v>1025</v>
+        <v>1129</v>
       </c>
       <c r="G41" s="40" t="s">
         <v>916</v>
@@ -26265,13 +26282,13 @@
       </c>
       <c r="C42" s="43"/>
       <c r="D42" s="41" t="s">
-        <v>1025</v>
+        <v>1130</v>
       </c>
       <c r="E42" s="41" t="s">
         <v>431</v>
       </c>
       <c r="F42" s="41" t="s">
-        <v>1025</v>
+        <v>1129</v>
       </c>
       <c r="G42" s="40" t="s">
         <v>916</v>
@@ -26322,13 +26339,13 @@
       </c>
       <c r="C43" s="43"/>
       <c r="D43" s="41" t="s">
-        <v>1025</v>
+        <v>1130</v>
       </c>
       <c r="E43" s="41" t="s">
         <v>431</v>
       </c>
       <c r="F43" s="41" t="s">
-        <v>1025</v>
+        <v>1129</v>
       </c>
       <c r="G43" s="40" t="s">
         <v>916</v>
@@ -26370,7 +26387,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" spans="1:19" hidden="1">
       <c r="A44" s="42">
         <v>167</v>
       </c>
@@ -26438,13 +26455,13 @@
       </c>
       <c r="C45" s="43"/>
       <c r="D45" s="41" t="s">
-        <v>1025</v>
+        <v>1130</v>
       </c>
       <c r="E45" s="41" t="s">
         <v>431</v>
       </c>
       <c r="F45" s="41" t="s">
-        <v>1025</v>
+        <v>1129</v>
       </c>
       <c r="G45" s="40" t="s">
         <v>916</v>
@@ -26495,13 +26512,13 @@
       </c>
       <c r="C46" s="43"/>
       <c r="D46" s="41" t="s">
-        <v>1025</v>
+        <v>1130</v>
       </c>
       <c r="E46" s="41" t="s">
         <v>431</v>
       </c>
       <c r="F46" s="41" t="s">
-        <v>1025</v>
+        <v>1129</v>
       </c>
       <c r="G46" s="40" t="s">
         <v>916</v>
@@ -26543,7 +26560,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" spans="1:19" hidden="1">
       <c r="A47" s="42">
         <v>179</v>
       </c>
@@ -26600,7 +26617,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" spans="1:19" hidden="1">
       <c r="A48" s="42">
         <v>180</v>
       </c>
@@ -26659,7 +26676,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" spans="1:19" hidden="1">
       <c r="A49" s="42">
         <v>182</v>
       </c>
@@ -26725,55 +26742,55 @@
       </c>
       <c r="C50" s="43"/>
       <c r="D50" s="41" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E50" s="41" t="s">
-        <v>431</v>
+        <v>1130</v>
+      </c>
+      <c r="E50" s="54" t="s">
+        <v>429</v>
       </c>
       <c r="F50" s="41" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G50" s="40" t="s">
-        <v>916</v>
+        <v>1129</v>
+      </c>
+      <c r="G50" s="42" t="s">
+        <v>558</v>
       </c>
       <c r="H50" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="I50" s="41" t="s">
-        <v>917</v>
+      <c r="I50" s="42" t="s">
+        <v>543</v>
       </c>
       <c r="J50" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="K50" s="41" t="s">
-        <v>529</v>
+      <c r="K50" s="42" t="s">
+        <v>527</v>
       </c>
       <c r="L50" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="M50" s="41" t="s">
-        <v>918</v>
+      <c r="M50" s="42" t="s">
+        <v>512</v>
       </c>
       <c r="N50" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="O50" s="41" t="s">
-        <v>919</v>
+      <c r="O50" s="42" t="s">
+        <v>497</v>
       </c>
       <c r="P50" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="Q50" s="41" t="s">
-        <v>920</v>
+      <c r="Q50" s="42" t="s">
+        <v>482</v>
       </c>
       <c r="R50" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="S50" s="41" t="s">
-        <v>469</v>
+      <c r="S50" s="42" t="s">
+        <v>467</v>
       </c>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" spans="1:19" hidden="1">
       <c r="A51" s="42">
         <v>205</v>
       </c>
@@ -26830,7 +26847,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" spans="1:19" hidden="1">
       <c r="A52" s="42">
         <v>206</v>
       </c>
@@ -26887,7 +26904,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" spans="1:19" hidden="1">
       <c r="A53" s="42">
         <v>207</v>
       </c>
@@ -26944,7 +26961,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" spans="1:19" hidden="1">
       <c r="A54" s="42" t="s">
         <v>1005</v>
       </c>
@@ -27001,7 +27018,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" spans="1:19" hidden="1">
       <c r="A55" s="42">
         <v>212</v>
       </c>
@@ -27067,13 +27084,13 @@
       </c>
       <c r="C56" s="43"/>
       <c r="D56" s="41" t="s">
-        <v>1025</v>
+        <v>1130</v>
       </c>
       <c r="E56" s="41" t="s">
         <v>431</v>
       </c>
       <c r="F56" s="41" t="s">
-        <v>1025</v>
+        <v>1129</v>
       </c>
       <c r="G56" s="40" t="s">
         <v>916</v>
@@ -27115,7 +27132,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" spans="1:19" hidden="1">
       <c r="A57" s="42">
         <v>224</v>
       </c>
@@ -27181,13 +27198,13 @@
       </c>
       <c r="C58" s="43"/>
       <c r="D58" s="41" t="s">
-        <v>1025</v>
+        <v>1130</v>
       </c>
       <c r="E58" s="41" t="s">
         <v>431</v>
       </c>
       <c r="F58" s="41" t="s">
-        <v>1025</v>
+        <v>1129</v>
       </c>
       <c r="G58" s="40" t="s">
         <v>916</v>
@@ -27229,7 +27246,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" spans="1:19" hidden="1">
       <c r="A59" s="42">
         <v>232</v>
       </c>
@@ -27286,7 +27303,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" spans="1:19" hidden="1">
       <c r="A60" s="42">
         <v>233</v>
       </c>
@@ -27350,13 +27367,13 @@
       </c>
       <c r="C61" s="42"/>
       <c r="D61" s="41" t="s">
-        <v>1025</v>
+        <v>1130</v>
       </c>
       <c r="E61" s="41" t="s">
         <v>431</v>
       </c>
       <c r="F61" s="41" t="s">
-        <v>1025</v>
+        <v>1129</v>
       </c>
       <c r="G61" s="40" t="s">
         <v>916</v>
@@ -27398,7 +27415,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" spans="1:19" hidden="1">
       <c r="A62" s="42">
         <v>237</v>
       </c>
@@ -27455,7 +27472,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" spans="1:19" hidden="1">
       <c r="A63" s="42">
         <v>240</v>
       </c>
@@ -27512,7 +27529,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" spans="1:19" hidden="1">
       <c r="A64" s="42" t="s">
         <v>1007</v>
       </c>
@@ -27578,13 +27595,13 @@
       </c>
       <c r="C65" s="42"/>
       <c r="D65" s="41" t="s">
-        <v>1025</v>
+        <v>1130</v>
       </c>
       <c r="E65" s="41" t="s">
         <v>431</v>
       </c>
       <c r="F65" s="41" t="s">
-        <v>1025</v>
+        <v>1129</v>
       </c>
       <c r="G65" s="40" t="s">
         <v>916</v>
@@ -27626,7 +27643,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" spans="1:19" hidden="1">
       <c r="A66" s="42">
         <v>246</v>
       </c>
@@ -27683,7 +27700,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" spans="1:19" hidden="1">
       <c r="A67" s="42">
         <v>251</v>
       </c>
@@ -27749,13 +27766,13 @@
       </c>
       <c r="C68" s="42"/>
       <c r="D68" s="41" t="s">
-        <v>1025</v>
+        <v>1130</v>
       </c>
       <c r="E68" s="41" t="s">
         <v>431</v>
       </c>
       <c r="F68" s="41" t="s">
-        <v>1025</v>
+        <v>1129</v>
       </c>
       <c r="G68" s="40" t="s">
         <v>916</v>
@@ -27806,55 +27823,55 @@
       </c>
       <c r="C69" s="42"/>
       <c r="D69" s="41" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E69" s="41" t="s">
-        <v>431</v>
+        <v>1130</v>
+      </c>
+      <c r="E69" s="54" t="s">
+        <v>429</v>
       </c>
       <c r="F69" s="41" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G69" s="40" t="s">
-        <v>916</v>
+        <v>1129</v>
+      </c>
+      <c r="G69" s="42" t="s">
+        <v>558</v>
       </c>
       <c r="H69" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="I69" s="41" t="s">
-        <v>917</v>
+      <c r="I69" s="42" t="s">
+        <v>543</v>
       </c>
       <c r="J69" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="K69" s="41" t="s">
-        <v>529</v>
+      <c r="K69" s="42" t="s">
+        <v>527</v>
       </c>
       <c r="L69" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="M69" s="41" t="s">
-        <v>918</v>
+      <c r="M69" s="42" t="s">
+        <v>512</v>
       </c>
       <c r="N69" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="O69" s="41" t="s">
-        <v>919</v>
+      <c r="O69" s="42" t="s">
+        <v>497</v>
       </c>
       <c r="P69" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="Q69" s="41" t="s">
-        <v>920</v>
+      <c r="Q69" s="42" t="s">
+        <v>482</v>
       </c>
       <c r="R69" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="S69" s="41" t="s">
-        <v>469</v>
+      <c r="S69" s="42" t="s">
+        <v>467</v>
       </c>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" spans="1:19" hidden="1">
       <c r="A70" s="42">
         <v>267</v>
       </c>
@@ -27920,13 +27937,13 @@
       </c>
       <c r="C71" s="42"/>
       <c r="D71" s="41" t="s">
-        <v>1025</v>
+        <v>1130</v>
       </c>
       <c r="E71" s="41" t="s">
         <v>431</v>
       </c>
       <c r="F71" s="41" t="s">
-        <v>1025</v>
+        <v>1129</v>
       </c>
       <c r="G71" s="40" t="s">
         <v>916</v>
@@ -27968,7 +27985,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" spans="1:19" hidden="1">
       <c r="A72" s="42">
         <v>460</v>
       </c>
@@ -28025,7 +28042,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" spans="1:19" hidden="1">
       <c r="A73" s="42" t="s">
         <v>418</v>
       </c>
@@ -28091,13 +28108,13 @@
       </c>
       <c r="C74" s="42"/>
       <c r="D74" s="41" t="s">
-        <v>1025</v>
+        <v>1130</v>
       </c>
       <c r="E74" s="41" t="s">
         <v>431</v>
       </c>
       <c r="F74" s="41" t="s">
-        <v>1025</v>
+        <v>1129</v>
       </c>
       <c r="G74" s="40" t="s">
         <v>916</v>
@@ -28148,13 +28165,13 @@
       </c>
       <c r="C75" s="42"/>
       <c r="D75" s="41" t="s">
-        <v>1025</v>
+        <v>1130</v>
       </c>
       <c r="E75" s="41" t="s">
         <v>431</v>
       </c>
       <c r="F75" s="41" t="s">
-        <v>1025</v>
+        <v>1129</v>
       </c>
       <c r="G75" s="40" t="s">
         <v>916</v>
@@ -28196,7 +28213,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" spans="1:19" hidden="1">
       <c r="A76" s="42">
         <v>602</v>
       </c>
@@ -28262,13 +28279,13 @@
       </c>
       <c r="C77" s="42"/>
       <c r="D77" s="41" t="s">
-        <v>1025</v>
+        <v>1130</v>
       </c>
       <c r="E77" s="41" t="s">
         <v>431</v>
       </c>
       <c r="F77" s="41" t="s">
-        <v>1025</v>
+        <v>1129</v>
       </c>
       <c r="G77" s="40" t="s">
         <v>916</v>
@@ -28310,7 +28327,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" spans="1:19" hidden="1">
       <c r="A78" s="42">
         <v>617</v>
       </c>
@@ -28376,13 +28393,13 @@
       </c>
       <c r="C79" s="42"/>
       <c r="D79" s="41" t="s">
-        <v>1025</v>
+        <v>1130</v>
       </c>
       <c r="E79" s="41" t="s">
         <v>431</v>
       </c>
       <c r="F79" s="41" t="s">
-        <v>1025</v>
+        <v>1129</v>
       </c>
       <c r="G79" s="40" t="s">
         <v>916</v>
@@ -28433,13 +28450,13 @@
       </c>
       <c r="C80" s="42"/>
       <c r="D80" s="41" t="s">
-        <v>1025</v>
+        <v>1130</v>
       </c>
       <c r="E80" s="41" t="s">
         <v>431</v>
       </c>
       <c r="F80" s="41" t="s">
-        <v>1025</v>
+        <v>1129</v>
       </c>
       <c r="G80" s="40" t="s">
         <v>916</v>
@@ -28490,55 +28507,55 @@
       </c>
       <c r="C81" s="42"/>
       <c r="D81" s="41" t="s">
-        <v>1025</v>
-      </c>
-      <c r="E81" s="41" t="s">
-        <v>431</v>
+        <v>1130</v>
+      </c>
+      <c r="E81" s="54" t="s">
+        <v>429</v>
       </c>
       <c r="F81" s="41" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G81" s="40" t="s">
-        <v>916</v>
+        <v>1129</v>
+      </c>
+      <c r="G81" s="42" t="s">
+        <v>558</v>
       </c>
       <c r="H81" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="I81" s="41" t="s">
-        <v>917</v>
+      <c r="I81" s="42" t="s">
+        <v>543</v>
       </c>
       <c r="J81" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="K81" s="41" t="s">
-        <v>529</v>
+      <c r="K81" s="42" t="s">
+        <v>527</v>
       </c>
       <c r="L81" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="M81" s="41" t="s">
-        <v>918</v>
+      <c r="M81" s="42" t="s">
+        <v>512</v>
       </c>
       <c r="N81" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="O81" s="41" t="s">
-        <v>919</v>
+      <c r="O81" s="42" t="s">
+        <v>497</v>
       </c>
       <c r="P81" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="Q81" s="41" t="s">
-        <v>920</v>
+      <c r="Q81" s="42" t="s">
+        <v>482</v>
       </c>
       <c r="R81" s="41" t="s">
         <v>1025</v>
       </c>
-      <c r="S81" s="41" t="s">
-        <v>469</v>
+      <c r="S81" s="42" t="s">
+        <v>467</v>
       </c>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" spans="1:19" hidden="1">
       <c r="A82" s="42">
         <v>761</v>
       </c>
@@ -28595,7 +28612,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="83" spans="1:19" s="33" customFormat="1" ht="15.75">
+    <row r="83" spans="1:19" s="33" customFormat="1" ht="15.75" hidden="1">
       <c r="A83" s="42">
         <v>801</v>
       </c>
@@ -28632,7 +28649,7 @@
       </c>
       <c r="S83" s="41"/>
     </row>
-    <row r="84" spans="1:19" s="33" customFormat="1" ht="15.75">
+    <row r="84" spans="1:19" s="33" customFormat="1" ht="15.75" hidden="1">
       <c r="A84" s="42">
         <v>803</v>
       </c>
@@ -28669,7 +28686,7 @@
       </c>
       <c r="S84" s="41"/>
     </row>
-    <row r="85" spans="1:19" s="33" customFormat="1" ht="15.75">
+    <row r="85" spans="1:19" s="33" customFormat="1" ht="15.75" hidden="1">
       <c r="A85" s="42">
         <v>804</v>
       </c>
@@ -28707,7 +28724,7 @@
       </c>
       <c r="S85" s="41"/>
     </row>
-    <row r="86" spans="1:19" s="33" customFormat="1" ht="18">
+    <row r="86" spans="1:19" s="33" customFormat="1" ht="18" hidden="1">
       <c r="A86" s="42">
         <v>807</v>
       </c>
@@ -28744,7 +28761,7 @@
       </c>
       <c r="S86" s="41"/>
     </row>
-    <row r="87" spans="1:19">
+    <row r="87" spans="1:19" hidden="1">
       <c r="A87" s="42">
         <v>857</v>
       </c>
@@ -28801,7 +28818,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="88" spans="1:19">
+    <row r="88" spans="1:19" s="33" customFormat="1" hidden="1">
       <c r="A88" s="42">
         <v>910</v>
       </c>
@@ -28877,7 +28894,13 @@
       <c r="S89" s="41"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S88" xr:uid="{B3379E4E-7E82-4114-9EA0-C7AA1E3C9292}"/>
+  <autoFilter ref="A1:S88" xr:uid="{B3379E4E-7E82-4114-9EA0-C7AA1E3C9292}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Minor timing changes, please check schedule."/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -30135,8 +30158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A2E5A54-8A5E-4D9F-908C-33D2CB64AF15}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22:I22"/>
+    <sheetView zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>

--- a/src/_data/2023-12/dec-2023-translations.xlsx
+++ b/src/_data/2023-12/dec-2023-translations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\nina\LACMTA\mybus-v3\src\_data\2023-12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9932B432-392B-41D4-AA37-D425908275F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F23123-B7F0-477B-AA29-4F9ECBEAB1C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="1290" windowWidth="17760" windowHeight="18285" tabRatio="215" firstSheet="1" activeTab="2" xr2:uid="{61E896D0-D03E-8B43-AD1B-B1FBB720644D}"/>
+    <workbookView xWindow="4380" yWindow="2415" windowWidth="29865" windowHeight="16200" tabRatio="215" firstSheet="1" activeTab="1" xr2:uid="{61E896D0-D03E-8B43-AD1B-B1FBB720644D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19958,9 +19958,6 @@
     <t>154_TT_12-10-23.pdf</t>
   </si>
   <si>
-    <t>155_TT-12-10-23.pdf</t>
-  </si>
-  <si>
     <t>158_TT_12-10-23.pdf</t>
   </si>
   <si>
@@ -19991,15 +19988,9 @@
     <t>182_TT_12-10-23.pdf</t>
   </si>
   <si>
-    <t>204 _TT_12-10-23.pdf</t>
-  </si>
-  <si>
     <t>205_TT_12-10-23.pdf</t>
   </si>
   <si>
-    <t>206 _TT_12-10-23.pdf</t>
-  </si>
-  <si>
     <t>207_TT_12-10-23.pdf</t>
   </si>
   <si>
@@ -20043,9 +20034,6 @@
   </si>
   <si>
     <t>260_TT_12-10-23.pdf</t>
-  </si>
-  <si>
-    <t>265 TT 12-10-23.pdf</t>
   </si>
   <si>
     <t>267_TT_12-10-23.pdf</t>
@@ -21850,6 +21838,18 @@
   </si>
   <si>
     <t>Pacific Coast Hwy</t>
+  </si>
+  <si>
+    <t>204_TT_12-10-23.pdf</t>
+  </si>
+  <si>
+    <t>206_TT_12-10-23.pdf</t>
+  </si>
+  <si>
+    <t>265_TT_12-10-23.pdf</t>
+  </si>
+  <si>
+    <t>155_TT_12-10-23.pdf</t>
   </si>
 </sst>
 </file>
@@ -22079,7 +22079,7 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -22209,6 +22209,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -24138,11 +24141,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3379E4E-7E82-4114-9EA0-C7AA1E3C9292}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="15"/>
@@ -24220,64 +24222,64 @@
         <v>2</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="C2" s="38"/>
       <c r="D2" s="37" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E2" s="37" t="s">
         <v>431</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="G2" s="36" t="s">
         <v>915</v>
       </c>
       <c r="H2" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="I2" s="37" t="s">
         <v>916</v>
       </c>
       <c r="J2" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="K2" s="37" t="s">
         <v>529</v>
       </c>
       <c r="L2" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="M2" s="37" t="s">
         <v>917</v>
       </c>
       <c r="N2" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="O2" s="37" t="s">
         <v>918</v>
       </c>
       <c r="P2" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="Q2" s="37" t="s">
         <v>919</v>
       </c>
       <c r="R2" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="S2" s="37" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="3" spans="1:19" hidden="1">
+    <row r="3" spans="1:19">
       <c r="A3" s="38">
         <v>4</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="C3" s="38" t="s">
         <v>905</v>
@@ -24336,64 +24338,64 @@
         <v>10</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="C4" s="38"/>
       <c r="D4" s="37" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E4" s="48" t="s">
         <v>429</v>
       </c>
       <c r="F4" s="37" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="G4" s="38" t="s">
         <v>558</v>
       </c>
       <c r="H4" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="I4" s="38" t="s">
         <v>543</v>
       </c>
       <c r="J4" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="K4" s="38" t="s">
         <v>527</v>
       </c>
       <c r="L4" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="M4" s="38" t="s">
         <v>512</v>
       </c>
       <c r="N4" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="O4" s="38" t="s">
         <v>497</v>
       </c>
       <c r="P4" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="Q4" s="38" t="s">
         <v>482</v>
       </c>
       <c r="R4" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="S4" s="38" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="5" spans="1:19" hidden="1">
+    <row r="5" spans="1:19">
       <c r="A5" s="38">
         <v>14</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="C5" s="38"/>
       <c r="D5" s="38" t="s">
@@ -24445,12 +24447,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="6" spans="1:19" hidden="1">
+    <row r="6" spans="1:19">
       <c r="A6" s="38">
         <v>16</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="C6" s="38"/>
       <c r="D6" s="39" t="s">
@@ -24502,58 +24504,58 @@
         <v>469</v>
       </c>
     </row>
-    <row r="7" spans="1:19" hidden="1">
+    <row r="7" spans="1:19">
       <c r="A7" s="38">
         <v>18</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="C7" s="38"/>
       <c r="D7" s="37" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="E7" s="37" t="s">
         <v>431</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="G7" s="36" t="s">
         <v>915</v>
       </c>
       <c r="H7" s="37" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="I7" s="37" t="s">
         <v>916</v>
       </c>
       <c r="J7" s="37" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="K7" s="37" t="s">
         <v>529</v>
       </c>
       <c r="L7" s="37" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="M7" s="37" t="s">
         <v>917</v>
       </c>
       <c r="N7" s="37" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="O7" s="37" t="s">
         <v>918</v>
       </c>
       <c r="P7" s="37" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="Q7" s="37" t="s">
         <v>919</v>
       </c>
       <c r="R7" s="37" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="S7" s="37" t="s">
         <v>469</v>
@@ -24564,64 +24566,64 @@
         <v>20</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="37" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E8" s="37" t="s">
         <v>431</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="G8" s="36" t="s">
         <v>915</v>
       </c>
       <c r="H8" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="I8" s="37" t="s">
         <v>916</v>
       </c>
       <c r="J8" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="K8" s="37" t="s">
         <v>529</v>
       </c>
       <c r="L8" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="M8" s="37" t="s">
         <v>917</v>
       </c>
       <c r="N8" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="O8" s="37" t="s">
         <v>918</v>
       </c>
       <c r="P8" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="Q8" s="37" t="s">
         <v>919</v>
       </c>
       <c r="R8" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="S8" s="37" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="9" spans="1:19" hidden="1">
+    <row r="9" spans="1:19">
       <c r="A9" s="38">
         <v>28</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="C9" s="38"/>
       <c r="D9" s="38" t="s">
@@ -24673,12 +24675,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="10" spans="1:19" hidden="1">
+    <row r="10" spans="1:19">
       <c r="A10" s="38">
         <v>30</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="C10" s="38"/>
       <c r="D10" s="39" t="s">
@@ -24730,12 +24732,12 @@
         <v>469</v>
       </c>
     </row>
-    <row r="11" spans="1:19" hidden="1">
+    <row r="11" spans="1:19">
       <c r="A11" s="38">
         <v>33</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="C11" s="38"/>
       <c r="D11" s="38" t="s">
@@ -24787,58 +24789,58 @@
         <v>466</v>
       </c>
     </row>
-    <row r="12" spans="1:19" hidden="1">
+    <row r="12" spans="1:19">
       <c r="A12" s="38">
         <v>35</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="C12" s="38"/>
       <c r="D12" s="41" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="E12" s="41" t="s">
         <v>431</v>
       </c>
       <c r="F12" s="42" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="G12" s="42" t="s">
         <v>915</v>
       </c>
       <c r="H12" s="40" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="I12" s="40" t="s">
         <v>916</v>
       </c>
       <c r="J12" s="41" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="K12" s="41" t="s">
         <v>529</v>
       </c>
       <c r="L12" s="40" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="M12" s="40" t="s">
         <v>917</v>
       </c>
       <c r="N12" s="40" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="O12" s="40" t="s">
         <v>918</v>
       </c>
       <c r="P12" s="40" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="Q12" s="40" t="s">
         <v>919</v>
       </c>
       <c r="R12" s="41" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="S12" s="41" t="s">
         <v>469</v>
@@ -24849,64 +24851,64 @@
         <v>37</v>
       </c>
       <c r="B13" s="38" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="C13" s="38"/>
       <c r="D13" s="37" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E13" s="37" t="s">
         <v>431</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="G13" s="36" t="s">
         <v>915</v>
       </c>
       <c r="H13" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="I13" s="37" t="s">
         <v>916</v>
       </c>
       <c r="J13" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="K13" s="37" t="s">
         <v>529</v>
       </c>
       <c r="L13" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="M13" s="37" t="s">
         <v>917</v>
       </c>
       <c r="N13" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="O13" s="37" t="s">
         <v>918</v>
       </c>
       <c r="P13" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="Q13" s="37" t="s">
         <v>919</v>
       </c>
       <c r="R13" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="S13" s="37" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="14" spans="1:19" hidden="1">
+    <row r="14" spans="1:19">
       <c r="A14" s="38">
         <v>38</v>
       </c>
       <c r="B14" s="38" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="C14" s="38"/>
       <c r="D14" s="38" t="s">
@@ -24958,69 +24960,69 @@
         <v>467</v>
       </c>
     </row>
-    <row r="15" spans="1:19" hidden="1">
+    <row r="15" spans="1:19">
       <c r="A15" s="38">
         <v>40</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="41" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="E15" s="41" t="s">
         <v>431</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="G15" s="42" t="s">
         <v>915</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="I15" s="40" t="s">
         <v>916</v>
       </c>
       <c r="J15" s="41" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="K15" s="41" t="s">
         <v>529</v>
       </c>
       <c r="L15" s="40" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="M15" s="40" t="s">
         <v>917</v>
       </c>
       <c r="N15" s="40" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="O15" s="40" t="s">
         <v>918</v>
       </c>
       <c r="P15" s="40" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="Q15" s="40" t="s">
         <v>919</v>
       </c>
       <c r="R15" s="41" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="S15" s="41" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="16" spans="1:19" hidden="1">
+    <row r="16" spans="1:19">
       <c r="A16" s="38">
         <v>45</v>
       </c>
       <c r="B16" s="38" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="38" t="s">
@@ -25072,12 +25074,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="17" spans="1:19" hidden="1">
+    <row r="17" spans="1:19">
       <c r="A17" s="38">
         <v>48</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="38" t="s">
@@ -25129,12 +25131,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="18" spans="1:19" hidden="1">
+    <row r="18" spans="1:19">
       <c r="A18" s="38">
         <v>51</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="38" t="s">
@@ -25186,12 +25188,12 @@
         <v>468</v>
       </c>
     </row>
-    <row r="19" spans="1:19" hidden="1">
+    <row r="19" spans="1:19">
       <c r="A19" s="38">
         <v>53</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="C19" s="38" t="s">
         <v>906</v>
@@ -25245,12 +25247,12 @@
         <v>469</v>
       </c>
     </row>
-    <row r="20" spans="1:19" hidden="1">
+    <row r="20" spans="1:19">
       <c r="A20" s="38">
         <v>55</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="38" t="s">
@@ -25307,53 +25309,53 @@
         <v>60</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="37" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E21" s="48" t="s">
         <v>429</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="G21" s="38" t="s">
         <v>558</v>
       </c>
       <c r="H21" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="I21" s="38" t="s">
         <v>543</v>
       </c>
       <c r="J21" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="K21" s="38" t="s">
         <v>527</v>
       </c>
       <c r="L21" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="M21" s="38" t="s">
         <v>512</v>
       </c>
       <c r="N21" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="O21" s="38" t="s">
         <v>497</v>
       </c>
       <c r="P21" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="Q21" s="38" t="s">
         <v>482</v>
       </c>
       <c r="R21" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="S21" s="38" t="s">
         <v>467</v>
@@ -25364,59 +25366,59 @@
         <v>62</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="C22" s="38"/>
       <c r="D22" s="37" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E22" s="37" t="s">
         <v>431</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="G22" s="36" t="s">
         <v>915</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="I22" s="37" t="s">
         <v>916</v>
       </c>
       <c r="J22" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="K22" s="37" t="s">
         <v>529</v>
       </c>
       <c r="L22" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="M22" s="37" t="s">
         <v>917</v>
       </c>
       <c r="N22" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="O22" s="37" t="s">
         <v>918</v>
       </c>
       <c r="P22" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="Q22" s="37" t="s">
         <v>919</v>
       </c>
       <c r="R22" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="S22" s="37" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="23" spans="1:19" hidden="1">
+    <row r="23" spans="1:19">
       <c r="A23" s="38">
         <v>66</v>
       </c>
@@ -25476,53 +25478,53 @@
         <v>70</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="C24" s="38"/>
       <c r="D24" s="37" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E24" s="48" t="s">
         <v>429</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="G24" s="38" t="s">
         <v>558</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="I24" s="38" t="s">
         <v>543</v>
       </c>
       <c r="J24" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="K24" s="38" t="s">
         <v>527</v>
       </c>
       <c r="L24" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="M24" s="38" t="s">
         <v>512</v>
       </c>
       <c r="N24" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="O24" s="38" t="s">
         <v>497</v>
       </c>
       <c r="P24" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="Q24" s="38" t="s">
         <v>482</v>
       </c>
       <c r="R24" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="S24" s="38" t="s">
         <v>467</v>
@@ -25533,64 +25535,64 @@
         <v>81</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="C25" s="38"/>
       <c r="D25" s="37" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E25" s="37" t="s">
         <v>431</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="G25" s="36" t="s">
         <v>915</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="I25" s="37" t="s">
         <v>916</v>
       </c>
       <c r="J25" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="K25" s="37" t="s">
         <v>529</v>
       </c>
       <c r="L25" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="M25" s="37" t="s">
         <v>917</v>
       </c>
       <c r="N25" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="O25" s="37" t="s">
         <v>918</v>
       </c>
       <c r="P25" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="Q25" s="37" t="s">
         <v>919</v>
       </c>
       <c r="R25" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="S25" s="37" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="26" spans="1:19" hidden="1">
+    <row r="26" spans="1:19">
       <c r="A26" s="38">
         <v>90</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="C26" s="38" t="s">
         <v>901</v>
@@ -25649,59 +25651,59 @@
         <v>94</v>
       </c>
       <c r="B27" s="38" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="C27" s="38"/>
       <c r="D27" s="37" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E27" s="37" t="s">
         <v>431</v>
       </c>
       <c r="F27" s="37" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="G27" s="36" t="s">
         <v>915</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="I27" s="37" t="s">
         <v>916</v>
       </c>
       <c r="J27" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="K27" s="37" t="s">
         <v>529</v>
       </c>
       <c r="L27" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="M27" s="37" t="s">
         <v>917</v>
       </c>
       <c r="N27" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="O27" s="37" t="s">
         <v>918</v>
       </c>
       <c r="P27" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="Q27" s="37" t="s">
         <v>919</v>
       </c>
       <c r="R27" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="S27" s="37" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="28" spans="1:19" hidden="1">
+    <row r="28" spans="1:19">
       <c r="A28" s="38">
         <v>102</v>
       </c>
@@ -25710,55 +25712,55 @@
       </c>
       <c r="C28" s="38"/>
       <c r="D28" s="37" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="E28" s="37" t="s">
         <v>431</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="G28" s="36" t="s">
         <v>915</v>
       </c>
       <c r="H28" s="37" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="I28" s="37" t="s">
         <v>916</v>
       </c>
       <c r="J28" s="37" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="K28" s="37" t="s">
         <v>529</v>
       </c>
       <c r="L28" s="37" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="M28" s="37" t="s">
         <v>917</v>
       </c>
       <c r="N28" s="37" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="O28" s="37" t="s">
         <v>918</v>
       </c>
       <c r="P28" s="37" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="Q28" s="37" t="s">
         <v>919</v>
       </c>
       <c r="R28" s="37" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="S28" s="37" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="29" spans="1:19" s="32" customFormat="1" hidden="1">
+    <row r="29" spans="1:19" s="32" customFormat="1">
       <c r="A29" s="38">
         <v>105</v>
       </c>
@@ -25767,55 +25769,55 @@
       </c>
       <c r="C29" s="38"/>
       <c r="D29" s="37" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="E29" s="37" t="s">
         <v>431</v>
       </c>
       <c r="F29" s="36" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="G29" s="36" t="s">
         <v>915</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="I29" s="37" t="s">
         <v>916</v>
       </c>
       <c r="J29" s="37" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="K29" s="37" t="s">
         <v>529</v>
       </c>
       <c r="L29" s="37" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="M29" s="37" t="s">
         <v>917</v>
       </c>
       <c r="N29" s="37" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="O29" s="37" t="s">
         <v>918</v>
       </c>
       <c r="P29" s="37" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="Q29" s="37" t="s">
         <v>919</v>
       </c>
       <c r="R29" s="37" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="S29" s="37" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="30" spans="1:19" hidden="1">
+    <row r="30" spans="1:19">
       <c r="A30" s="38">
         <v>106</v>
       </c>
@@ -25872,7 +25874,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="31" spans="1:19" hidden="1">
+    <row r="31" spans="1:19">
       <c r="A31" s="38">
         <v>108</v>
       </c>
@@ -25929,7 +25931,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="32" spans="1:19" hidden="1">
+    <row r="32" spans="1:19">
       <c r="A32" s="38">
         <v>110</v>
       </c>
@@ -25938,55 +25940,55 @@
       </c>
       <c r="C32" s="38"/>
       <c r="D32" s="37" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="E32" s="37" t="s">
         <v>431</v>
       </c>
       <c r="F32" s="36" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="G32" s="36" t="s">
         <v>915</v>
       </c>
       <c r="H32" s="37" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="I32" s="37" t="s">
         <v>916</v>
       </c>
       <c r="J32" s="37" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="K32" s="37" t="s">
         <v>529</v>
       </c>
       <c r="L32" s="37" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="M32" s="37" t="s">
         <v>917</v>
       </c>
       <c r="N32" s="37" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="O32" s="37" t="s">
         <v>918</v>
       </c>
       <c r="P32" s="37" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="Q32" s="37" t="s">
         <v>919</v>
       </c>
       <c r="R32" s="37" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="S32" s="37" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="33" spans="1:19" hidden="1">
+    <row r="33" spans="1:19">
       <c r="A33" s="38">
         <v>111</v>
       </c>
@@ -25995,55 +25997,55 @@
       </c>
       <c r="C33" s="38"/>
       <c r="D33" s="37" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="E33" s="37" t="s">
         <v>431</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="G33" s="36" t="s">
         <v>915</v>
       </c>
       <c r="H33" s="37" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="I33" s="37" t="s">
         <v>916</v>
       </c>
       <c r="J33" s="37" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="K33" s="37" t="s">
         <v>529</v>
       </c>
       <c r="L33" s="37" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="M33" s="37" t="s">
         <v>917</v>
       </c>
       <c r="N33" s="37" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="O33" s="37" t="s">
         <v>918</v>
       </c>
       <c r="P33" s="37" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="Q33" s="37" t="s">
         <v>919</v>
       </c>
       <c r="R33" s="37" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="S33" s="37" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="34" spans="1:19" hidden="1">
+    <row r="34" spans="1:19">
       <c r="A34" s="38">
         <v>117</v>
       </c>
@@ -26052,55 +26054,55 @@
       </c>
       <c r="C34" s="38"/>
       <c r="D34" s="37" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="E34" s="37" t="s">
         <v>431</v>
       </c>
       <c r="F34" s="36" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="G34" s="36" t="s">
         <v>915</v>
       </c>
       <c r="H34" s="37" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="I34" s="37" t="s">
         <v>916</v>
       </c>
       <c r="J34" s="37" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="K34" s="37" t="s">
         <v>529</v>
       </c>
       <c r="L34" s="37" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="M34" s="37" t="s">
         <v>917</v>
       </c>
       <c r="N34" s="37" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="O34" s="37" t="s">
         <v>918</v>
       </c>
       <c r="P34" s="37" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="Q34" s="37" t="s">
         <v>919</v>
       </c>
       <c r="R34" s="37" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="S34" s="37" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="35" spans="1:19" s="32" customFormat="1" hidden="1">
+    <row r="35" spans="1:19" s="32" customFormat="1">
       <c r="A35" s="38">
         <v>134</v>
       </c>
@@ -26166,55 +26168,55 @@
       </c>
       <c r="C36" s="38"/>
       <c r="D36" s="37" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E36" s="48" t="s">
         <v>429</v>
       </c>
       <c r="F36" s="37" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="G36" s="38" t="s">
         <v>558</v>
       </c>
       <c r="H36" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="I36" s="38" t="s">
         <v>543</v>
       </c>
       <c r="J36" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="K36" s="38" t="s">
         <v>527</v>
       </c>
       <c r="L36" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="M36" s="38" t="s">
         <v>512</v>
       </c>
       <c r="N36" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="O36" s="38" t="s">
         <v>497</v>
       </c>
       <c r="P36" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="Q36" s="38" t="s">
         <v>482</v>
       </c>
       <c r="R36" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="S36" s="38" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="37" spans="1:19" hidden="1">
+    <row r="37" spans="1:19">
       <c r="A37" s="38">
         <v>152</v>
       </c>
@@ -26273,7 +26275,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="38" spans="1:19" s="32" customFormat="1" hidden="1">
+    <row r="38" spans="1:19" s="32" customFormat="1">
       <c r="A38" s="38">
         <v>154</v>
       </c>
@@ -26282,163 +26284,163 @@
       </c>
       <c r="C38" s="38"/>
       <c r="D38" s="37" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="E38" s="37" t="s">
         <v>431</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="G38" s="36" t="s">
         <v>915</v>
       </c>
       <c r="H38" s="37" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="I38" s="37" t="s">
         <v>916</v>
       </c>
       <c r="J38" s="37" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="K38" s="37" t="s">
         <v>529</v>
       </c>
       <c r="L38" s="37" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="M38" s="37" t="s">
         <v>917</v>
       </c>
       <c r="N38" s="37" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="O38" s="37" t="s">
         <v>918</v>
       </c>
       <c r="P38" s="37" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="Q38" s="37" t="s">
         <v>919</v>
       </c>
       <c r="R38" s="37" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="S38" s="37" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="39" spans="1:19" hidden="1">
+    <row r="39" spans="1:19">
       <c r="A39" s="38">
         <v>155</v>
       </c>
-      <c r="B39" s="38" t="s">
-        <v>931</v>
+      <c r="B39" s="52" t="s">
+        <v>1208</v>
       </c>
       <c r="C39" s="38"/>
       <c r="D39" s="41" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="E39" s="41" t="s">
         <v>431</v>
       </c>
       <c r="F39" s="42" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="G39" s="42" t="s">
         <v>915</v>
       </c>
       <c r="H39" s="40" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="I39" s="40" t="s">
         <v>916</v>
       </c>
       <c r="J39" s="41" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="K39" s="41" t="s">
         <v>529</v>
       </c>
       <c r="L39" s="40" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="M39" s="40" t="s">
         <v>917</v>
       </c>
       <c r="N39" s="40" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="O39" s="40" t="s">
         <v>918</v>
       </c>
       <c r="P39" s="40" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="Q39" s="40" t="s">
         <v>919</v>
       </c>
       <c r="R39" s="41" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="S39" s="41" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="40" spans="1:19" hidden="1">
+    <row r="40" spans="1:19">
       <c r="A40" s="38">
         <v>158</v>
       </c>
       <c r="B40" s="38" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C40" s="38"/>
       <c r="D40" s="37" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="E40" s="37" t="s">
         <v>431</v>
       </c>
       <c r="F40" s="36" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="G40" s="36" t="s">
         <v>915</v>
       </c>
       <c r="H40" s="37" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="I40" s="37" t="s">
         <v>916</v>
       </c>
       <c r="J40" s="37" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="K40" s="37" t="s">
         <v>529</v>
       </c>
       <c r="L40" s="37" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="M40" s="37" t="s">
         <v>917</v>
       </c>
       <c r="N40" s="37" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="O40" s="37" t="s">
         <v>918</v>
       </c>
       <c r="P40" s="37" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="Q40" s="37" t="s">
         <v>919</v>
       </c>
       <c r="R40" s="37" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="S40" s="37" t="s">
         <v>469</v>
@@ -26449,53 +26451,53 @@
         <v>161</v>
       </c>
       <c r="B41" s="38" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C41" s="38"/>
       <c r="D41" s="37" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E41" s="37" t="s">
         <v>431</v>
       </c>
       <c r="F41" s="37" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="G41" s="36" t="s">
         <v>915</v>
       </c>
       <c r="H41" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="I41" s="37" t="s">
         <v>916</v>
       </c>
       <c r="J41" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="K41" s="37" t="s">
         <v>529</v>
       </c>
       <c r="L41" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="M41" s="37" t="s">
         <v>917</v>
       </c>
       <c r="N41" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="O41" s="37" t="s">
         <v>918</v>
       </c>
       <c r="P41" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="Q41" s="37" t="s">
         <v>919</v>
       </c>
       <c r="R41" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="S41" s="37" t="s">
         <v>469</v>
@@ -26506,53 +26508,53 @@
         <v>162</v>
       </c>
       <c r="B42" s="38" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C42" s="38"/>
       <c r="D42" s="37" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E42" s="37" t="s">
         <v>431</v>
       </c>
       <c r="F42" s="37" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="G42" s="36" t="s">
         <v>915</v>
       </c>
       <c r="H42" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="I42" s="37" t="s">
         <v>916</v>
       </c>
       <c r="J42" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="K42" s="37" t="s">
         <v>529</v>
       </c>
       <c r="L42" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="M42" s="37" t="s">
         <v>917</v>
       </c>
       <c r="N42" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="O42" s="37" t="s">
         <v>918</v>
       </c>
       <c r="P42" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="Q42" s="37" t="s">
         <v>919</v>
       </c>
       <c r="R42" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="S42" s="37" t="s">
         <v>469</v>
@@ -26563,64 +26565,64 @@
         <v>165</v>
       </c>
       <c r="B43" s="38" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C43" s="38"/>
       <c r="D43" s="37" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E43" s="37" t="s">
         <v>431</v>
       </c>
       <c r="F43" s="37" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="G43" s="36" t="s">
         <v>915</v>
       </c>
       <c r="H43" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="I43" s="37" t="s">
         <v>916</v>
       </c>
       <c r="J43" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="K43" s="37" t="s">
         <v>529</v>
       </c>
       <c r="L43" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="M43" s="37" t="s">
         <v>917</v>
       </c>
       <c r="N43" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="O43" s="37" t="s">
         <v>918</v>
       </c>
       <c r="P43" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="Q43" s="37" t="s">
         <v>919</v>
       </c>
       <c r="R43" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="S43" s="37" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="44" spans="1:19" hidden="1">
+    <row r="44" spans="1:19">
       <c r="A44" s="38">
         <v>167</v>
       </c>
       <c r="B44" s="38" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C44" s="38" t="s">
         <v>903</v>
@@ -26679,53 +26681,53 @@
         <v>169</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C45" s="38"/>
       <c r="D45" s="37" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E45" s="37" t="s">
         <v>431</v>
       </c>
       <c r="F45" s="37" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="G45" s="36" t="s">
         <v>915</v>
       </c>
       <c r="H45" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="I45" s="37" t="s">
         <v>916</v>
       </c>
       <c r="J45" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="K45" s="37" t="s">
         <v>529</v>
       </c>
       <c r="L45" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="M45" s="37" t="s">
         <v>917</v>
       </c>
       <c r="N45" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="O45" s="37" t="s">
         <v>918</v>
       </c>
       <c r="P45" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="Q45" s="37" t="s">
         <v>919</v>
       </c>
       <c r="R45" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="S45" s="37" t="s">
         <v>469</v>
@@ -26736,121 +26738,121 @@
         <v>177</v>
       </c>
       <c r="B46" s="38" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C46" s="38"/>
       <c r="D46" s="37" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E46" s="37" t="s">
         <v>431</v>
       </c>
       <c r="F46" s="37" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="G46" s="36" t="s">
         <v>915</v>
       </c>
       <c r="H46" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="I46" s="37" t="s">
         <v>916</v>
       </c>
       <c r="J46" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="K46" s="37" t="s">
         <v>529</v>
       </c>
       <c r="L46" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="M46" s="37" t="s">
         <v>917</v>
       </c>
       <c r="N46" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="O46" s="37" t="s">
         <v>918</v>
       </c>
       <c r="P46" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="Q46" s="37" t="s">
         <v>919</v>
       </c>
       <c r="R46" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="S46" s="37" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="47" spans="1:19" hidden="1">
+    <row r="47" spans="1:19">
       <c r="A47" s="38">
         <v>179</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C47" s="38"/>
       <c r="D47" s="37" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="E47" s="37" t="s">
         <v>431</v>
       </c>
       <c r="F47" s="36" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="G47" s="36" t="s">
         <v>915</v>
       </c>
       <c r="H47" s="37" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="I47" s="37" t="s">
         <v>916</v>
       </c>
       <c r="J47" s="37" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="K47" s="37" t="s">
         <v>529</v>
       </c>
       <c r="L47" s="37" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="M47" s="37" t="s">
         <v>917</v>
       </c>
       <c r="N47" s="37" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="O47" s="37" t="s">
         <v>918</v>
       </c>
       <c r="P47" s="37" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="Q47" s="37" t="s">
         <v>919</v>
       </c>
       <c r="R47" s="37" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="S47" s="37" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="48" spans="1:19" hidden="1">
+    <row r="48" spans="1:19">
       <c r="A48" s="38">
         <v>180</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C48" s="38" t="s">
         <v>904</v>
@@ -26904,12 +26906,12 @@
         <v>475</v>
       </c>
     </row>
-    <row r="49" spans="1:19" hidden="1">
+    <row r="49" spans="1:19">
       <c r="A49" s="38">
         <v>182</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C49" s="38"/>
       <c r="D49" s="39" t="s">
@@ -26965,236 +26967,236 @@
       <c r="A50" s="38">
         <v>204</v>
       </c>
-      <c r="B50" s="38" t="s">
-        <v>942</v>
+      <c r="B50" s="52" t="s">
+        <v>1205</v>
       </c>
       <c r="C50" s="38"/>
       <c r="D50" s="37" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E50" s="48" t="s">
         <v>429</v>
       </c>
       <c r="F50" s="37" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="G50" s="38" t="s">
         <v>558</v>
       </c>
       <c r="H50" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="I50" s="38" t="s">
         <v>543</v>
       </c>
       <c r="J50" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="K50" s="38" t="s">
         <v>527</v>
       </c>
       <c r="L50" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="M50" s="38" t="s">
         <v>512</v>
       </c>
       <c r="N50" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="O50" s="38" t="s">
         <v>497</v>
       </c>
       <c r="P50" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="Q50" s="38" t="s">
         <v>482</v>
       </c>
       <c r="R50" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="S50" s="38" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="51" spans="1:19" hidden="1">
+    <row r="51" spans="1:19">
       <c r="A51" s="38">
         <v>205</v>
       </c>
       <c r="B51" s="38" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C51" s="38"/>
       <c r="D51" s="37" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="E51" s="37" t="s">
         <v>431</v>
       </c>
       <c r="F51" s="36" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="G51" s="36" t="s">
         <v>915</v>
       </c>
       <c r="H51" s="37" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="I51" s="37" t="s">
         <v>916</v>
       </c>
       <c r="J51" s="37" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="K51" s="37" t="s">
         <v>529</v>
       </c>
       <c r="L51" s="37" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="M51" s="37" t="s">
         <v>917</v>
       </c>
       <c r="N51" s="37" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="O51" s="37" t="s">
         <v>918</v>
       </c>
       <c r="P51" s="37" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="Q51" s="37" t="s">
         <v>919</v>
       </c>
       <c r="R51" s="37" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="S51" s="37" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="52" spans="1:19" hidden="1">
+    <row r="52" spans="1:19">
       <c r="A52" s="38">
         <v>206</v>
       </c>
-      <c r="B52" s="38" t="s">
-        <v>944</v>
+      <c r="B52" s="52" t="s">
+        <v>1206</v>
       </c>
       <c r="C52" s="38"/>
       <c r="D52" s="37" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="E52" s="37" t="s">
         <v>431</v>
       </c>
       <c r="F52" s="36" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="G52" s="36" t="s">
         <v>915</v>
       </c>
       <c r="H52" s="37" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="I52" s="37" t="s">
         <v>916</v>
       </c>
       <c r="J52" s="37" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="K52" s="37" t="s">
         <v>529</v>
       </c>
       <c r="L52" s="37" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="M52" s="37" t="s">
         <v>917</v>
       </c>
       <c r="N52" s="37" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="O52" s="37" t="s">
         <v>918</v>
       </c>
       <c r="P52" s="37" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="Q52" s="37" t="s">
         <v>919</v>
       </c>
       <c r="R52" s="37" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="S52" s="37" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="53" spans="1:19" hidden="1">
+    <row r="53" spans="1:19">
       <c r="A53" s="38">
         <v>207</v>
       </c>
       <c r="B53" s="38" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C53" s="38"/>
       <c r="D53" s="41" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="E53" s="41" t="s">
         <v>431</v>
       </c>
       <c r="F53" s="42" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="G53" s="42" t="s">
         <v>915</v>
       </c>
       <c r="H53" s="40" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="I53" s="40" t="s">
         <v>916</v>
       </c>
       <c r="J53" s="41" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="K53" s="41" t="s">
         <v>529</v>
       </c>
       <c r="L53" s="40" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="M53" s="40" t="s">
         <v>917</v>
       </c>
       <c r="N53" s="40" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="O53" s="40" t="s">
         <v>918</v>
       </c>
       <c r="P53" s="40" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="Q53" s="40" t="s">
         <v>919</v>
       </c>
       <c r="R53" s="41" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="S53" s="41" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="54" spans="1:19" hidden="1">
+    <row r="54" spans="1:19">
       <c r="A54" s="38" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C54" s="38"/>
       <c r="D54" s="39" t="s">
@@ -27246,58 +27248,58 @@
         <v>469</v>
       </c>
     </row>
-    <row r="55" spans="1:19" hidden="1">
+    <row r="55" spans="1:19">
       <c r="A55" s="38">
         <v>212</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C55" s="38"/>
       <c r="D55" s="37" t="s">
-        <v>1016</v>
+        <v>1012</v>
       </c>
       <c r="E55" s="37" t="s">
         <v>431</v>
       </c>
       <c r="F55" s="36" t="s">
-        <v>1017</v>
+        <v>1013</v>
       </c>
       <c r="G55" s="36" t="s">
         <v>915</v>
       </c>
       <c r="H55" s="37" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="I55" s="37" t="s">
         <v>916</v>
       </c>
       <c r="J55" s="37" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="K55" s="37" t="s">
         <v>529</v>
       </c>
       <c r="L55" s="37" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="M55" s="37" t="s">
         <v>917</v>
       </c>
       <c r="N55" s="37" t="s">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="O55" s="37" t="s">
         <v>918</v>
       </c>
       <c r="P55" s="37" t="s">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="Q55" s="37" t="s">
         <v>919</v>
       </c>
       <c r="R55" s="37" t="s">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="S55" s="37" t="s">
         <v>469</v>
@@ -27308,64 +27310,64 @@
         <v>217</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C56" s="38"/>
       <c r="D56" s="37" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E56" s="37" t="s">
         <v>431</v>
       </c>
       <c r="F56" s="37" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="G56" s="36" t="s">
         <v>915</v>
       </c>
       <c r="H56" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="I56" s="37" t="s">
         <v>916</v>
       </c>
       <c r="J56" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="K56" s="37" t="s">
         <v>529</v>
       </c>
       <c r="L56" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="M56" s="37" t="s">
         <v>917</v>
       </c>
       <c r="N56" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="O56" s="37" t="s">
         <v>918</v>
       </c>
       <c r="P56" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="Q56" s="37" t="s">
         <v>919</v>
       </c>
       <c r="R56" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="S56" s="37" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="57" spans="1:19" hidden="1">
+    <row r="57" spans="1:19">
       <c r="A57" s="38">
         <v>224</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C57" s="38"/>
       <c r="D57" s="39" t="s">
@@ -27422,116 +27424,116 @@
         <v>230</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C58" s="38"/>
       <c r="D58" s="37" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E58" s="37" t="s">
         <v>431</v>
       </c>
       <c r="F58" s="37" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="G58" s="36" t="s">
         <v>915</v>
       </c>
       <c r="H58" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="I58" s="37" t="s">
         <v>916</v>
       </c>
       <c r="J58" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="K58" s="37" t="s">
         <v>529</v>
       </c>
       <c r="L58" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="M58" s="37" t="s">
         <v>917</v>
       </c>
       <c r="N58" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="O58" s="37" t="s">
         <v>918</v>
       </c>
       <c r="P58" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="Q58" s="37" t="s">
         <v>919</v>
       </c>
       <c r="R58" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="S58" s="37" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="59" spans="1:19" hidden="1">
+    <row r="59" spans="1:19">
       <c r="A59" s="38">
         <v>232</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C59" s="38"/>
       <c r="D59" s="37" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="E59" s="37" t="s">
         <v>431</v>
       </c>
       <c r="F59" s="36" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="G59" s="36" t="s">
         <v>915</v>
       </c>
       <c r="H59" s="37" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="I59" s="37" t="s">
         <v>916</v>
       </c>
       <c r="J59" s="37" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="K59" s="37" t="s">
         <v>529</v>
       </c>
       <c r="L59" s="37" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="M59" s="37" t="s">
         <v>917</v>
       </c>
       <c r="N59" s="37" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="O59" s="37" t="s">
         <v>918</v>
       </c>
       <c r="P59" s="37" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="Q59" s="37" t="s">
         <v>919</v>
       </c>
       <c r="R59" s="37" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="S59" s="37" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="60" spans="1:19" hidden="1">
+    <row r="60" spans="1:19">
       <c r="A60" s="38">
         <v>233</v>
       </c>
@@ -27588,67 +27590,67 @@
     </row>
     <row r="61" spans="1:19">
       <c r="A61" s="38" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C61" s="38"/>
       <c r="D61" s="37" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E61" s="37" t="s">
         <v>431</v>
       </c>
       <c r="F61" s="37" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="G61" s="36" t="s">
         <v>915</v>
       </c>
       <c r="H61" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="I61" s="37" t="s">
         <v>916</v>
       </c>
       <c r="J61" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="K61" s="37" t="s">
         <v>529</v>
       </c>
       <c r="L61" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="M61" s="37" t="s">
         <v>917</v>
       </c>
       <c r="N61" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="O61" s="37" t="s">
         <v>918</v>
       </c>
       <c r="P61" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="Q61" s="37" t="s">
         <v>919</v>
       </c>
       <c r="R61" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="S61" s="37" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="62" spans="1:19" hidden="1">
+    <row r="62" spans="1:19">
       <c r="A62" s="38">
         <v>237</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C62" s="38"/>
       <c r="D62" s="39" t="s">
@@ -27700,12 +27702,12 @@
         <v>469</v>
       </c>
     </row>
-    <row r="63" spans="1:19" hidden="1">
+    <row r="63" spans="1:19">
       <c r="A63" s="38">
         <v>240</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C63" s="38"/>
       <c r="D63" s="38" t="s">
@@ -27757,58 +27759,58 @@
         <v>477</v>
       </c>
     </row>
-    <row r="64" spans="1:19" hidden="1">
+    <row r="64" spans="1:19">
       <c r="A64" s="38" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="B64" s="38" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="C64" s="38"/>
       <c r="D64" s="37" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="E64" s="37" t="s">
         <v>431</v>
       </c>
       <c r="F64" s="36" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="G64" s="36" t="s">
         <v>915</v>
       </c>
       <c r="H64" s="37" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="I64" s="37" t="s">
         <v>916</v>
       </c>
       <c r="J64" s="37" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="K64" s="37" t="s">
         <v>529</v>
       </c>
       <c r="L64" s="37" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="M64" s="37" t="s">
         <v>917</v>
       </c>
       <c r="N64" s="37" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="O64" s="37" t="s">
         <v>918</v>
       </c>
       <c r="P64" s="37" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="Q64" s="37" t="s">
         <v>919</v>
       </c>
       <c r="R64" s="37" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="S64" s="37" t="s">
         <v>469</v>
@@ -27819,121 +27821,121 @@
         <v>244</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C65" s="38"/>
       <c r="D65" s="37" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E65" s="37" t="s">
         <v>431</v>
       </c>
       <c r="F65" s="37" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="G65" s="36" t="s">
         <v>915</v>
       </c>
       <c r="H65" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="I65" s="37" t="s">
         <v>916</v>
       </c>
       <c r="J65" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="K65" s="37" t="s">
         <v>529</v>
       </c>
       <c r="L65" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="M65" s="37" t="s">
         <v>917</v>
       </c>
       <c r="N65" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="O65" s="37" t="s">
         <v>918</v>
       </c>
       <c r="P65" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="Q65" s="37" t="s">
         <v>919</v>
       </c>
       <c r="R65" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="S65" s="37" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="66" spans="1:19" hidden="1">
+    <row r="66" spans="1:19">
       <c r="A66" s="38">
         <v>246</v>
       </c>
       <c r="B66" s="38" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C66" s="38"/>
       <c r="D66" s="37" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="E66" s="37" t="s">
         <v>431</v>
       </c>
       <c r="F66" s="36" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="G66" s="36" t="s">
         <v>915</v>
       </c>
       <c r="H66" s="37" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="I66" s="37" t="s">
         <v>916</v>
       </c>
       <c r="J66" s="37" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="K66" s="37" t="s">
         <v>529</v>
       </c>
       <c r="L66" s="37" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="M66" s="37" t="s">
         <v>917</v>
       </c>
       <c r="N66" s="37" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="O66" s="37" t="s">
         <v>918</v>
       </c>
       <c r="P66" s="37" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="Q66" s="37" t="s">
         <v>919</v>
       </c>
       <c r="R66" s="37" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="S66" s="37" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="67" spans="1:19" hidden="1">
+    <row r="67" spans="1:19">
       <c r="A67" s="38">
         <v>251</v>
       </c>
       <c r="B67" s="38" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C67" s="38"/>
       <c r="D67" s="38" t="s">
@@ -27990,53 +27992,53 @@
         <v>260</v>
       </c>
       <c r="B68" s="38" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C68" s="38"/>
       <c r="D68" s="37" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E68" s="37" t="s">
         <v>431</v>
       </c>
       <c r="F68" s="37" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="G68" s="36" t="s">
         <v>915</v>
       </c>
       <c r="H68" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="I68" s="37" t="s">
         <v>916</v>
       </c>
       <c r="J68" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="K68" s="37" t="s">
         <v>529</v>
       </c>
       <c r="L68" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="M68" s="37" t="s">
         <v>917</v>
       </c>
       <c r="N68" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="O68" s="37" t="s">
         <v>918</v>
       </c>
       <c r="P68" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="Q68" s="37" t="s">
         <v>919</v>
       </c>
       <c r="R68" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="S68" s="37" t="s">
         <v>469</v>
@@ -28046,65 +28048,65 @@
       <c r="A69" s="38">
         <v>265</v>
       </c>
-      <c r="B69" s="38" t="s">
-        <v>960</v>
+      <c r="B69" s="52" t="s">
+        <v>1207</v>
       </c>
       <c r="C69" s="38"/>
       <c r="D69" s="37" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E69" s="48" t="s">
         <v>429</v>
       </c>
       <c r="F69" s="37" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="G69" s="38" t="s">
         <v>558</v>
       </c>
       <c r="H69" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="I69" s="38" t="s">
         <v>543</v>
       </c>
       <c r="J69" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="K69" s="38" t="s">
         <v>527</v>
       </c>
       <c r="L69" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="M69" s="38" t="s">
         <v>512</v>
       </c>
       <c r="N69" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="O69" s="38" t="s">
         <v>497</v>
       </c>
       <c r="P69" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="Q69" s="38" t="s">
         <v>482</v>
       </c>
       <c r="R69" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="S69" s="38" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="70" spans="1:19" hidden="1">
+    <row r="70" spans="1:19">
       <c r="A70" s="38">
         <v>267</v>
       </c>
       <c r="B70" s="38" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="C70" s="38"/>
       <c r="D70" s="39" t="s">
@@ -28161,64 +28163,64 @@
         <v>344</v>
       </c>
       <c r="B71" s="38" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C71" s="38"/>
       <c r="D71" s="37" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E71" s="37" t="s">
         <v>431</v>
       </c>
       <c r="F71" s="37" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="G71" s="36" t="s">
         <v>915</v>
       </c>
       <c r="H71" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="I71" s="37" t="s">
         <v>916</v>
       </c>
       <c r="J71" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="K71" s="37" t="s">
         <v>529</v>
       </c>
       <c r="L71" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="M71" s="37" t="s">
         <v>917</v>
       </c>
       <c r="N71" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="O71" s="37" t="s">
         <v>918</v>
       </c>
       <c r="P71" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="Q71" s="37" t="s">
         <v>919</v>
       </c>
       <c r="R71" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="S71" s="37" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="72" spans="1:19" hidden="1">
+    <row r="72" spans="1:19">
       <c r="A72" s="38">
         <v>460</v>
       </c>
       <c r="B72" s="38" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="C72" s="38"/>
       <c r="D72" s="38" t="s">
@@ -28270,12 +28272,12 @@
         <v>466</v>
       </c>
     </row>
-    <row r="73" spans="1:19" hidden="1">
+    <row r="73" spans="1:19">
       <c r="A73" s="38" t="s">
         <v>418</v>
       </c>
       <c r="B73" s="38" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="C73" s="38"/>
       <c r="D73" s="38" t="s">
@@ -28332,53 +28334,53 @@
         <v>501</v>
       </c>
       <c r="B74" s="38" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="C74" s="38"/>
       <c r="D74" s="37" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E74" s="37" t="s">
         <v>431</v>
       </c>
       <c r="F74" s="37" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="G74" s="36" t="s">
         <v>915</v>
       </c>
       <c r="H74" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="I74" s="37" t="s">
         <v>916</v>
       </c>
       <c r="J74" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="K74" s="37" t="s">
         <v>529</v>
       </c>
       <c r="L74" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="M74" s="37" t="s">
         <v>917</v>
       </c>
       <c r="N74" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="O74" s="37" t="s">
         <v>918</v>
       </c>
       <c r="P74" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="Q74" s="37" t="s">
         <v>919</v>
       </c>
       <c r="R74" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="S74" s="37" t="s">
         <v>469</v>
@@ -28389,64 +28391,64 @@
         <v>550</v>
       </c>
       <c r="B75" s="38" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="C75" s="38"/>
       <c r="D75" s="37" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E75" s="37" t="s">
         <v>431</v>
       </c>
       <c r="F75" s="37" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="G75" s="36" t="s">
         <v>915</v>
       </c>
       <c r="H75" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="I75" s="37" t="s">
         <v>916</v>
       </c>
       <c r="J75" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="K75" s="37" t="s">
         <v>529</v>
       </c>
       <c r="L75" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="M75" s="37" t="s">
         <v>917</v>
       </c>
       <c r="N75" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="O75" s="37" t="s">
         <v>918</v>
       </c>
       <c r="P75" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="Q75" s="37" t="s">
         <v>919</v>
       </c>
       <c r="R75" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="S75" s="37" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="76" spans="1:19" hidden="1">
+    <row r="76" spans="1:19">
       <c r="A76" s="38">
         <v>602</v>
       </c>
       <c r="B76" s="38" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="C76" s="38"/>
       <c r="D76" s="38" t="s">
@@ -28503,110 +28505,110 @@
         <v>603</v>
       </c>
       <c r="B77" s="38" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="C77" s="38"/>
       <c r="D77" s="37" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E77" s="37" t="s">
         <v>431</v>
       </c>
       <c r="F77" s="37" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="G77" s="36" t="s">
         <v>915</v>
       </c>
       <c r="H77" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="I77" s="37" t="s">
         <v>916</v>
       </c>
       <c r="J77" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="K77" s="37" t="s">
         <v>529</v>
       </c>
       <c r="L77" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="M77" s="37" t="s">
         <v>917</v>
       </c>
       <c r="N77" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="O77" s="37" t="s">
         <v>918</v>
       </c>
       <c r="P77" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="Q77" s="37" t="s">
         <v>919</v>
       </c>
       <c r="R77" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="S77" s="37" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="78" spans="1:19" hidden="1">
+    <row r="78" spans="1:19">
       <c r="A78" s="38">
         <v>617</v>
       </c>
       <c r="B78" s="38" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="C78" s="38"/>
       <c r="D78" s="37" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="E78" s="37" t="s">
         <v>431</v>
       </c>
       <c r="F78" s="36" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="G78" s="36" t="s">
         <v>915</v>
       </c>
       <c r="H78" s="37" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="I78" s="37" t="s">
         <v>916</v>
       </c>
       <c r="J78" s="37" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="K78" s="37" t="s">
         <v>529</v>
       </c>
       <c r="L78" s="37" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="M78" s="37" t="s">
         <v>917</v>
       </c>
       <c r="N78" s="37" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="O78" s="37" t="s">
         <v>918</v>
       </c>
       <c r="P78" s="37" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="Q78" s="37" t="s">
         <v>919</v>
       </c>
       <c r="R78" s="37" t="s">
-        <v>1015</v>
+        <v>1011</v>
       </c>
       <c r="S78" s="37" t="s">
         <v>469</v>
@@ -28617,53 +28619,53 @@
         <v>662</v>
       </c>
       <c r="B79" s="38" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="C79" s="38"/>
       <c r="D79" s="37" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E79" s="37" t="s">
         <v>431</v>
       </c>
       <c r="F79" s="37" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="G79" s="36" t="s">
         <v>915</v>
       </c>
       <c r="H79" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="I79" s="37" t="s">
         <v>916</v>
       </c>
       <c r="J79" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="K79" s="37" t="s">
         <v>529</v>
       </c>
       <c r="L79" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="M79" s="37" t="s">
         <v>917</v>
       </c>
       <c r="N79" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="O79" s="37" t="s">
         <v>918</v>
       </c>
       <c r="P79" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="Q79" s="37" t="s">
         <v>919</v>
       </c>
       <c r="R79" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="S79" s="37" t="s">
         <v>469</v>
@@ -28674,53 +28676,53 @@
         <v>720</v>
       </c>
       <c r="B80" s="38" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="C80" s="38"/>
       <c r="D80" s="37" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E80" s="37" t="s">
         <v>431</v>
       </c>
       <c r="F80" s="37" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="G80" s="36" t="s">
         <v>915</v>
       </c>
       <c r="H80" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="I80" s="37" t="s">
         <v>916</v>
       </c>
       <c r="J80" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="K80" s="37" t="s">
         <v>529</v>
       </c>
       <c r="L80" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="M80" s="37" t="s">
         <v>917</v>
       </c>
       <c r="N80" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="O80" s="37" t="s">
         <v>918</v>
       </c>
       <c r="P80" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="Q80" s="37" t="s">
         <v>919</v>
       </c>
       <c r="R80" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="S80" s="37" t="s">
         <v>469</v>
@@ -28731,64 +28733,64 @@
         <v>754</v>
       </c>
       <c r="B81" s="38" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C81" s="38"/>
       <c r="D81" s="37" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="E81" s="48" t="s">
         <v>429</v>
       </c>
       <c r="F81" s="37" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="G81" s="38" t="s">
         <v>558</v>
       </c>
       <c r="H81" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="I81" s="38" t="s">
         <v>543</v>
       </c>
       <c r="J81" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="K81" s="38" t="s">
         <v>527</v>
       </c>
       <c r="L81" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="M81" s="38" t="s">
         <v>512</v>
       </c>
       <c r="N81" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="O81" s="38" t="s">
         <v>497</v>
       </c>
       <c r="P81" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="Q81" s="38" t="s">
         <v>482</v>
       </c>
       <c r="R81" s="37" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="S81" s="38" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="82" spans="1:19" hidden="1">
+    <row r="82" spans="1:19">
       <c r="A82" s="38">
         <v>761</v>
       </c>
       <c r="B82" s="38" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="C82" s="38"/>
       <c r="D82" s="38" t="s">
@@ -28840,161 +28842,161 @@
         <v>476</v>
       </c>
     </row>
-    <row r="83" spans="1:19" ht="15.75" hidden="1">
+    <row r="83" spans="1:19" ht="15.75">
       <c r="A83" s="38">
         <v>801</v>
       </c>
       <c r="B83" s="38" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="C83" s="38"/>
       <c r="D83" s="37" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="F83" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="H83" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="J83" s="44" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="L83" s="45" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="M83" s="37"/>
       <c r="N83" s="46" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="O83" s="37"/>
       <c r="P83" s="47" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="Q83" s="37"/>
       <c r="R83" s="47" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="S83" s="37"/>
     </row>
-    <row r="84" spans="1:19" ht="15.75" hidden="1">
+    <row r="84" spans="1:19" ht="15.75">
       <c r="A84" s="38">
         <v>803</v>
       </c>
       <c r="B84" s="38" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="C84" s="38"/>
       <c r="D84" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="F84" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="H84" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="J84" s="44" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="L84" s="45" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="M84" s="37"/>
       <c r="N84" s="46" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="O84" s="37"/>
       <c r="P84" s="47" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="Q84" s="37"/>
       <c r="R84" s="47" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="S84" s="37"/>
     </row>
-    <row r="85" spans="1:19" ht="15.75" hidden="1">
+    <row r="85" spans="1:19" ht="15.75">
       <c r="A85" s="38">
         <v>804</v>
       </c>
       <c r="B85" s="38" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="C85" s="38"/>
       <c r="D85" s="37" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="E85" s="37"/>
       <c r="F85" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="H85" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="J85" s="44" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="L85" s="45" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="M85" s="37"/>
       <c r="N85" s="46" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="O85" s="37"/>
       <c r="P85" s="47" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="Q85" s="37"/>
       <c r="R85" s="47" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="S85" s="37"/>
     </row>
-    <row r="86" spans="1:19" ht="18" hidden="1">
+    <row r="86" spans="1:19" ht="18">
       <c r="A86" s="38">
         <v>807</v>
       </c>
       <c r="B86" s="38" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="C86" s="38"/>
       <c r="D86" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F86" t="s">
+        <v>1114</v>
+      </c>
+      <c r="H86" s="43" t="s">
+        <v>1115</v>
+      </c>
+      <c r="J86" s="44" t="s">
         <v>1116</v>
       </c>
-      <c r="F86" t="s">
-        <v>1118</v>
-      </c>
-      <c r="H86" s="43" t="s">
-        <v>1119</v>
-      </c>
-      <c r="J86" s="44" t="s">
-        <v>1120</v>
-      </c>
       <c r="L86" s="45" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="M86" s="37"/>
       <c r="N86" s="46" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="O86" s="37"/>
       <c r="P86" s="47" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="Q86" s="37"/>
       <c r="R86" s="47" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="S86" s="37"/>
     </row>
-    <row r="87" spans="1:19" hidden="1">
+    <row r="87" spans="1:19">
       <c r="A87" s="38">
         <v>857</v>
       </c>
       <c r="B87" s="38" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="C87" s="38"/>
       <c r="D87" s="38" t="s">
@@ -29046,12 +29048,12 @@
         <v>480</v>
       </c>
     </row>
-    <row r="88" spans="1:19" hidden="1">
+    <row r="88" spans="1:19">
       <c r="A88" s="38">
         <v>910</v>
       </c>
       <c r="B88" s="38" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="C88" s="38"/>
       <c r="D88" s="38" t="s">
@@ -29122,13 +29124,7 @@
       <c r="S89" s="37"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S88" xr:uid="{B3379E4E-7E82-4114-9EA0-C7AA1E3C9292}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Minor timing changes, please check schedule."/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:S88" xr:uid="{B3379E4E-7E82-4114-9EA0-C7AA1E3C9292}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -29137,8 +29133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EDB8601-B683-4507-99BB-68B345476395}">
   <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A61" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -29164,7 +29160,7 @@
         <v>741</v>
       </c>
       <c r="E1" s="51" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -29172,16 +29168,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="C2" s="34">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -29189,7 +29185,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="C3" s="34">
         <v>4</v>
@@ -29198,7 +29194,7 @@
         <v>744</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -29206,7 +29202,7 @@
         <v>10</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="C4" s="34">
         <v>10</v>
@@ -29215,7 +29211,7 @@
         <v>747</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -29223,7 +29219,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="C5" s="34">
         <v>14</v>
@@ -29232,7 +29228,7 @@
         <v>742</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -29240,16 +29236,16 @@
         <v>16</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="C6" s="34">
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -29257,16 +29253,16 @@
         <v>18</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="C7" s="34">
         <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -29274,16 +29270,16 @@
         <v>20</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="C8" s="34">
         <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -29291,7 +29287,7 @@
         <v>28</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="C9" s="34">
         <v>28</v>
@@ -29300,7 +29296,7 @@
         <v>743</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>1140</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -29308,16 +29304,16 @@
         <v>30</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="C10" s="34">
         <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>1141</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -29325,7 +29321,7 @@
         <v>33</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="C11" s="34">
         <v>33</v>
@@ -29334,7 +29330,7 @@
         <v>744</v>
       </c>
       <c r="E11" s="50" t="s">
-        <v>1142</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -29342,16 +29338,16 @@
         <v>35</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="C12" s="34">
         <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>1031</v>
+        <v>1027</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>1143</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -29359,16 +29355,16 @@
         <v>37</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="C13" s="34">
         <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>1032</v>
+        <v>1028</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>1144</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -29376,7 +29372,7 @@
         <v>38</v>
       </c>
       <c r="B14" s="34" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="C14" s="34">
         <v>38</v>
@@ -29385,7 +29381,7 @@
         <v>745</v>
       </c>
       <c r="E14" s="50" t="s">
-        <v>1145</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -29393,16 +29389,16 @@
         <v>40</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="C15" s="34">
         <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>1033</v>
+        <v>1029</v>
       </c>
       <c r="E15" s="50" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -29410,7 +29406,7 @@
         <v>45</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="C16" s="34">
         <v>45</v>
@@ -29419,7 +29415,7 @@
         <v>746</v>
       </c>
       <c r="E16" s="50" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -29427,7 +29423,7 @@
         <v>48</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="C17" s="34">
         <v>48</v>
@@ -29436,7 +29432,7 @@
         <v>747</v>
       </c>
       <c r="E17" s="50" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -29444,7 +29440,7 @@
         <v>51</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="C18" s="34">
         <v>51</v>
@@ -29453,7 +29449,7 @@
         <v>748</v>
       </c>
       <c r="E18" s="50" t="s">
-        <v>1148</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -29461,7 +29457,7 @@
         <v>53</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="C19" s="34">
         <v>53</v>
@@ -29470,7 +29466,7 @@
         <v>749</v>
       </c>
       <c r="E19" s="50" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -29478,16 +29474,16 @@
         <v>55</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="C20" s="34">
         <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="E20" s="50" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -29495,16 +29491,16 @@
         <v>60</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="C21" s="34">
         <v>60</v>
       </c>
       <c r="D21" t="s">
-        <v>1034</v>
+        <v>1030</v>
       </c>
       <c r="E21" s="50" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -29512,16 +29508,16 @@
         <v>62</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="C22" s="34">
         <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>1035</v>
+        <v>1031</v>
       </c>
       <c r="E22" s="50" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -29535,7 +29531,7 @@
         <v>750</v>
       </c>
       <c r="E23" s="50" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -29543,16 +29539,16 @@
         <v>70</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="C24" s="34">
         <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="E24" s="50" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -29560,16 +29556,16 @@
         <v>81</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="C25" s="34">
         <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="E25" s="50" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -29577,7 +29573,7 @@
         <v>90</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="C26" s="34">
         <v>90</v>
@@ -29586,7 +29582,7 @@
         <v>751</v>
       </c>
       <c r="E26" s="50" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -29594,7 +29590,7 @@
         <v>94</v>
       </c>
       <c r="B27" s="34" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="C27" s="34">
         <v>94</v>
@@ -29603,7 +29599,7 @@
         <v>751</v>
       </c>
       <c r="E27" s="50" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -29617,10 +29613,10 @@
         <v>102</v>
       </c>
       <c r="D28" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="E28" s="50" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -29634,10 +29630,10 @@
         <v>105</v>
       </c>
       <c r="D29" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="E29" s="50" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -29651,10 +29647,10 @@
         <v>106</v>
       </c>
       <c r="D30" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="E30" s="50" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -29671,7 +29667,7 @@
         <v>752</v>
       </c>
       <c r="E31" s="50" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -29685,10 +29681,10 @@
         <v>110</v>
       </c>
       <c r="D32" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="E32" s="50" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -29702,10 +29698,10 @@
         <v>111</v>
       </c>
       <c r="D33" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="E33" s="50" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -29719,10 +29715,10 @@
         <v>117</v>
       </c>
       <c r="D34" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="E34" s="50" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -29736,10 +29732,10 @@
         <v>134</v>
       </c>
       <c r="D35" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="E35" s="50" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -29753,10 +29749,10 @@
         <v>150</v>
       </c>
       <c r="D36" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="E36" s="50" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -29773,7 +29769,7 @@
         <v>753</v>
       </c>
       <c r="E37" s="50" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -29787,10 +29783,10 @@
         <v>154</v>
       </c>
       <c r="D38" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="E38" s="50" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -29798,16 +29794,16 @@
         <v>155</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>931</v>
+        <v>1208</v>
       </c>
       <c r="C39" s="34">
         <v>155</v>
       </c>
       <c r="D39" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="E39" s="50" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -29815,16 +29811,16 @@
         <v>158</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C40" s="34">
         <v>158</v>
       </c>
       <c r="D40" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="E40" s="50" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -29832,16 +29828,16 @@
         <v>161</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C41" s="34">
         <v>161</v>
       </c>
       <c r="D41" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="E41" s="50" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -29849,16 +29845,16 @@
         <v>162</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C42" s="34">
         <v>162</v>
       </c>
       <c r="D42" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="E42" s="50" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -29866,16 +29862,16 @@
         <v>165</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C43" s="34">
         <v>165</v>
       </c>
       <c r="D43" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="E43" s="50" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -29883,7 +29879,7 @@
         <v>167</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C44" s="34">
         <v>167</v>
@@ -29892,7 +29888,7 @@
         <v>754</v>
       </c>
       <c r="E44" s="50" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -29900,16 +29896,16 @@
         <v>169</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C45" s="34">
         <v>169</v>
       </c>
       <c r="D45" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="E45" s="50" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -29917,16 +29913,16 @@
         <v>177</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C46" s="34">
         <v>177</v>
       </c>
       <c r="D46" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="E46" s="50" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -29934,16 +29930,16 @@
         <v>179</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C47" s="34">
         <v>179</v>
       </c>
       <c r="D47" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="E47" s="50" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -29951,7 +29947,7 @@
         <v>180</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C48" s="34">
         <v>180</v>
@@ -29960,7 +29956,7 @@
         <v>755</v>
       </c>
       <c r="E48" s="50" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -29968,16 +29964,16 @@
         <v>182</v>
       </c>
       <c r="B49" s="34" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C49" s="34">
         <v>182</v>
       </c>
       <c r="D49" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="E49" s="50" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -29985,16 +29981,16 @@
         <v>204</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>942</v>
+        <v>1205</v>
       </c>
       <c r="C50" s="34">
         <v>204</v>
       </c>
       <c r="D50" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="E50" s="50" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -30002,16 +29998,16 @@
         <v>205</v>
       </c>
       <c r="B51" s="34" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="C51" s="34">
         <v>205</v>
       </c>
       <c r="D51" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="E51" s="50" t="s">
-        <v>1178</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -30019,16 +30015,16 @@
         <v>206</v>
       </c>
       <c r="B52" s="34" t="s">
-        <v>944</v>
+        <v>1206</v>
       </c>
       <c r="C52" s="34">
         <v>206</v>
       </c>
       <c r="D52" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="E52" s="50" t="s">
-        <v>1179</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -30036,33 +30032,33 @@
         <v>207</v>
       </c>
       <c r="B53" s="34" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="C53" s="34">
         <v>207</v>
       </c>
       <c r="D53" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="E53" s="50" t="s">
-        <v>1180</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="34" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="B54" s="34" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="C54" s="34" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="D54" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="E54" s="50" t="s">
-        <v>1181</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -30070,16 +30066,16 @@
         <v>212</v>
       </c>
       <c r="B55" s="34" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="C55" s="34">
         <v>212</v>
       </c>
       <c r="D55" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="E55" s="50" t="s">
-        <v>1182</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -30087,16 +30083,16 @@
         <v>217</v>
       </c>
       <c r="B56" s="34" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="C56" s="34">
         <v>217</v>
       </c>
       <c r="D56" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="E56" s="50" t="s">
-        <v>1183</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -30104,16 +30100,16 @@
         <v>224</v>
       </c>
       <c r="B57" s="34" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="C57" s="34">
         <v>224</v>
       </c>
       <c r="D57" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="E57" s="50" t="s">
-        <v>1184</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -30121,16 +30117,16 @@
         <v>230</v>
       </c>
       <c r="B58" s="34" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="C58" s="34">
         <v>230</v>
       </c>
       <c r="D58" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="E58" s="50" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -30138,16 +30134,16 @@
         <v>232</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="C59" s="34">
         <v>232</v>
       </c>
       <c r="D59" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="E59" s="50" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -30161,24 +30157,24 @@
         <v>756</v>
       </c>
       <c r="E60" s="50" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="34" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="B61" s="34" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="C61" s="34" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="D61" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="E61" s="50" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -30186,16 +30182,16 @@
         <v>237</v>
       </c>
       <c r="B62" s="34" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="C62" s="34">
         <v>237</v>
       </c>
       <c r="D62" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="E62" s="50" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -30203,7 +30199,7 @@
         <v>240</v>
       </c>
       <c r="B63" s="34" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="C63" s="34">
         <v>240</v>
@@ -30212,24 +30208,24 @@
         <v>758</v>
       </c>
       <c r="E63" s="50" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="34" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="B64" s="34" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="C64" s="34" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="D64" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="E64" s="51" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -30237,16 +30233,16 @@
         <v>244</v>
       </c>
       <c r="B65" s="34" t="s">
-        <v>956</v>
+        <v>953</v>
       </c>
       <c r="C65" s="34">
         <v>244</v>
       </c>
       <c r="D65" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="E65" s="50" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -30254,16 +30250,16 @@
         <v>246</v>
       </c>
       <c r="B66" s="34" t="s">
-        <v>957</v>
+        <v>954</v>
       </c>
       <c r="C66" s="34">
         <v>246</v>
       </c>
       <c r="D66" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="E66" s="50" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -30271,7 +30267,7 @@
         <v>251</v>
       </c>
       <c r="B67" s="34" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C67" s="34">
         <v>251</v>
@@ -30280,7 +30276,7 @@
         <v>759</v>
       </c>
       <c r="E67" s="50" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -30288,16 +30284,16 @@
         <v>260</v>
       </c>
       <c r="B68" s="34" t="s">
-        <v>959</v>
+        <v>956</v>
       </c>
       <c r="C68" s="34">
         <v>260</v>
       </c>
       <c r="D68" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="E68" s="50" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -30305,16 +30301,16 @@
         <v>265</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>960</v>
+        <v>1207</v>
       </c>
       <c r="C69" s="34">
         <v>265</v>
       </c>
       <c r="D69" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="E69" s="50" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -30322,16 +30318,16 @@
         <v>267</v>
       </c>
       <c r="B70" s="34" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="C70" s="34">
         <v>267</v>
       </c>
       <c r="D70" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="E70" s="50" t="s">
-        <v>1197</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -30339,16 +30335,16 @@
         <v>344</v>
       </c>
       <c r="B71" s="34" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C71" s="34">
         <v>344</v>
       </c>
       <c r="D71" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="E71" s="50" t="s">
-        <v>1198</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -30356,7 +30352,7 @@
         <v>460</v>
       </c>
       <c r="B72" s="34" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="C72" s="34">
         <v>460</v>
@@ -30365,7 +30361,7 @@
         <v>760</v>
       </c>
       <c r="E72" s="50" t="s">
-        <v>1199</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -30373,7 +30369,7 @@
         <v>418</v>
       </c>
       <c r="B73" s="34" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="C73" s="34" t="s">
         <v>418</v>
@@ -30387,16 +30383,16 @@
         <v>501</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="C74" s="34">
         <v>501</v>
       </c>
       <c r="D74" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="E74" s="50" t="s">
-        <v>1200</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -30404,16 +30400,16 @@
         <v>550</v>
       </c>
       <c r="B75" s="34" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="C75" s="34">
         <v>550</v>
       </c>
       <c r="D75" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="E75" s="50" t="s">
-        <v>1201</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -30421,7 +30417,7 @@
         <v>602</v>
       </c>
       <c r="B76" s="34" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="C76" s="34">
         <v>602</v>
@@ -30430,7 +30426,7 @@
         <v>762</v>
       </c>
       <c r="E76" s="50" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -30438,16 +30434,16 @@
         <v>603</v>
       </c>
       <c r="B77" s="34" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="C77" s="34">
         <v>603</v>
       </c>
       <c r="D77" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="E77" s="50" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -30455,16 +30451,16 @@
         <v>617</v>
       </c>
       <c r="B78" s="34" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="C78" s="34">
         <v>617</v>
       </c>
       <c r="D78" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="E78" s="50" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -30472,16 +30468,16 @@
         <v>662</v>
       </c>
       <c r="B79" s="34" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="C79" s="34">
         <v>662</v>
       </c>
       <c r="D79" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="E79" s="50" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -30489,7 +30485,7 @@
         <v>720</v>
       </c>
       <c r="B80" s="34" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="C80" s="34">
         <v>720</v>
@@ -30498,7 +30494,7 @@
         <v>744</v>
       </c>
       <c r="E80" s="50" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -30506,16 +30502,16 @@
         <v>754</v>
       </c>
       <c r="B81" s="34" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C81" s="34">
         <v>754</v>
       </c>
       <c r="D81" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="E81" s="50" t="s">
-        <v>1177</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -30523,7 +30519,7 @@
         <v>761</v>
       </c>
       <c r="B82" s="34" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="C82" s="34">
         <v>761</v>
@@ -30532,7 +30528,7 @@
         <v>757</v>
       </c>
       <c r="E82" s="50" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -30540,13 +30536,13 @@
         <v>801</v>
       </c>
       <c r="B83" s="34" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="C83" s="34" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="D83" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -30554,13 +30550,13 @@
         <v>803</v>
       </c>
       <c r="B84" s="34" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="C84" s="34" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="D84" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -30568,13 +30564,13 @@
         <v>804</v>
       </c>
       <c r="B85" s="34" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="C85" s="34" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="D85" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -30582,13 +30578,13 @@
         <v>807</v>
       </c>
       <c r="B86" s="34" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="C86" s="34" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="D86" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -30596,13 +30592,13 @@
         <v>857</v>
       </c>
       <c r="B87" s="34" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="C87" s="34" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="D87" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -30610,7 +30606,7 @@
         <v>910</v>
       </c>
       <c r="B88" s="34" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="C88" s="34" t="s">
         <v>740</v>
